--- a/assets/reporteCursos.xlsx
+++ b/assets/reporteCursos.xlsx
@@ -3582,35 +3582,35 @@
   <dimension ref="A1:AI394"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="30" min="27" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.6032388663968"/>
   </cols>

--- a/assets/reporteCursos.xlsx
+++ b/assets/reporteCursos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6841" uniqueCount="1144">
   <si>
     <t>Listado de Cursos</t>
   </si>
@@ -3446,6 +3446,12 @@
   </si>
   <si>
     <t>THE PRACTICE OF EVERYDAY LIFE</t>
+  </si>
+  <si>
+    <t>DESTRONCADA DE CHOTA</t>
+  </si>
+  <si>
+    <t>07-03-2017</t>
   </si>
 </sst>
 </file>
@@ -3579,38 +3585,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI394"/>
+  <dimension ref="A1:AI395"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C391" activeCellId="0" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="30" min="27" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.6032388663968"/>
   </cols>
@@ -4325,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="T8" s="0" t="s">
         <v>80</v>
@@ -43702,7 +43708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>1140</v>
       </c>
@@ -43798,6 +43804,104 @@
       </c>
       <c r="AH394" s="4" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B395" s="3" t="n">
+        <v>19098</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E395" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="G395" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H395" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I395" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J395" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="K395" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L395" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M395" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N395" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O395" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P395" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q395" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="T395" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="U395" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="V395" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="W395" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="X395" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y395" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z395" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA395" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB395" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC395" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD395" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE395" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF395" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG395" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH395" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/reporteCursos.xlsx
+++ b/assets/reporteCursos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,3436 +22,3436 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6841" uniqueCount="1144">
   <si>
-    <t>Listado de Cursos</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Cod.Presup.</t>
-  </si>
-  <si>
-    <t>Curso</t>
-  </si>
-  <si>
-    <t>U.A.</t>
-  </si>
-  <si>
-    <t>Nomb.U.A.</t>
-  </si>
-  <si>
-    <t>Inicio</t>
-  </si>
-  <si>
-    <t>Fin</t>
-  </si>
-  <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Dictado</t>
-  </si>
-  <si>
-    <t>C.Abierta</t>
-  </si>
-  <si>
-    <t>F.J.S. Insc.</t>
-  </si>
-  <si>
-    <t>F.J.S. Acad.</t>
-  </si>
-  <si>
-    <t>Vigente</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Bloqueo Eco.</t>
-  </si>
-  <si>
-    <t>Cupo Max.</t>
-  </si>
-  <si>
-    <t>Cupo Eco.</t>
-  </si>
-  <si>
-    <t>Fec.Cupo</t>
-  </si>
-  <si>
-    <t>Fin Insc.</t>
-  </si>
-  <si>
-    <t>Cant.Hs.</t>
-  </si>
-  <si>
-    <t>Duración</t>
-  </si>
-  <si>
-    <t>Cant.Días</t>
-  </si>
-  <si>
-    <t>Participantes</t>
-  </si>
-  <si>
-    <t>Inscriptos</t>
-  </si>
-  <si>
-    <t>Insc.Únicos</t>
-  </si>
-  <si>
-    <t>Docu OK</t>
-  </si>
-  <si>
-    <t>Habi OK</t>
-  </si>
-  <si>
-    <t>Pago OK</t>
-  </si>
-  <si>
-    <t>Exentos</t>
-  </si>
-  <si>
-    <t>Deuda Tot.</t>
-  </si>
-  <si>
-    <t>Deuda Venc.</t>
-  </si>
-  <si>
-    <t>Recargo D.V.</t>
-  </si>
-  <si>
-    <t>Pagado</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>00-0007316</t>
-  </si>
-  <si>
-    <t>ENTRENAMIENTO EN PRÓTESIS FIJA ACTUALIZADA. DIAGNÓSTICO Y ALTERNATIVAS TERAPEUTICAS</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Cs. Salud</t>
-  </si>
-  <si>
-    <t>30-06-2017</t>
-  </si>
-  <si>
-    <t>01-06-2018</t>
-  </si>
-  <si>
-    <t>FORMACION DE POSGRADO (FJS)</t>
-  </si>
-  <si>
-    <t>Capacitación</t>
-  </si>
-  <si>
-    <t>Inside</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Terminado</t>
-  </si>
-  <si>
-    <t>&amp;nbsp;Bloqueado&amp;nbsp;</t>
-  </si>
-  <si>
-    <t>03-01-2017</t>
-  </si>
-  <si>
-    <t>LARGO</t>
-  </si>
-  <si>
-    <t>00-0007378</t>
-  </si>
-  <si>
-    <t>BUSINESS ADMINISTRATION</t>
-  </si>
-  <si>
-    <t>ICDA</t>
-  </si>
-  <si>
-    <t>24-07-2017</t>
-  </si>
-  <si>
-    <t>09-04-2018</t>
-  </si>
-  <si>
-    <t>DIPLOMATURAS (FJS)</t>
-  </si>
-  <si>
-    <t>Cancelado</t>
-  </si>
-  <si>
-    <t>01-01-2017</t>
-  </si>
-  <si>
-    <t>00-0007404</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN MODELOS DE ABORDAJE TERAPÉUTICO EN PSIQUIATRÍA INFANTO-JUVENIL.</t>
-  </si>
-  <si>
-    <t>16-06-2017</t>
-  </si>
-  <si>
-    <t>18-05-2018</t>
-  </si>
-  <si>
-    <t>27-06-2017</t>
-  </si>
-  <si>
-    <t>00-0007962</t>
-  </si>
-  <si>
-    <t>ANALISIS MARGINAL NIVEL 1: Nociones Básicas</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Cs. Ec.</t>
-  </si>
-  <si>
-    <t>05-10-2017</t>
-  </si>
-  <si>
-    <t>01-01-2018</t>
-  </si>
-  <si>
-    <t>CURSOS ABIERTOS (FJS)</t>
-  </si>
-  <si>
-    <t>22-12-2017</t>
-  </si>
-  <si>
-    <t>10-12-2017</t>
-  </si>
-  <si>
-    <t>MEDIANO</t>
-  </si>
-  <si>
-    <t>00-0007986</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>Edu.</t>
-  </si>
-  <si>
-    <t>25-09-2017</t>
-  </si>
-  <si>
-    <t>25-01-2018</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>26-09-2017</t>
-  </si>
-  <si>
-    <t>00-0007987</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ADOLESCENCIA: BULLYING Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>23-12-2018</t>
-  </si>
-  <si>
-    <t>Iniciado</t>
-  </si>
-  <si>
-    <t>00-0007994</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN PRODUCCIÓN DE FIBRAS TEXTILES ANIMALES</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Agr.</t>
-  </si>
-  <si>
-    <t>27-10-2017</t>
-  </si>
-  <si>
-    <t>22-05-2018</t>
-  </si>
-  <si>
-    <t>21-05-2018</t>
-  </si>
-  <si>
-    <t>28-10-2017</t>
-  </si>
-  <si>
-    <t>00-0008002</t>
-  </si>
-  <si>
-    <t>BASES GENÉTICAS DE LA PRODUCCIÓN DE FIBRA</t>
-  </si>
-  <si>
-    <t>09-03-2018</t>
-  </si>
-  <si>
-    <t>10-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008003</t>
-  </si>
-  <si>
-    <t>BASES TEXTILES DE LA PRODUCCIÓN DE FIBRA</t>
-  </si>
-  <si>
-    <t>13-04-2018</t>
-  </si>
-  <si>
-    <t>14-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008004</t>
-  </si>
-  <si>
-    <t>DEMOGRAFÍA ZOOTÉCNICA APLICADA A POBLACIONES PRODUCTORAS DE FIBRAS</t>
-  </si>
-  <si>
-    <t>00-0008010</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN SUELOS Y FERTILIDAD</t>
-  </si>
-  <si>
-    <t>16-03-2018</t>
-  </si>
-  <si>
-    <t>14-12-2018</t>
-  </si>
-  <si>
-    <t>Recargado</t>
-  </si>
-  <si>
-    <t>20-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008253</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN GESTIÓN DE AMBIENTE Y ORDENAMIENTO TERRITORIAL</t>
-  </si>
-  <si>
-    <t>22-12-2018</t>
-  </si>
-  <si>
-    <t>02-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008254</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN GESTIÓN Y MANEJO DE PAISAJE</t>
-  </si>
-  <si>
-    <t>15-12-2018</t>
-  </si>
-  <si>
-    <t>28-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008355</t>
-  </si>
-  <si>
-    <t>LIDERAZGO Y EMPODERAMIENTO DE MANDOS MEDIOS</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD</t>
-  </si>
-  <si>
-    <t>09-06-2018</t>
-  </si>
-  <si>
-    <t>16-06-2018</t>
-  </si>
-  <si>
-    <t>FORMACION EJECUTIVA (FJS)</t>
-  </si>
-  <si>
-    <t>In Company</t>
-  </si>
-  <si>
-    <t>00-0008375</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL</t>
-  </si>
-  <si>
-    <t>05-02-2018</t>
-  </si>
-  <si>
-    <t>02-04-2018</t>
-  </si>
-  <si>
-    <t>09-02-2018</t>
-  </si>
-  <si>
-    <t>08-02-2018</t>
-  </si>
-  <si>
-    <t>00-0008397</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN MERCADOS DE CAPITALES</t>
-  </si>
-  <si>
-    <t>01-12-2018</t>
-  </si>
-  <si>
-    <t>05-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008415</t>
-  </si>
-  <si>
-    <t>DERECHO REGISTRAL Y SU PERSPECTIVA EN EL DERECHO PATRIMONIAL</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Der.</t>
-  </si>
-  <si>
-    <t>16-04-2018</t>
-  </si>
-  <si>
-    <t>13-08-2018</t>
-  </si>
-  <si>
-    <t>09-05-2018</t>
-  </si>
-  <si>
-    <t>01-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008416</t>
-  </si>
-  <si>
-    <t>IMPUGNACIONES EN EL PROCESO PENAL</t>
-  </si>
-  <si>
-    <t>26-07-2018</t>
-  </si>
-  <si>
-    <t>20-12-2018</t>
-  </si>
-  <si>
-    <t>05-07-2018</t>
-  </si>
-  <si>
-    <t>25-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008435</t>
-  </si>
-  <si>
-    <t>WEBINAR: TEJIENDO REDES INCLUSIVAS</t>
-  </si>
-  <si>
-    <t>02-08-2018</t>
-  </si>
-  <si>
-    <t>24-06-2019</t>
-  </si>
-  <si>
-    <t>27-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008436</t>
-  </si>
-  <si>
-    <t>WEBINAR: CONSTRUYENDO LA ACCESIBILIDAD PARA CADA ESTUDIANTE</t>
-  </si>
-  <si>
-    <t>24-12-2018</t>
-  </si>
-  <si>
-    <t>00-0008455</t>
-  </si>
-  <si>
-    <t>WEBINAR: VALORANDO LAS POTENCIALIDADES COMUNICATIVAS</t>
-  </si>
-  <si>
-    <t>01-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008456</t>
-  </si>
-  <si>
-    <t>WEBINAR: FACILITANDO LA COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t>00-0008457</t>
-  </si>
-  <si>
-    <t>WEBINAR: PLANIFICANDO PARA LA DIVERSIDAD</t>
-  </si>
-  <si>
-    <t>00-0008458</t>
-  </si>
-  <si>
-    <t>WEBINAR: ACCEDIENDO AL CURRÍCULO REGULAR</t>
-  </si>
-  <si>
-    <t>No definido</t>
-  </si>
-  <si>
-    <t>04-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008459</t>
-  </si>
-  <si>
-    <t>GESTIÓN DIRECTIVA</t>
-  </si>
-  <si>
-    <t>28-04-2018</t>
-  </si>
-  <si>
-    <t>03-11-2018</t>
-  </si>
-  <si>
-    <t>Actualización</t>
-  </si>
-  <si>
-    <t>21-04-2018</t>
-  </si>
-  <si>
-    <t>27-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008460</t>
-  </si>
-  <si>
-    <t>GESTION DE REPUESTOS Y ALMACENES</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Ing.</t>
-  </si>
-  <si>
-    <t>07-04-2018</t>
-  </si>
-  <si>
-    <t>En reprogramación</t>
-  </si>
-  <si>
-    <t>08-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008475</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN DERMATOCOSMÉTICA</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Cs. Qs.</t>
-  </si>
-  <si>
-    <t>26-11-2018</t>
-  </si>
-  <si>
-    <t>30-05-2018</t>
-  </si>
-  <si>
-    <t>12-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008476</t>
-  </si>
-  <si>
-    <t>DIAGNÓSTICO E INTERVENCIÓN EN DELINCUENCIA JUVENIL</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Fil.</t>
-  </si>
-  <si>
-    <t>31-12-2018</t>
-  </si>
-  <si>
-    <t>00-0008478</t>
-  </si>
-  <si>
-    <t>COMPETENCIAS CLÍNICAS</t>
-  </si>
-  <si>
-    <t>15-03-2018</t>
-  </si>
-  <si>
-    <t>21-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008479</t>
-  </si>
-  <si>
-    <t>ABORDAJE INTERDISCIPLINARIO DE LA DISCAPACIDAD Y PATOLOGIZACIÓN EN LAS INFANCIAS ACTUALES</t>
-  </si>
-  <si>
-    <t>26-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008480</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ENERGIAS RENOVABLES</t>
-  </si>
-  <si>
-    <t>23-06-2018</t>
-  </si>
-  <si>
-    <t>18-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008481</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN TÉCNICAS DE LABORATORIO VIAL</t>
-  </si>
-  <si>
-    <t>19-04-2018</t>
-  </si>
-  <si>
-    <t>01-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008495</t>
-  </si>
-  <si>
-    <t>SUPPLY CHAIN 4.0. LA CADENA DE SUMINISTROS EN LA ERA DIGITAL</t>
-  </si>
-  <si>
-    <t>04-04-2018</t>
-  </si>
-  <si>
-    <t>23-05-2018</t>
-  </si>
-  <si>
-    <t>02-01-2018</t>
-  </si>
-  <si>
-    <t>00-0008496</t>
-  </si>
-  <si>
-    <t>LA EDUCACION POPULAR HOY</t>
-  </si>
-  <si>
-    <t>14-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008498</t>
-  </si>
-  <si>
-    <t>VISIBILIZAR LO COTIDIANO: SISTEMATIZACIÓN DE EXPERIENCIAS EDUCATIVAS</t>
-  </si>
-  <si>
-    <t>06-04-2018</t>
-  </si>
-  <si>
-    <t>08-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008499</t>
-  </si>
-  <si>
-    <t>FINANZAS PERSONALES NIVEL I</t>
-  </si>
-  <si>
-    <t>21-03-2018</t>
-  </si>
-  <si>
-    <t>15-06-2018</t>
-  </si>
-  <si>
-    <t>05-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008500</t>
-  </si>
-  <si>
-    <t>LIDERAZGO Y EMPODERAMIENTO A MANDOS MEDIOS NIVEL 1</t>
-  </si>
-  <si>
-    <t>14-09-2018</t>
-  </si>
-  <si>
-    <t>28-09-2018</t>
-  </si>
-  <si>
-    <t>Por iniciar</t>
-  </si>
-  <si>
-    <t>15-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008501</t>
-  </si>
-  <si>
-    <t>DESARROLLO DE ALIMENTOS FUNCIONALES</t>
-  </si>
-  <si>
-    <t>23-11-2018</t>
-  </si>
-  <si>
-    <t>24-11-2018</t>
-  </si>
-  <si>
-    <t>00-0008502</t>
-  </si>
-  <si>
-    <t>GESTIÓN DE MANTENIMIENTO INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>06-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008515</t>
-  </si>
-  <si>
-    <t>LOS PROYECTOS EN LA ESCUELA: HERRAMIENTAS PARA SU ELABORACIÓN</t>
-  </si>
-  <si>
-    <t>14-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008516</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN SENSORIAL Y OBJETIVA DE ALIMENTOS</t>
-  </si>
-  <si>
-    <t>24-08-2018</t>
-  </si>
-  <si>
-    <t>18-09-2018</t>
-  </si>
-  <si>
-    <t>17-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008518</t>
-  </si>
-  <si>
-    <t>LIDERAZGO Y COACHING</t>
-  </si>
-  <si>
-    <t>02-02-2018</t>
-  </si>
-  <si>
-    <t>16-02-2018</t>
-  </si>
-  <si>
-    <t>01-02-2018</t>
-  </si>
-  <si>
-    <t>00-0008519</t>
-  </si>
-  <si>
-    <t>DESARROLLO DEL CAPITAL HUMANO, UN ENFOQUE PRÁCTICO.</t>
-  </si>
-  <si>
-    <t>04-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008520</t>
-  </si>
-  <si>
-    <t>EXCEL PARA INVERSORES</t>
-  </si>
-  <si>
-    <t>19-10-2018</t>
-  </si>
-  <si>
-    <t>27-10-2018</t>
-  </si>
-  <si>
-    <t>20-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008521</t>
-  </si>
-  <si>
-    <t>PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
-  </si>
-  <si>
-    <t>03-03-2018</t>
-  </si>
-  <si>
-    <t>17-03-2018</t>
-  </si>
-  <si>
-    <t>04-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008522</t>
-  </si>
-  <si>
-    <t>ORATORIA Y COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t>00-0008523</t>
-  </si>
-  <si>
-    <t>TEORÍA POLÍTICA CONTEMPORÁNEA</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Pol.</t>
-  </si>
-  <si>
-    <t>12-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008524</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS</t>
-  </si>
-  <si>
-    <t>10-11-2018</t>
-  </si>
-  <si>
-    <t>00-0008555</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN REDES TELEINFORMÁTICAS</t>
-  </si>
-  <si>
-    <t>04-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008556</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN BUSINESS ADMINISTRATION</t>
-  </si>
-  <si>
-    <t>18-04-2018</t>
-  </si>
-  <si>
-    <t>28-11-2018</t>
-  </si>
-  <si>
-    <t>00-0008558</t>
-  </si>
-  <si>
-    <t>GESTIONANDO UNA ESCUELA INCLUSIVA</t>
-  </si>
-  <si>
-    <t>01-09-2018</t>
-  </si>
-  <si>
-    <t>22-04-2018</t>
-  </si>
-  <si>
-    <t>23-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008559</t>
-  </si>
-  <si>
-    <t>INTERVENCIÓN EN GRUPOS Y ORGANIZACIONES</t>
-  </si>
-  <si>
-    <t>27-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008561</t>
-  </si>
-  <si>
-    <t>EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS: Planificar por capacidades desde la óptica de la pedagogía diferenciada.</t>
-  </si>
-  <si>
-    <t>29-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008562</t>
-  </si>
-  <si>
-    <t>MICROBIOLOGÍA DE LOS ALIMENTOS</t>
-  </si>
-  <si>
-    <t>00-0008563</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA TOXICOLOGÍA DE LOS ALIMENTOS</t>
-  </si>
-  <si>
-    <t>00-0008564</t>
-  </si>
-  <si>
-    <t>REQUISITOS DE BPM (BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS)</t>
-  </si>
-  <si>
-    <t>12-05-2018</t>
-  </si>
-  <si>
-    <t>29-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008565</t>
-  </si>
-  <si>
-    <t>POES - PROCEDIMIENTOS OPERATIVOS ESTANDARIZADOS DE SANEAMIENTO</t>
-  </si>
-  <si>
-    <t>19-05-2018</t>
-  </si>
-  <si>
-    <t>13-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008575</t>
-  </si>
-  <si>
-    <t>MIP - MANEJO INTEGRADO DE PLAGAS</t>
-  </si>
-  <si>
-    <t>00-0008576</t>
-  </si>
-  <si>
-    <t>AUDITORÍAS INTERNAS DE BPM</t>
-  </si>
-  <si>
-    <t>30-06-2018</t>
-  </si>
-  <si>
-    <t>21-07-2018</t>
-  </si>
-  <si>
-    <t>01-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008577</t>
-  </si>
-  <si>
-    <t>TRAZABILIDAD EN LA INDUSTRIA ALIMENTARIA</t>
-  </si>
-  <si>
-    <t>11-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008578</t>
-  </si>
-  <si>
-    <t>RECALL - RETIRO DE PRODUCTOS DEL MERCADO</t>
-  </si>
-  <si>
-    <t>25-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008579</t>
-  </si>
-  <si>
-    <t>LEGISLACIÓN ALIMENTARIA</t>
-  </si>
-  <si>
-    <t>08-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008580</t>
-  </si>
-  <si>
-    <t>BPM EN ESTABLECIMIENTOS LIBRES DE GLUTEN</t>
-  </si>
-  <si>
-    <t>29-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008581</t>
-  </si>
-  <si>
-    <t>SISTEMAS DE INOCUIDAD ALIMENTARIA</t>
-  </si>
-  <si>
-    <t>06-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008597</t>
-  </si>
-  <si>
-    <t>DELITO Y PERSONALIDAD: CONSIDERACIONES PSICOLÓGICAS Y CRIMINOLÓGICAS. ABORDAJE INSTITUCIONAL</t>
-  </si>
-  <si>
-    <t>11-05-2018</t>
-  </si>
-  <si>
-    <t>22-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008599</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA PSICOLOGÍA DEL DEPORTE Y LA ACTIVIDAD FÍSICA</t>
-  </si>
-  <si>
-    <t>19-11-2018</t>
-  </si>
-  <si>
-    <t>14-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008600</t>
-  </si>
-  <si>
-    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE</t>
-  </si>
-  <si>
-    <t>00-0008601</t>
-  </si>
-  <si>
-    <t>STARTUPS - DERECHO - MANAGEMENT Y FINANCIAMIENTO</t>
-  </si>
-  <si>
-    <t>17-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008602</t>
-  </si>
-  <si>
-    <t>ORIENTACION VOCACIONAL Y OCUPACIONAL: COMPETENCIAS DE LOS ORIENTADORES</t>
-  </si>
-  <si>
-    <t>08-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008603</t>
-  </si>
-  <si>
-    <t>EJECUCIÓN DE LA PENA: ASPECTOS PRÁCTICOS</t>
-  </si>
-  <si>
-    <t>06-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008604</t>
-  </si>
-  <si>
-    <t>REPORTE DE SOSTENIBILIDAD GRI STANDARS</t>
-  </si>
-  <si>
-    <t>11-10-2018</t>
-  </si>
-  <si>
-    <t>13-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008606</t>
-  </si>
-  <si>
-    <t>INTERDISCIPLINARIO EN INTRODUCCIÓN A LOS CUIDADOS PALIATIVOS</t>
-  </si>
-  <si>
-    <t>00-0008623</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN DERECHOS DE LAS PERSONAS MIGRANTES EN ARGENTINA</t>
-  </si>
-  <si>
-    <t>14-05-2018</t>
-  </si>
-  <si>
-    <t>14-07-2018</t>
-  </si>
-  <si>
-    <t>24-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008624</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA INTERNACIONAL EN EDUCACIÓN EN DERECHOS HUMANOS - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t>30-11-2018</t>
-  </si>
-  <si>
-    <t>02-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008625</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA INTERNACIONAL EN SEGURIDAD HUMANA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t>00-0008626</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA INTERNACIONAL EN PARTICIPACIÓN, CIUDADANÍA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t>00-0008627</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA INTERNACIONAL EN DERECHOS HUMANOS CON MENCIÓN EN ACCESO A LA JUSTICIA - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t>00-0008644</t>
-  </si>
-  <si>
-    <t>NARCOTRÁFICO DESDE UNA PERSPECTIVA MULTIDISCIPLINARIA</t>
-  </si>
-  <si>
-    <t>16-08-2018</t>
-  </si>
-  <si>
-    <t>15-11-2018</t>
-  </si>
-  <si>
-    <t>10-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008645</t>
-  </si>
-  <si>
-    <t>PROCEDIMIENTO PENAL FEDERAL Y DESAFÍOS ACTUALES</t>
-  </si>
-  <si>
-    <t>19-07-2018</t>
-  </si>
-  <si>
-    <t>25-10-2018</t>
-  </si>
-  <si>
-    <t>20-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008646</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA INTERDISCIPLINARIA EN CUIDADOS PALIATIVOS</t>
-  </si>
-  <si>
-    <t>00-0008647</t>
-  </si>
-  <si>
-    <t>BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO - JUVENIL</t>
-  </si>
-  <si>
-    <t>31-05-2020</t>
-  </si>
-  <si>
-    <t>00-0008648</t>
-  </si>
-  <si>
-    <t>EL SECRETARIO DOCENTE EN LA NUEVA ORGANIZACIÓN ESCOLAR</t>
-  </si>
-  <si>
-    <t>00-0008649</t>
-  </si>
-  <si>
-    <t>ARTE POR TODAS PARTES</t>
-  </si>
-  <si>
-    <t>00-0008650</t>
-  </si>
-  <si>
-    <t>PRODUCTOS MÉDICOS Y ORTOPEDICOS EN LA FARMACIA COMUNITARIA</t>
-  </si>
-  <si>
-    <t>00-0008651</t>
-  </si>
-  <si>
-    <t>¿CÓMO CONSTRUIR UN PROTOCOLO ANTI BULLYING Y ANTI GROOMING?</t>
-  </si>
-  <si>
-    <t>11-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008652</t>
-  </si>
-  <si>
-    <t>ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO</t>
-  </si>
-  <si>
-    <t>17-04-2018</t>
-  </si>
-  <si>
-    <t>03-01-2018</t>
-  </si>
-  <si>
-    <t>00-0008653</t>
-  </si>
-  <si>
-    <t>GESTIÓN DE LA RESPONSABILIDAD SOCIAL EMPRESARIA Y REPORTES</t>
-  </si>
-  <si>
-    <t>06-09-2018</t>
-  </si>
-  <si>
-    <t>15-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008654</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN SISTEMAS DE GESTIÓN DE LA CALIDAD E INOCUIDAD ALIMENTARIA - IRAM</t>
-  </si>
-  <si>
-    <t>02-08-2019</t>
-  </si>
-  <si>
-    <t>00-0008655</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN SISTEMAS DE GESTIÓN INTEGRADOS - IRAM</t>
-  </si>
-  <si>
-    <t>07-09-2018</t>
-  </si>
-  <si>
-    <t>09-08-2019</t>
-  </si>
-  <si>
-    <t>00-0008659</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ENERGÍAS RENOVABLES - TERCERA EDICIÓN.</t>
-  </si>
-  <si>
-    <t>29-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008661</t>
-  </si>
-  <si>
-    <t>00-0008662</t>
-  </si>
-  <si>
-    <t>00-0008663</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN CIBERSEGURIDAD</t>
-  </si>
-  <si>
-    <t>00-0008664</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN DESARROLLO DE APLICACIONES PARA ANDROID</t>
-  </si>
-  <si>
-    <t>00-0008666</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN LITERATURA ARGENTINA CONTEMPORÁNEA (1980 A LA ACTUALIDAD)</t>
-  </si>
-  <si>
-    <t>23-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008668</t>
-  </si>
-  <si>
-    <t>LA EDUCACIÓN POPULAR HOY</t>
-  </si>
-  <si>
-    <t>00-0008670</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN LIDERAZGO ORGÁNICO. COACHING, INTELIGENCIA EMOCIONAL Y NEUROCIENCIAS.</t>
-  </si>
-  <si>
-    <t>24-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008671</t>
-  </si>
-  <si>
-    <t>DERMOCOSMÉTICA</t>
-  </si>
-  <si>
-    <t>21-09-2018</t>
-  </si>
-  <si>
-    <t>22-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008672</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN NUTRICIÓN CLÍNICA</t>
-  </si>
-  <si>
-    <t>05-03-2018</t>
-  </si>
-  <si>
-    <t>04-03-2019</t>
-  </si>
-  <si>
-    <t>30-08-2018</t>
-  </si>
-  <si>
-    <t>06-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008674</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN AL BIG DATA Y SOPORTE DE DECISIONES EN BASE A DATOS</t>
-  </si>
-  <si>
-    <t>02-07-2018</t>
-  </si>
-  <si>
-    <t>25-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008675</t>
-  </si>
-  <si>
-    <t>MARKETING ESTRATÉGICO PARA FARMACIAS</t>
-  </si>
-  <si>
-    <t>28-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008676</t>
-  </si>
-  <si>
-    <t>TESIS DE POSGRADO: CUATRO HERRAMIENTAS PRACTICAS</t>
-  </si>
-  <si>
-    <t>07-11-2018</t>
-  </si>
-  <si>
-    <t>14-11-2018</t>
-  </si>
-  <si>
-    <t>08-11-2018</t>
-  </si>
-  <si>
-    <t>00-0008677</t>
-  </si>
-  <si>
-    <t>EQUIDAD DE GÉNERO Y PREVENCIÓN DE LA VIOLENCIA DE GÉNERO EN LA ESCUELA DE NIVEL MEDIO</t>
-  </si>
-  <si>
-    <t>00-0008678</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE CÓRDOBA</t>
-  </si>
-  <si>
-    <t>00-0008679</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMERICA LATINA Y EL CARIBE</t>
-  </si>
-  <si>
-    <t>00-0008680</t>
-  </si>
-  <si>
-    <t>GESTIÓN DE PROYECTOS DE DESARROLLO LOCAL</t>
-  </si>
-  <si>
-    <t>08-08-2018</t>
-  </si>
-  <si>
-    <t>17-09-2018</t>
-  </si>
-  <si>
-    <t>12-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008681</t>
-  </si>
-  <si>
-    <t>DECODIFICANDO LA RELACIÓN ARGENTINA Y BRASIL: HISTORIA Y FUTURO</t>
-  </si>
-  <si>
-    <t>22-10-2018</t>
-  </si>
-  <si>
-    <t>23-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008682</t>
-  </si>
-  <si>
-    <t>POLÍTICA Y POLÍTICAS PÚBLICAS</t>
-  </si>
-  <si>
-    <t>03-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008683</t>
-  </si>
-  <si>
-    <t>PROGRAMAS PÚBLICO - PRIVADO PARA EL DESARROLLO EMPRENDEDOR</t>
-  </si>
-  <si>
-    <t>07-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008684</t>
-  </si>
-  <si>
-    <t>EL IMPACTO EN LOS NEGOCIOS DE LA REFORMA TRIBUTARIA NACIONAL Y LOCAL. Desde una mirada práctica.</t>
-  </si>
-  <si>
-    <t>16-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008686</t>
-  </si>
-  <si>
-    <t>GOBERNAR EL RIESGO DE DESASTRES. POLÍTICAS Y METODOLOGÍAS.</t>
-  </si>
-  <si>
-    <t>03-08-2018</t>
-  </si>
-  <si>
-    <t>04-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008687</t>
-  </si>
-  <si>
-    <t>DISEÑO E IMPLEMENTACIÓN DE PROYECTOS DE COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t>28-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008688</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS PARA LA GESTIÓN DE FUENTES DE FINANCIAMIENTO INTERNACIONAL.</t>
-  </si>
-  <si>
-    <t>11-06-2018</t>
-  </si>
-  <si>
-    <t>05-06-2018</t>
-  </si>
-  <si>
-    <t>00-0008689</t>
-  </si>
-  <si>
-    <t>NEGOCIACIÓN Y COMUNICACIÓN INSTITUCIONAL CON ACTORES POLÍTICOS SOCIALES, GRUPOS ASOCIATIVOS Y DE INTERÉS</t>
-  </si>
-  <si>
-    <t>06-08-2018</t>
-  </si>
-  <si>
-    <t>07-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008690</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN FORTALECIMIENTO INSTITUCIONAL DE PARTIDOS POLÍTICOS</t>
-  </si>
-  <si>
-    <t>27-11-2018</t>
-  </si>
-  <si>
-    <t>18-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008691</t>
-  </si>
-  <si>
-    <t>ESTADÍSTICA PARA CIENCIAS BIOLÓGICAS</t>
-  </si>
-  <si>
-    <t>00-0008692</t>
-  </si>
-  <si>
-    <t>DIABETES MELLITUS TIPO 2: estrategias de prevención y seguimiento farmacoterapéutico del paciente con diagnóstico.</t>
-  </si>
-  <si>
-    <t>02-10-2018</t>
-  </si>
-  <si>
-    <t>03-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008693</t>
-  </si>
-  <si>
-    <t>BUENAS PRÁCTICAS FARMACÉUTICAS EN LA FARMACIA OFICINAL</t>
-  </si>
-  <si>
-    <t>16-11-2018</t>
-  </si>
-  <si>
-    <t>00-0008694</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN ESTÉTICA EN LA FILOSOFÍA DE JOHN DEWEY</t>
-  </si>
-  <si>
-    <t>00-0008695</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN EMPRESAS FAMILIARES. Gestión de la Empresa Familiar y profesionalización de la familia empresaria.</t>
-  </si>
-  <si>
-    <t>00-0008696</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE FORMACIÓN GERENCIAL</t>
-  </si>
-  <si>
-    <t>00-0008697</t>
-  </si>
-  <si>
-    <t>FORMULACIÓN DE PROTOCOLOS DE ACTUACIÓN EN VIOLENCIA INTRAFAMILIAR PARA DOCENTES DEL SISTEMA EDUCATIVO</t>
-  </si>
-  <si>
-    <t>07-06-2018</t>
-  </si>
-  <si>
-    <t>09-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008698</t>
-  </si>
-  <si>
-    <t>METODOLOGÍA DE LA INVESTIGACIÓN CIENTÍFICA PARA LAS CIENCIAS BIOLÓGICAS</t>
-  </si>
-  <si>
-    <t>15-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008718</t>
-  </si>
-  <si>
-    <t>JORNADAS DE MEDICINA VETERINARIA LEGAL Y FORENSE</t>
-  </si>
-  <si>
-    <t>17-11-2018</t>
-  </si>
-  <si>
-    <t>00-0008719</t>
-  </si>
-  <si>
-    <t>PROTECCIÓN DE CULTIVOS</t>
-  </si>
-  <si>
-    <t>10-02-2018</t>
-  </si>
-  <si>
-    <t>00-0008720</t>
-  </si>
-  <si>
-    <t>ZOOLOGÍA, DISHERBOLOGÍA Y MODO DE ACCIÓN DE AGROQUÍMICOS</t>
-  </si>
-  <si>
-    <t>00-0008721</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS PARA EL MANEJO DE ORGANISMOS PERJUDICIALES</t>
-  </si>
-  <si>
-    <t>27-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008722</t>
-  </si>
-  <si>
-    <t>ESTADÍSTICA Y EPIDEMIOLOGÍA</t>
-  </si>
-  <si>
-    <t>00-0008723</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN TÉCNICA DE OBRA - EDIFICIOS EN ALTURA</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Arq.</t>
-  </si>
-  <si>
-    <t>26-04-2018</t>
-  </si>
-  <si>
-    <t>12-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008724</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN AGRÍCOLA Y PROYECTOS DE INVERSIÓN</t>
-  </si>
-  <si>
-    <t>00-0008725</t>
-  </si>
-  <si>
-    <t>APLICACIÓN DE PLAGUICIDAS</t>
-  </si>
-  <si>
-    <t>28-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008726</t>
-  </si>
-  <si>
-    <t>FITOPATÓGENOS Y DIAGNÓSTICO</t>
-  </si>
-  <si>
-    <t>00-0008727</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ECONOMÍA DEL FUTURO: BITCOINS Y FINTECH</t>
-  </si>
-  <si>
-    <t>07-12-2018</t>
-  </si>
-  <si>
-    <t>29-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008728</t>
-  </si>
-  <si>
-    <t>ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CORDOBA.</t>
-  </si>
-  <si>
-    <t>28-02-2018</t>
-  </si>
-  <si>
-    <t>02-03-2018</t>
-  </si>
-  <si>
-    <t>26-02-2018</t>
-  </si>
-  <si>
-    <t>00-0008729</t>
-  </si>
-  <si>
-    <t>COOPERACIÓN INTERNACIONAL, ALIANZAS ESTRATÉGICAS Y SECTOR PRIVADO</t>
-  </si>
-  <si>
-    <t>00-0008730</t>
-  </si>
-  <si>
-    <t>LIDERAZGO Y COACHING. SEGUNDA EDICIÓN</t>
-  </si>
-  <si>
-    <t>00-0008731</t>
-  </si>
-  <si>
-    <t>ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CÓRDOBA.</t>
-  </si>
-  <si>
-    <t>01-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008751</t>
-  </si>
-  <si>
-    <t>DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS. CUARTA Y QUINTA EDICIÓN</t>
-  </si>
-  <si>
-    <t>07-03-2018</t>
-  </si>
-  <si>
-    <t>08-03-2018</t>
-  </si>
-  <si>
-    <t>00-0008752</t>
-  </si>
-  <si>
-    <t>CURSO DE NEONATOLOGÍA Y PEDIATRÍA EQUINA: DEL ÚTERO AL STUD</t>
-  </si>
-  <si>
-    <t>00-0008771</t>
-  </si>
-  <si>
-    <t>COACHING EDUCACIONAL</t>
-  </si>
-  <si>
-    <t>00-0008772</t>
-  </si>
-  <si>
-    <t>GOBERNANZA ABIERTA Y COLABORATIVA: NUEVAS RELACIONES EN EL TERRITORIO</t>
-  </si>
-  <si>
-    <t>08-10-2018</t>
-  </si>
-  <si>
-    <t>09-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008773</t>
-  </si>
-  <si>
-    <t>PROYECTOS DE INTERVENCIÓN PEDAGÓGICA PARA LA INCLUSIÓN (ÁMBITO INFORMAL Y NO FORMAL)</t>
-  </si>
-  <si>
-    <t>00-0008774</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN GUBERNAMENTAL</t>
-  </si>
-  <si>
-    <t>00-0008794</t>
-  </si>
-  <si>
-    <t>RESOLUCIÓN DE CONFLICTOS EN ESTABLECIMIENTOS EDUCATIVOS: PRÁCTICAS Y ESTRATEGIAS</t>
-  </si>
-  <si>
-    <t>07-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008795</t>
-  </si>
-  <si>
-    <t>ESTRATEGIAS PARA EL DIAGNÓSTICO PSICOPEDAGÓGICO. CONOCIMIENTO, APLICACIÓN Y ANÁLISIS.</t>
-  </si>
-  <si>
-    <t>00-0008817</t>
-  </si>
-  <si>
-    <t>TEORÍA Y ANÁLISIS DE CONFLICTOS</t>
-  </si>
-  <si>
-    <t>31-08-2018</t>
-  </si>
-  <si>
-    <t>00-0008822</t>
-  </si>
-  <si>
-    <t>00-0008824</t>
-  </si>
-  <si>
-    <t>DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL NIVEL INICIAL</t>
-  </si>
-  <si>
-    <t>00-0008825</t>
-  </si>
-  <si>
-    <t>BUENAS PRÁCTICAS DEL PROTOCOLO FAMILIAR EN LATINOAMÉRICA</t>
-  </si>
-  <si>
-    <t>CORTO</t>
-  </si>
-  <si>
-    <t>00-0008827</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE LA PAMPA</t>
-  </si>
-  <si>
-    <t>00-0008828</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE ENTRE RÍOS</t>
-  </si>
-  <si>
-    <t>02-02-2019</t>
-  </si>
-  <si>
-    <t>00-0008830</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN DE ESTUDIANTES CON DISCAPACIDAD MÚLTIPLE Y DISCAPACIDAD SENSORIAL</t>
-  </si>
-  <si>
-    <t>00-0008832</t>
-  </si>
-  <si>
-    <t>CIBERDELITOS. ABORDAJE LEGAL DE LA DELINCUENCIA COMPUTACIONAL</t>
-  </si>
-  <si>
-    <t>00-0008852</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ENERGÍA TERMO SOLAR</t>
-  </si>
-  <si>
-    <t>00-0008853</t>
-  </si>
-  <si>
-    <t>CURSO DE CÉLULAS MADRE MESENQUIMALES AUTÓLOGAS ADULTAS, PLASMA RICO EN PLAQUETAS Y OZONOTERAPIA.</t>
-  </si>
-  <si>
-    <t>00-0008872</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL - 2DA. EDICIÓN</t>
-  </si>
-  <si>
-    <t>00-0008894</t>
-  </si>
-  <si>
-    <t>CONSTRUCCIÓN DE EQUIPOS DEPORTIVOS</t>
-  </si>
-  <si>
-    <t>00-0008912</t>
-  </si>
-  <si>
-    <t>INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL AVANZADO</t>
-  </si>
-  <si>
-    <t>12-11-2018</t>
-  </si>
-  <si>
-    <t>00-0008913</t>
-  </si>
-  <si>
-    <t>JORNADA SOBRE CIENCIA, RELIGIÓN Y EDUCACIÓN PARA DOCENTES DE NIVEL SECUNDARIO</t>
-  </si>
-  <si>
-    <t>00-0008933</t>
-  </si>
-  <si>
-    <t>ENERGÍAS RENOVABLES - SEDE LA FALDA - DEFENSORÍA DEL PUEBLO</t>
-  </si>
-  <si>
-    <t>00-0008934</t>
-  </si>
-  <si>
-    <t>ENERGIAS RENOVABLES - SEDE VILLA SANTA CRUZ DEL LAGO (2018)</t>
-  </si>
-  <si>
-    <t>00-0008935</t>
-  </si>
-  <si>
-    <t>ENERGIAS RENOVABLES - SEDE VILLA GIARDINO - DEFENSORÍA DEL PUEBLO</t>
-  </si>
-  <si>
-    <t>00-0008953</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t>29-05-2018</t>
-  </si>
-  <si>
-    <t>00-0008955</t>
-  </si>
-  <si>
-    <t>24-04-2018</t>
-  </si>
-  <si>
-    <t>00-0008957</t>
-  </si>
-  <si>
-    <t>LAS PRÁCTICAS DEL CONOCIMIENTO EN EL CAMPO DE LA EDUCACIÓN</t>
-  </si>
-  <si>
-    <t>00-0008958</t>
-  </si>
-  <si>
-    <t>INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL INTERMEDIO</t>
-  </si>
-  <si>
-    <t>00-0008964</t>
-  </si>
-  <si>
-    <t>NEGOCIACIÓN INTERNACIONAL: ABORDAJE, HERRAMIENTAS PRÁCTICAS Y EQUIPO NEGOCIADOR EFECTIVO</t>
-  </si>
-  <si>
-    <t>03-09-2018</t>
-  </si>
-  <si>
-    <t>10-09-2018</t>
-  </si>
-  <si>
-    <t>04-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008968</t>
-  </si>
-  <si>
-    <t>DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL SECUNDARIO</t>
-  </si>
-  <si>
-    <t>00-0008969</t>
-  </si>
-  <si>
-    <t>NIVEL SUPERIOR E INCLUSIÓN</t>
-  </si>
-  <si>
-    <t>00-0008970</t>
-  </si>
-  <si>
-    <t>EDUCAR EN VALORES HOY</t>
-  </si>
-  <si>
-    <t>00-0008971</t>
-  </si>
-  <si>
-    <t>LA FIGURA DE CRISTO EN LA FILOSOFÍA - SEMINARIO DE FENOMENOLOGÍA</t>
-  </si>
-  <si>
-    <t>00-0008972</t>
-  </si>
-  <si>
-    <t>ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO Y SOBERANO</t>
-  </si>
-  <si>
-    <t>25-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008977</t>
-  </si>
-  <si>
-    <t>VI JORNADAS DE INVESTIGACIÓN E INTERVENCIÓN EN PSICOPEDAGOGÍA</t>
-  </si>
-  <si>
-    <t>00-0008978</t>
-  </si>
-  <si>
-    <t>BRAND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>19-09-2018</t>
-  </si>
-  <si>
-    <t>00-0008982</t>
-  </si>
-  <si>
-    <t>RESPONSABILIDAD SOCIAL PARA LA GESTIÓN DE LAS ORGANIZACIONES</t>
-  </si>
-  <si>
-    <t>00-0008983</t>
-  </si>
-  <si>
-    <t>TALLER DE ACOMPAÑAMIENTO PARA LA ESCRITURA DEL TRABAJO FINAL Y LA FINALIZACIÓN DE CARRERA</t>
-  </si>
-  <si>
-    <t>00-0008984</t>
-  </si>
-  <si>
-    <t>LIDERAZGO Y COACHING - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0008988</t>
-  </si>
-  <si>
-    <t>CEREMONIAL Y PROTOCOLO</t>
-  </si>
-  <si>
-    <t>00-0008989</t>
-  </si>
-  <si>
-    <t>LA AUTORIDAD PEDAGÓGICA COMO ENCUENTRO DE TRAYECTORIAS</t>
-  </si>
-  <si>
-    <t>00-0008990</t>
-  </si>
-  <si>
-    <t>ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA</t>
-  </si>
-  <si>
-    <t>00-0008992</t>
-  </si>
-  <si>
-    <t>METODOLOGÍA CUANTITATIVA</t>
-  </si>
-  <si>
-    <t>00-0008993</t>
-  </si>
-  <si>
-    <t>SALUD ANIMAL</t>
-  </si>
-  <si>
-    <t>07-10-2018</t>
-  </si>
-  <si>
-    <t>00-0008994</t>
-  </si>
-  <si>
-    <t>GESTIÓN DIRECTIVA - ARROYITO</t>
-  </si>
-  <si>
-    <t>00-0008996</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS DIGITALES PARA LA VIDA COTIDIANA - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0008997</t>
-  </si>
-  <si>
-    <t>LABORATORIO DE JUGUETES - NAZARETH</t>
-  </si>
-  <si>
-    <t>23-07-2018</t>
-  </si>
-  <si>
-    <t>00-0008999</t>
-  </si>
-  <si>
-    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - NAZARETH</t>
-  </si>
-  <si>
-    <t>18-10-2018</t>
-  </si>
-  <si>
-    <t>00-0009000</t>
-  </si>
-  <si>
-    <t>PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - NAZARETH</t>
-  </si>
-  <si>
-    <t>12-10-2018</t>
-  </si>
-  <si>
-    <t>05-10-2018</t>
-  </si>
-  <si>
-    <t>00-0009001</t>
-  </si>
-  <si>
-    <t>TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009002</t>
-  </si>
-  <si>
-    <t>ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009003</t>
-  </si>
-  <si>
-    <t>TEORÍAS DE LA EDUCACIÓN</t>
-  </si>
-  <si>
-    <t>00-0009004</t>
-  </si>
-  <si>
-    <t>JUGANDO CON ROBOTS PARA NIÑOS - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009005</t>
-  </si>
-  <si>
-    <t>IMPRESIÓN 3D PARA JÓVENES - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009006</t>
-  </si>
-  <si>
-    <t>CUIDADOS INTEGRALES DE ENFERMERÍA AL PACIENTE NEONATO CON PATOLOGÍAS DE RESOLUCIÓN QUIRÚRGICA.</t>
-  </si>
-  <si>
-    <t>00-0009007</t>
-  </si>
-  <si>
-    <t>ODONTOLOGÍA INTEGRATIVA. NEURO - PSICO - ODONTOLOGÍA</t>
-  </si>
-  <si>
-    <t>00-0009011</t>
-  </si>
-  <si>
-    <t>FOTOGRAFÍA: APRENDAMOS A MIRAR - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009012</t>
-  </si>
-  <si>
-    <t>MOSAICO: ROMPER PARA CREAR  - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009019</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009020</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EL JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA</t>
-  </si>
-  <si>
-    <t>00-0009021</t>
-  </si>
-  <si>
-    <t>RELACIÓN ESCUELA - FAMILIA</t>
-  </si>
-  <si>
-    <t>00-0009024</t>
-  </si>
-  <si>
-    <t>GESTIONANDO UNA ESCUELA INCLUSIVA - ARROYITO</t>
-  </si>
-  <si>
-    <t>00-0009025</t>
-  </si>
-  <si>
-    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - ARROYITO</t>
-  </si>
-  <si>
-    <t>00-0009026</t>
-  </si>
-  <si>
-    <t>LOS PROYECTOS EN LA ESCUELA - ARROYITO</t>
-  </si>
-  <si>
-    <t>00-0009029</t>
-  </si>
-  <si>
-    <t>GESTIÓN DIRECTIVA - SEGUNDO NIVEL</t>
-  </si>
-  <si>
-    <t>00-0009032</t>
-  </si>
-  <si>
-    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA GINECOLÓGICA MINI INVASIVA: VIDEOLAPAROSCOPÍA Y VIDEO HISTEROSCOPÍA</t>
-  </si>
-  <si>
-    <t>30-04-2019</t>
-  </si>
-  <si>
-    <t>00-0009033</t>
-  </si>
-  <si>
-    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA DE LA MANO Y RECONSTRUCCIÓN DEL MIEMBRO SUPERIOR</t>
-  </si>
-  <si>
-    <t>00-0009034</t>
-  </si>
-  <si>
-    <t>HIPERTENSION ARTERIAL</t>
-  </si>
-  <si>
-    <t>00-0009035</t>
-  </si>
-  <si>
-    <t>CIRUGÍA RECONSTRUCTIVA ARTICULAR ARTROSCOPICA DE CADERA Y RODILLA</t>
-  </si>
-  <si>
-    <t>00-0009036</t>
-  </si>
-  <si>
-    <t>ÉTICA, INTEGRIDAD Y POLÍTICAS DE TRANSPARENCIA EN LA FUNCIÓN PÚBLICA</t>
-  </si>
-  <si>
-    <t>26-10-2018</t>
-  </si>
-  <si>
-    <t>00-0009041</t>
-  </si>
-  <si>
-    <t>VIOLENCIAS - ANÁLISIS Y PROCESOS DE INTERVENCIÓN TEÓRICO JURÍDICO</t>
-  </si>
-  <si>
-    <t>19-06-2018</t>
-  </si>
-  <si>
-    <t>11-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009044</t>
-  </si>
-  <si>
-    <t>HABLAR DE DIOS DESDE EL LENGUAJE HUMANO (I)</t>
-  </si>
-  <si>
-    <t>00-0009045</t>
-  </si>
-  <si>
-    <t>NUTRICIÓN Y ALIMENTACIÓN DE BOVINOS</t>
-  </si>
-  <si>
-    <t>00-0009046</t>
-  </si>
-  <si>
-    <t>FORMACIÓN DOCTORAL I: ENFOQUES FILOSÓFICOS, ANTROPOLÓGICOS Y SOCIOLÓGICOS DE LA EDUCACIÓN.</t>
-  </si>
-  <si>
-    <t>00-0009047</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN COACHING APLICADO PARA EL DESARROLLO PERSONAL Y ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>26-06-2018</t>
-  </si>
-  <si>
-    <t>29-11-2018</t>
-  </si>
-  <si>
-    <t>00-0009049</t>
-  </si>
-  <si>
-    <t>FISIOLÓMICA DE LAS RESPUESTAS AL ESTRÉS EN PLANTAS Y SU APLICACIÓN AL MEJORAMIENTO</t>
-  </si>
-  <si>
-    <t>05-11-2018</t>
-  </si>
-  <si>
-    <t>09-11-2018</t>
-  </si>
-  <si>
-    <t>06-11-2018</t>
-  </si>
-  <si>
-    <t>00-0009050</t>
-  </si>
-  <si>
-    <t>TALLER DE POSGRADO HERRAMIENTAS FISIOLÓGICAS PARA EL ESTUDIO DEL ESTRÉS ABIÓTICO EN PLANTAS</t>
-  </si>
-  <si>
-    <t>00-0009054</t>
-  </si>
-  <si>
-    <t>INTELIGENCIA EMOCIONAL</t>
-  </si>
-  <si>
-    <t>24-07-2018</t>
-  </si>
-  <si>
-    <t>00-0009056</t>
-  </si>
-  <si>
-    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA. TRANSPLANTA DE ÓRGANOS SÓLIDOS Y CIRUGÍA ONCOLÓGICA</t>
-  </si>
-  <si>
-    <t>30-04-2020</t>
-  </si>
-  <si>
-    <t>00-0009057</t>
-  </si>
-  <si>
-    <t>PRODUCCIÓN Y UTILIZACIÓN DE LOS RECURSOS FORRAJEROS</t>
-  </si>
-  <si>
-    <t>00-0009058</t>
-  </si>
-  <si>
-    <t>SAS - SOCIEDADES ANÓNIMAS SIMPLIFICADAS. APROXIMACIÓN AL NUEVO TIPO SOCIETARIO PARA CONTADORES Y EMPRENDEDORES.</t>
-  </si>
-  <si>
-    <t>00-0009059</t>
-  </si>
-  <si>
-    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN ORTOPEDIA Y TRAUMATOLOGÍA INFANTIL PARA TRAUMATÓLOGOS</t>
-  </si>
-  <si>
-    <t>00-0009060</t>
-  </si>
-  <si>
-    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA AÑO PREVIO EN MEDICINA INTERNA</t>
-  </si>
-  <si>
-    <t>23-03-2019</t>
-  </si>
-  <si>
-    <t>00-0009061</t>
-  </si>
-  <si>
-    <t>INVESTIGACIÓN EDUCATIVA: REVISIONES TEÓRICAS, EXPERIENCIAS Y NUEVAS MIRADAS EN TORNO A LAS NEUROCIENCIAS, LA CREATIVIDAD Y LA INTELIGENCIA</t>
-  </si>
-  <si>
-    <t>00-0009063</t>
-  </si>
-  <si>
-    <t>PERSONAS CON DISCAPACIDAD</t>
-  </si>
-  <si>
-    <t>00-0009064</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ESTUDIOS SOCIALES URBANOS</t>
-  </si>
-  <si>
-    <t>13-11-2018</t>
-  </si>
-  <si>
-    <t>20-06-2018</t>
-  </si>
-  <si>
-    <t>00-0009065</t>
-  </si>
-  <si>
-    <t>PERSONA HUMANA: GANANCIAS, BIENES PERSONALES Y MÍNIMA PRESUNTA. AÑO 2017. EJEMPLOS SOBRE LOS APLICATIVOS WEB AFIP.</t>
-  </si>
-  <si>
-    <t>00-0009082</t>
-  </si>
-  <si>
-    <t>EL FRAMING COMO HERRAMIENTA EN EL DEBATE POLÍTICO</t>
-  </si>
-  <si>
-    <t>31-05-2018</t>
-  </si>
-  <si>
-    <t>00-0009083</t>
-  </si>
-  <si>
-    <t>TOPOGRAFÍA AVANZADA</t>
-  </si>
-  <si>
-    <t>30-07-2018</t>
-  </si>
-  <si>
-    <t>00-0009084</t>
-  </si>
-  <si>
-    <t>TALLER VIVENCIAL - LA FAMILIA EL GRAN EQUIPO: HERRAMIENTAS PARA CRECER EN FAMILIA HOY.</t>
-  </si>
-  <si>
-    <t>00-0009085</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>05-09-2018</t>
-  </si>
-  <si>
-    <t>00-0009086</t>
-  </si>
-  <si>
-    <t>ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: DOLOR</t>
-  </si>
-  <si>
-    <t>00-0009087</t>
-  </si>
-  <si>
-    <t>ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: ONCOLOGÍA</t>
-  </si>
-  <si>
-    <t>00-0009089</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE FORMACIÓN INTENSIVA PARA ENFERMERÍA EN CENTROS DE ANESTESIA</t>
-  </si>
-  <si>
-    <t>06-06-2018</t>
-  </si>
-  <si>
-    <t>19-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009091</t>
-  </si>
-  <si>
-    <t>EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>23-08-2018</t>
-  </si>
-  <si>
-    <t>00-0009092</t>
-  </si>
-  <si>
-    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>00-0009109</t>
-  </si>
-  <si>
-    <t>GESTIÓN DIRECTIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>00-0009110</t>
-  </si>
-  <si>
-    <t>GESTIONANDO UNA ESCUELA INCLUSIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>00-0009111</t>
-  </si>
-  <si>
-    <t>00-0009129</t>
-  </si>
-  <si>
-    <t>IMPRESIÓN 3D PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>00-0009130</t>
-  </si>
-  <si>
-    <t>ORATORIA Y COMUNICACIÓN PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>00-0009131</t>
-  </si>
-  <si>
-    <t>PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>03-07-2018</t>
-  </si>
-  <si>
-    <t>00-0009132</t>
-  </si>
-  <si>
-    <t>RELACIONES INTERGUBERNAMENTALES Y POLÍTICA MULTINIVEL</t>
-  </si>
-  <si>
-    <t>00-0009150</t>
-  </si>
-  <si>
-    <t>LOS LENGUAJES ARTÍSTICOS DE CARA A LA EDUCACIÓN DEL SIGLO XXI: SABERES PRÁCTICOS Y DESAFÍOS</t>
-  </si>
-  <si>
-    <t>00-0009151</t>
-  </si>
-  <si>
-    <t>ESTRATEGIAS Y PRÁCTICAS SOSTENIBLES PARA COOPERATIVAS Y MUTUALES</t>
-  </si>
-  <si>
-    <t>00-0009152</t>
-  </si>
-  <si>
-    <t>PROBLEMÁTICAS Y TENDENCIAS EDUCATIVAS EN AMÉRICA LATINA</t>
-  </si>
-  <si>
-    <t>00-0009154</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ORATORIA Y ESTRATEGIAS DE COMUNICACIÓN EFICAZ: COMPETENCIAS LINGÜÍSTICAS, MOTIVACIÓN Y LIDERAZGO.</t>
-  </si>
-  <si>
-    <t>00-0009155</t>
-  </si>
-  <si>
-    <t>CUADRO DE MANDO INTEGRAL. DISEÑO, IMPLEMENTACIÓN Y MONITOREO. ENFOQUE APLICADO.</t>
-  </si>
-  <si>
-    <t>00-0009157</t>
-  </si>
-  <si>
-    <t>INTEGRACIÓN Y COOPERACIÓN REGIONAL EN AMÉRICA LATINA</t>
-  </si>
-  <si>
-    <t>16-07-2018</t>
-  </si>
-  <si>
-    <t>17-07-2018</t>
-  </si>
-  <si>
-    <t>00-0009158</t>
-  </si>
-  <si>
-    <t>LAS POLÍTICAS DE GÉNERO EN LA COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t>00-0009159</t>
-  </si>
-  <si>
-    <t>LA INNOVACIÓN EN LA GESTIÓN DEL TALENTO EN LAS ORGANIZACIONES</t>
-  </si>
-  <si>
-    <t>00-0009163</t>
-  </si>
-  <si>
-    <t>XXIX ENCUENTRO DEL ESTADO DE LA INVESTIGACIÓN EDUCATIVA: LA CUESTIÓN DOCENTE, FORMACIÓN Y REALIDAD EDUCATIVA.</t>
-  </si>
-  <si>
-    <t>00-0009164</t>
-  </si>
-  <si>
-    <t>HABITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
-  </si>
-  <si>
-    <t>20-08-2018</t>
-  </si>
-  <si>
-    <t>00-0009165</t>
-  </si>
-  <si>
-    <t>PROCESOS MIGRATORIOS EN EL ESCENARIO INTERNACIONAL: ELEMENTOS PARA LA REFLEXIÓN Y LA DISCUSIÓN</t>
-  </si>
-  <si>
-    <t>00-0009166</t>
-  </si>
-  <si>
-    <t>WORKSHOP: HANDS ON DATA</t>
-  </si>
-  <si>
-    <t>00-0009167</t>
-  </si>
-  <si>
-    <t>SEDE CÓRDOBA - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
-  </si>
-  <si>
-    <t>06-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009168</t>
-  </si>
-  <si>
-    <t>SISTEMA DE INFORMACIÓN GEOGRÁFICA</t>
-  </si>
-  <si>
-    <t>00-0009170</t>
-  </si>
-  <si>
-    <t>DISEÑO E IMPLEMENTACIÓN DE ENTREVISTAS CUALITATIVAS Y FOCUS GROUP. HERRAMIENTAS AVANZADAS</t>
-  </si>
-  <si>
-    <t>16-10-2018</t>
-  </si>
-  <si>
-    <t>24-10-2018</t>
-  </si>
-  <si>
-    <t>17-10-2018</t>
-  </si>
-  <si>
-    <t>00-0009171</t>
-  </si>
-  <si>
-    <t>I JORNADAS NACIONALES DE ENSEÑANZA DE FARMACIA Y BIOQUÍMICA</t>
-  </si>
-  <si>
-    <t>00-0009172</t>
-  </si>
-  <si>
-    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA BARIÁTRICA Y METABÓLICA</t>
-  </si>
-  <si>
-    <t>00-0009173</t>
-  </si>
-  <si>
-    <t>FORMACIÓN DOCTORAL II: ESCRITURA ACADÉMICA</t>
-  </si>
-  <si>
-    <t>00-0009174</t>
-  </si>
-  <si>
-    <t>SEDE ENTRE RÍOS - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
-  </si>
-  <si>
-    <t>18-01-2019</t>
-  </si>
-  <si>
-    <t>00-0009175</t>
-  </si>
-  <si>
-    <t>PLANIFICACIÓN TERRITORIAL Y CONCEPTOS DE DERECHO URBANÍSITICO</t>
-  </si>
-  <si>
-    <t>00-0009176</t>
-  </si>
-  <si>
-    <t>INVESTIGACIÓN Y ANÁLISIS CUANTITATIVO APLICADA A LA GESTIÓN URBANA</t>
-  </si>
-  <si>
-    <t>00-0009177</t>
-  </si>
-  <si>
-    <t>ESPACIOS PÚBLICOS ¿PARA QUÉ? ¿CUÁNTO? ¿DÓNDE?</t>
-  </si>
-  <si>
-    <t>21-08-2018</t>
-  </si>
-  <si>
-    <t>00-0009178</t>
-  </si>
-  <si>
-    <t>CIUDADES INTELIGENTES, TECNOLOGÍAS, COMPROMISO Y GESTIÓN</t>
-  </si>
-  <si>
-    <t>25-06-2018</t>
-  </si>
-  <si>
-    <t>00-0009180</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN NORMAS NACIONALES E INTERNACIONALES DE CONTABILIDAD (NCPA Y NIIF)</t>
-  </si>
-  <si>
-    <t>00-0009182</t>
-  </si>
-  <si>
-    <t>CONTABILIDAD Y FINANZAS APLICADA A LA PYME</t>
-  </si>
-  <si>
-    <t>00-0009183</t>
-  </si>
-  <si>
-    <t>GOBIERNO ABIERTO, COMUNICACIÓN Y TECNOLOGÍA</t>
-  </si>
-  <si>
-    <t>22-08-2018</t>
-  </si>
-  <si>
-    <t>00-0009184</t>
-  </si>
-  <si>
-    <t>METODOLOGÍA CUALITATIVA</t>
-  </si>
-  <si>
-    <t>00-0009204</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA DE ECOCARDIOGRAFÍA DOPPLER</t>
-  </si>
-  <si>
-    <t>00-0009205</t>
-  </si>
-  <si>
-    <t>II ATENEO CIENTÍFICO SOBRE INCLUSIÓN EDUCATIVA - DEL DERECHO A LAS PRÁCTICAS CONCRETAS</t>
-  </si>
-  <si>
-    <t>00-0009206</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN DISEÑO Y CONSTRUCCIÓN SUSTENTABLE</t>
-  </si>
-  <si>
-    <t>00-0009207</t>
-  </si>
-  <si>
-    <t>ANÁLISIS DE REDES SOCIALES: TEORÍA, MÉTODOS Y APLICACIONES</t>
-  </si>
-  <si>
-    <t>00-0009208</t>
-  </si>
-  <si>
-    <t>ACCESIBILIDAD Y POLÍTICAS DE VIVIENDA</t>
-  </si>
-  <si>
-    <t>11-09-2018</t>
-  </si>
-  <si>
-    <t>12-09-2018</t>
-  </si>
-  <si>
-    <t>00-0009209</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>05-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009210</t>
-  </si>
-  <si>
-    <t>CURSO DE POSGRADO EN DERECHO EMPRESARIAL</t>
-  </si>
-  <si>
-    <t>12-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009211</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ENERGÍAS RENOVABLES - CUARTA EDICIÓN</t>
-  </si>
-  <si>
-    <t>08-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009212</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009213</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>09-07-2018</t>
-  </si>
-  <si>
-    <t>00-0009214</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009215</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009216</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009217</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009218</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009219</t>
-  </si>
-  <si>
-    <t>STARTUPS - FINANCIAMIENTO Y ASPECTOS LEGALES</t>
-  </si>
-  <si>
-    <t>00-0009220</t>
-  </si>
-  <si>
-    <t>LA INVESTIGACIÓN EN EDUCACIÓN: SUS FUNDAMENTOS EPISTEMOLÓGICOS Y METODOLÓGICOS</t>
-  </si>
-  <si>
-    <t>18-07-2018</t>
-  </si>
-  <si>
-    <t>00-0009221</t>
-  </si>
-  <si>
-    <t>CURSO DE ACTUALIZACIÓN EN RADIOLOGÍA VETERINARIA</t>
-  </si>
-  <si>
-    <t>00-0009240</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS METODOLÓGICAS PARA EL ANÁLISIS CUALITATIVO DE TEXTOS</t>
-  </si>
-  <si>
-    <t>00-0009241</t>
-  </si>
-  <si>
-    <t>TRASCENCENCIA POR EL ARTE Y LA BELLEZA</t>
-  </si>
-  <si>
-    <t>00-0009242</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA</t>
-  </si>
-  <si>
-    <t>00-0009243</t>
-  </si>
-  <si>
-    <t>HERRAMIENTAS DE GESTIÓN - 1ERA. PARTE - COCA COLA</t>
-  </si>
-  <si>
-    <t>00-0009260</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - SEGUNDA EDICIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>21-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009262</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>21-11-2018</t>
-  </si>
-  <si>
-    <t>00-0009263</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009264</t>
-  </si>
-  <si>
-    <t>CÓMO APREHENDE UN NIÑO EL MUNDO. DESARROLLO, JUEGO Y ESCRITURA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>21-01-2019</t>
-  </si>
-  <si>
-    <t>00-0009265</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN GESTIÓN LOGÍSTICA INTEGRAL</t>
-  </si>
-  <si>
-    <t>22-11-2018</t>
-  </si>
-  <si>
-    <t>00-0009285</t>
-  </si>
-  <si>
-    <t>ESTRATEGIA DE CUSTOMER EXPERIENCE</t>
-  </si>
-  <si>
-    <t>00-0009286</t>
-  </si>
-  <si>
-    <t>PREVENCIÓN LAVADO DE ACTIVOS: APLICACIONES CONCRETAS</t>
-  </si>
-  <si>
-    <t>00-0009287</t>
-  </si>
-  <si>
-    <t>¿CÓMO INICIAR UN PROCESO DE GESTIÓN DE PERSONAS EN ORGANIZACIONES PÚBLICAS?</t>
-  </si>
-  <si>
-    <t>26-09-2018</t>
-  </si>
-  <si>
-    <t>00-0009288</t>
-  </si>
-  <si>
-    <t>GOBIERNO EN JAQUE: CRISIS, ESCÁNDALOS Y POLÉMICAS EN LA COMUNICACIÓN POLÍTICA</t>
-  </si>
-  <si>
-    <t>00-0009289</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE EMPRESAS PORCINAS</t>
-  </si>
-  <si>
-    <t>00-0009290</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN VALORACIÓN DEL DAÑO CORPORAL</t>
-  </si>
-  <si>
-    <t>30-08-2019</t>
-  </si>
-  <si>
-    <t>00-0009307</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA BIG DATA ANALYTICS BUSINESS INTELLIGENCE &amp; REAL TIME DECISION</t>
-  </si>
-  <si>
-    <t>00-0009308</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE INTENSIVO EN TERAPIA OCUPACIONAL - SEGUNDO NIVEL</t>
-  </si>
-  <si>
-    <t>13-03-2019</t>
-  </si>
-  <si>
-    <t>00-0009328</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA LOS RINCONES DEL JUEGO. LA EXPERIENCIA LÚDICA: RECORRIDOS, REPERTORIOS Y REFLEXIONES.</t>
-  </si>
-  <si>
-    <t>08-06-2019</t>
-  </si>
-  <si>
-    <t>00-0009329</t>
-  </si>
-  <si>
-    <t>FINANZAS PERSONALES NIVEL II</t>
-  </si>
-  <si>
-    <t>00-0009367</t>
-  </si>
-  <si>
-    <t>CURSO DE POSGRADO EN METODOLOGÍA CUALITATIVA</t>
-  </si>
-  <si>
-    <t>00-0009368</t>
-  </si>
-  <si>
-    <t>24-01-2019</t>
-  </si>
-  <si>
-    <t>00-0009387</t>
-  </si>
-  <si>
-    <t>00-0009388</t>
-  </si>
-  <si>
-    <t>INCUBACIÓN CENTRO DE EMPRENDEDORISMO E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>00-0009407</t>
-  </si>
-  <si>
-    <t>18-05-2019</t>
-  </si>
-  <si>
-    <t>00-0009427</t>
-  </si>
-  <si>
-    <t>LOS PROYECTOS EN LA ESCUELA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t>27-09-2018</t>
-  </si>
-  <si>
-    <t>00-0009448</t>
-  </si>
-  <si>
-    <t>SEMINARIO: GÉNESIS Y ORGANIZACIÓN DE LOS SISTEMAS EDUCATIVOS EN EL MARCO DEL PENSAMIENTO POLÍTICO PEDAGÓGICO</t>
-  </si>
-  <si>
-    <t>00-0009449</t>
-  </si>
-  <si>
-    <t>POLÍTICA EDUCATIVA: EL SISTEMA EDUCATIVO ARGENTINO EN EL CONTEXTO LATINOAMERICANO E INTERNACIONAL (PARTE II)</t>
-  </si>
-  <si>
-    <t>00-0009450</t>
-  </si>
-  <si>
-    <t>FORMACIÓN DOCTORAL I: AUTORIDAD PEDAGÓGICA Y PROCESOS DE EMANCIPACIÓN. TEÓRICAS Y PRÁCTICAS EN ESPACIOS EDUCATIVOS.</t>
-  </si>
-  <si>
-    <t>00-0009451</t>
-  </si>
-  <si>
-    <t>COACHING EDUCACIONAL - SEGUNDA EDICIÓN</t>
-  </si>
-  <si>
-    <t>00-0009467</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN  - DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009468</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009469</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009471</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009472</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009473</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009474</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009475</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009476</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t>00-0009498</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA DE ACOMPAÑANTES COMUNITARIOS CONTRA LA VIOLENCIA DE GÉNERO</t>
-  </si>
-  <si>
-    <t>00-0009499</t>
-  </si>
-  <si>
-    <t>TALLER: LAS CUATRO TRANSFORMACIONES FUNDAMENTALES</t>
-  </si>
-  <si>
-    <t>00-0009518</t>
-  </si>
-  <si>
-    <t>HABITAR O TRANSITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
-  </si>
-  <si>
-    <t>00-0009519</t>
-  </si>
-  <si>
-    <t>TALLER PARA LA ELABORACIÓN DE PROYECTOS DE INVESTIGACIÓN DE LA MAESTRÍA Y DOCTORADO</t>
-  </si>
-  <si>
-    <t>00-0009520</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
-  </si>
-  <si>
-    <t>00-0009521</t>
-  </si>
-  <si>
-    <t>LIDERAZGO Y COACHING - TERCERA EDICIÓN</t>
-  </si>
-  <si>
-    <t>00-0009522</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t>00-0009523</t>
-  </si>
-  <si>
-    <t>TERCERA EDICIÓN - TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009538</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - LIDERAZGO Y COACHING - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009539</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE LA CIUDAD MODERNA - HELIO PIÑÓN</t>
-  </si>
-  <si>
-    <t>00-0009540</t>
-  </si>
-  <si>
-    <t>ÉTICA Y RESPONSABILIDAD SOCIAL</t>
-  </si>
-  <si>
-    <t>00-0009541</t>
-  </si>
-  <si>
-    <t>SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009558</t>
-  </si>
-  <si>
-    <t>FORMACIÓN DOCTORAL I: LAS ORGANIZACIONES EDUCATIVAS DESDE LA PERSPECTIVA DE ANÁLISIS INSTITUCIONAL.</t>
-  </si>
-  <si>
-    <t>00-0009559</t>
-  </si>
-  <si>
-    <t>PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA. 2</t>
-  </si>
-  <si>
-    <t>17-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009560</t>
-  </si>
-  <si>
-    <t>00-0009561</t>
-  </si>
-  <si>
-    <t>INCLUSIÓN EN EL NIVEL MEDIO - TABORIN</t>
-  </si>
-  <si>
-    <t>00-0009562</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN PODOLOGÍA</t>
-  </si>
-  <si>
-    <t>00-0009578</t>
-  </si>
-  <si>
-    <t>10-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009579</t>
-  </si>
-  <si>
-    <t>CEMENTERIOS PARQUES, TECHOS Y PAREDES VERDES, UNA VUELTA A LA NATURALEZA</t>
-  </si>
-  <si>
-    <t>00-0009580</t>
-  </si>
-  <si>
-    <t>ALGUNOS ASPECTOS DE LA SOTERIOLOGÍA EN LOS PADRES DE LA IGLESIA Y SU VIGENCIA ACTUAL</t>
-  </si>
-  <si>
-    <t>05-08-2018</t>
-  </si>
-  <si>
-    <t>00-0009599</t>
-  </si>
-  <si>
-    <t>FOTOGRAFÍA PARA JÓVENES: APRENDAMOS A MIRAR - NAZARETH</t>
-  </si>
-  <si>
-    <t>00-0009618</t>
-  </si>
-  <si>
-    <t>CÉSPEDES Y CANCHAS DEPORTIVAS</t>
-  </si>
-  <si>
-    <t>00-0009619</t>
-  </si>
-  <si>
-    <t>POLÍTICAS ENERGÉTICAS, CAMBIO CLIMÁTICO Y COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t>00-0009621</t>
-  </si>
-  <si>
-    <t>INGLÉS PRÁCTICO PARA VIAJEROS - NIVEL INICIAL - NAZARETH</t>
-  </si>
-  <si>
-    <t>04-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009622</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN COMUNICACIÓN MEDIÁTICA, CULTURA DIGITAL Y EDUCACIÓN</t>
-  </si>
-  <si>
-    <t>00-0009623</t>
-  </si>
-  <si>
-    <t>POSGRADO EN MANAGEMENT ESTRATÉGICO</t>
-  </si>
-  <si>
-    <t>03-04-2018</t>
-  </si>
-  <si>
-    <t>10-07-2018</t>
-  </si>
-  <si>
-    <t>00-0009624</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN DESARROLLO Y GESTIÓN DE CIUDADES INTELIGENTES</t>
-  </si>
-  <si>
-    <t>00-0009646</t>
-  </si>
-  <si>
-    <t>SINSENTIDO Y POLÍTICA: RELACIONES TEÓRICAS Y ARTICULACIONES</t>
-  </si>
-  <si>
-    <t>00-0009647</t>
-  </si>
-  <si>
-    <t>WORKSHOP: PAISAJISMO COMO EXPRESIÓN</t>
-  </si>
-  <si>
-    <t>01-11-2018</t>
-  </si>
-  <si>
-    <t>02-11-2018</t>
-  </si>
-  <si>
-    <t>00-0009648</t>
-  </si>
-  <si>
-    <t>MANEJO SANITARIO DE JARDINES</t>
-  </si>
-  <si>
-    <t>00-0009649</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN ENERGÍAS RENOVABLES</t>
-  </si>
-  <si>
-    <t>15-09-2017</t>
-  </si>
-  <si>
-    <t>24-11-2017</t>
-  </si>
-  <si>
-    <t>00-0009651</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A R PARA EL ANÁLISIS DE DATOS DE CIENCIAS AGRARIAS</t>
-  </si>
-  <si>
-    <t>00-0009652</t>
-  </si>
-  <si>
-    <t>AMBIENTE, TERRITORIO Y CONFLICTOS URBANOS</t>
-  </si>
-  <si>
-    <t>10-10-2018</t>
-  </si>
-  <si>
-    <t>00-0009653</t>
-  </si>
-  <si>
-    <t>00-0009675</t>
-  </si>
-  <si>
-    <t>FERTILIDAD QUÍMICA</t>
-  </si>
-  <si>
-    <t>00-0009695</t>
-  </si>
-  <si>
-    <t>LA ENSEÑANZA DEL PAISAJE EN CÓRDOBA</t>
-  </si>
-  <si>
-    <t>00-0009696</t>
-  </si>
-  <si>
-    <t>LA EQUIDAD DE GÉNERO EN EL ÁMBITO LABORAL</t>
-  </si>
-  <si>
-    <t>00-0009697</t>
-  </si>
-  <si>
-    <t>NEUROCIENCIAS APLICADAS: NEUROPLASTICIDAD, ESTIMULACIÓN NEUROCOGNITIVA Y APRENDIZAJES</t>
-  </si>
-  <si>
-    <t>00-0009698</t>
-  </si>
-  <si>
-    <t>NEUROCIENCIAS APLICADAS: COGNICIÓN SOCIAL. EL CEREBRO SOCIAL.</t>
-  </si>
-  <si>
-    <t>00-0009717</t>
-  </si>
-  <si>
-    <t>NEUROCIENCIAS APLICADAS: INTRODUCCIÓN A LA NEUROPSICOLOGÍA DEL DESARROLLO</t>
-  </si>
-  <si>
-    <t>00-0009737</t>
-  </si>
-  <si>
-    <t>00-0009757</t>
-  </si>
-  <si>
-    <t>FITOTERÁPICOS Y NUTRACÉUTICOS</t>
-  </si>
-  <si>
-    <t>00-0009758</t>
-  </si>
-  <si>
-    <t>ANTROPOLOGÍA URBANA</t>
-  </si>
-  <si>
-    <t>00-0009759</t>
-  </si>
-  <si>
-    <t>RESISTENCIA ANTIMICROBIANA VETERINARIA: RETO GLOBAL PARA UNA SALUD</t>
-  </si>
-  <si>
-    <t>00-0009761</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LA ECONOMÍA POLÍTICA DE LA CIUDAD</t>
-  </si>
-  <si>
-    <t>30-10-2018</t>
-  </si>
-  <si>
-    <t>00-0009762</t>
-  </si>
-  <si>
-    <t>POLÍTICAS DE MOVILIDAD EN EL ESPACIO URBANO</t>
-  </si>
-  <si>
-    <t>00-0009763</t>
-  </si>
-  <si>
-    <t>00-0009765</t>
-  </si>
-  <si>
-    <t>EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - RÍO PRIMERO</t>
-  </si>
-  <si>
-    <t>00-0009766</t>
-  </si>
-  <si>
-    <t>CONOCIENDO E INTERPRETANDO LOS NÚMEROS EN MI EMPRESA FAMILIAR</t>
-  </si>
-  <si>
-    <t>00-0009780</t>
-  </si>
-  <si>
-    <t>00-0009800</t>
-  </si>
-  <si>
-    <t>EVALUACIÓN DE POLÍTICAS Y PROGRAMAS SOCIALES: DE LA TEORÍA DEL CAMBIO A LOS INDICADORES</t>
-  </si>
-  <si>
-    <t>20-09-2018</t>
-  </si>
-  <si>
-    <t>00-0009840</t>
-  </si>
-  <si>
-    <t>CICLO DE CONFERENCIAS - PRÓXIMO DESTINO</t>
-  </si>
-  <si>
-    <t>00-0009842</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN PROJECT MANAGEMENT</t>
-  </si>
-  <si>
-    <t>00-0009843</t>
-  </si>
-  <si>
-    <t>SÉPTIMA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
-  </si>
-  <si>
-    <t>00-0009847</t>
-  </si>
-  <si>
-    <t>00-0009867</t>
-  </si>
-  <si>
-    <t>ANÁLISIS MARGINAL NIVEL 1: NOCIONES BÁSICAS</t>
-  </si>
-  <si>
-    <t>20-11-2018</t>
-  </si>
-  <si>
-    <t>00-0009875</t>
-  </si>
-  <si>
-    <t>LA PLANIFICACIÓN DE LA GESTIÓN ESCOLAR. CONVERTIR DESEOS EN PROYECTOS.</t>
-  </si>
-  <si>
-    <t>00-0009883</t>
-  </si>
-  <si>
-    <t>JORNADA DE ACTUALIZACIÓN PARA ESTILISTAS Y MAQUILLADORES</t>
-  </si>
-  <si>
-    <t>00-0009885</t>
-  </si>
-  <si>
-    <t>SEXTA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
-  </si>
-  <si>
-    <t>13-09-2018</t>
-  </si>
-  <si>
-    <t>00-0009886</t>
-  </si>
-  <si>
-    <t>DEMOCRACIA Y CIUDADANÍA MULTICULTURAL</t>
-  </si>
-  <si>
-    <t>00-0009887</t>
-  </si>
-  <si>
-    <t>MANEJO DE PLAGAS EN ESPACIOS VERDES</t>
-  </si>
-  <si>
-    <t>16-12-2018</t>
-  </si>
-  <si>
-    <t>00-0009888</t>
-  </si>
-  <si>
-    <t>JORNADA INTERNACIONAL: MICROBIOLOGÍA DEL VINO / MICROBIOLOGIE DU VIN</t>
-  </si>
-  <si>
-    <t>00-0009894</t>
-  </si>
-  <si>
-    <t>INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMÉRICA LATINA Y EL CARIBE</t>
-  </si>
-  <si>
-    <t>09-0005958</t>
-  </si>
-  <si>
-    <t>AÑO PREVIO EN MEDICINA INTERNA</t>
-  </si>
-  <si>
-    <t>02-05-2017</t>
-  </si>
-  <si>
-    <t>10-05-2017</t>
-  </si>
-  <si>
-    <t>09-0006894</t>
-  </si>
-  <si>
-    <t>BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO-JUVENIL</t>
-  </si>
-  <si>
-    <t>09-06-2017</t>
-  </si>
-  <si>
-    <t>31-05-2019</t>
-  </si>
-  <si>
-    <t>31-07-2017</t>
-  </si>
-  <si>
-    <t>09-0007023</t>
-  </si>
-  <si>
-    <t>DIPLOMATURA EN DIABETES Y NUTRICIÓN</t>
-  </si>
-  <si>
-    <t>DI-0007213</t>
-  </si>
-  <si>
-    <t>SACRED PLACE</t>
-  </si>
-  <si>
-    <t>DI</t>
-  </si>
-  <si>
-    <t>DI-0007214</t>
-  </si>
-  <si>
-    <t>THE PRACTICE OF EVERYDAY LIFE</t>
-  </si>
-  <si>
-    <t>DESTRONCADA DE CHOTA</t>
-  </si>
-  <si>
-    <t>07-03-2017</t>
+    <t xml:space="preserve">Listado de Cursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cod.Presup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomb.U.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categoría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.Abierta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.J.S. Insc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.J.S. Acad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloqueo Eco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupo Max.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupo Eco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fec.Cupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin Insc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant.Hs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant.Días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscriptos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insc.Únicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docu OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habi OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pago OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuda Tot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuda Venc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recargo D.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0007316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRENAMIENTO EN PRÓTESIS FIJA ACTUALIZADA. DIAGNÓSTICO Y ALTERNATIVAS TERAPEUTICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cs. Salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMACION DE POSGRADO (FJS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nbsp;Bloqueado&amp;nbsp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-01-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0007378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSINESS ADMINISTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-07-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURAS (FJS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-01-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0007404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN MODELOS DE ABORDAJE TERAPÉUTICO EN PSIQUIATRÍA INFANTO-JUVENIL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-06-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-06-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0007962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALISIS MARGINAL NIVEL 1: Nociones Básicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cs. Ec.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-10-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-01-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSOS ABIERTOS (FJS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-12-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-12-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0007986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-09-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-01-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-09-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0007987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ADOLESCENCIA: BULLYING Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0007994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN PRODUCCIÓN DE FIBRAS TEXTILES ANIMALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-10-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-10-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASES GENÉTICAS DE LA PRODUCCIÓN DE FIBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASES TEXTILES DE LA PRODUCCIÓN DE FIBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMOGRAFÍA ZOOTÉCNICA APLICADA A POBLACIONES PRODUCTORAS DE FIBRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN SUELOS Y FERTILIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recargado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN GESTIÓN DE AMBIENTE Y ORDENAMIENTO TERRITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN GESTIÓN Y MANEJO DE PAISAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDERAZGO Y EMPODERAMIENTO DE MANDOS MEDIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIVERSIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMACION EJECUTIVA (FJS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN MERCADOS DE CAPITALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERECHO REGISTRAL Y SU PERSPECTIVA EN EL DERECHO PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPUGNACIONES EN EL PROCESO PENAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBINAR: TEJIENDO REDES INCLUSIVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBINAR: CONSTRUYENDO LA ACCESIBILIDAD PARA CADA ESTUDIANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBINAR: VALORANDO LAS POTENCIALIDADES COMUNICATIVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBINAR: FACILITANDO LA COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBINAR: PLANIFICANDO PARA LA DIVERSIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBINAR: ACCEDIENDO AL CURRÍCULO REGULAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No definido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIÓN DIRECTIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTION DE REPUESTOS Y ALMACENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En reprogramación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN DERMATOCOSMÉTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cs. Qs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAGNÓSTICO E INTERVENCIÓN EN DELINCUENCIA JUVENIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPETENCIAS CLÍNICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABORDAJE INTERDISCIPLINARIO DE LA DISCAPACIDAD Y PATOLOGIZACIÓN EN LAS INFANCIAS ACTUALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ENERGIAS RENOVABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN TÉCNICAS DE LABORATORIO VIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPPLY CHAIN 4.0. LA CADENA DE SUMINISTROS EN LA ERA DIGITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-01-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA EDUCACION POPULAR HOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISIBILIZAR LO COTIDIANO: SISTEMATIZACIÓN DE EXPERIENCIAS EDUCATIVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINANZAS PERSONALES NIVEL I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDERAZGO Y EMPODERAMIENTO A MANDOS MEDIOS NIVEL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por iniciar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESARROLLO DE ALIMENTOS FUNCIONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIÓN DE MANTENIMIENTO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS PROYECTOS EN LA ESCUELA: HERRAMIENTAS PARA SU ELABORACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN SENSORIAL Y OBJETIVA DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDERAZGO Y COACHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESARROLLO DEL CAPITAL HUMANO, UN ENFOQUE PRÁCTICO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCEL PARA INVERSORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORATORIA Y COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEORÍA POLÍTICA CONTEMPORÁNEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN REDES TELEINFORMÁTICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN BUSINESS ADMINISTRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIONANDO UNA ESCUELA INCLUSIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERVENCIÓN EN GRUPOS Y ORGANIZACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS: Planificar por capacidades desde la óptica de la pedagogía diferenciada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROBIOLOGÍA DE LOS ALIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCCIÓN A LA TOXICOLOGÍA DE LOS ALIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQUISITOS DE BPM (BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POES - PROCEDIMIENTOS OPERATIVOS ESTANDARIZADOS DE SANEAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIP - MANEJO INTEGRADO DE PLAGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORÍAS INTERNAS DE BPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAZABILIDAD EN LA INDUSTRIA ALIMENTARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECALL - RETIRO DE PRODUCTOS DEL MERCADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGISLACIÓN ALIMENTARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPM EN ESTABLECIMIENTOS LIBRES DE GLUTEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMAS DE INOCUIDAD ALIMENTARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELITO Y PERSONALIDAD: CONSIDERACIONES PSICOLÓGICAS Y CRIMINOLÓGICAS. ABORDAJE INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCCIÓN A LA PSICOLOGÍA DEL DEPORTE Y LA ACTIVIDAD FÍSICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARTUPS - DERECHO - MANAGEMENT Y FINANCIAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIENTACION VOCACIONAL Y OCUPACIONAL: COMPETENCIAS DE LOS ORIENTADORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJECUCIÓN DE LA PENA: ASPECTOS PRÁCTICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORTE DE SOSTENIBILIDAD GRI STANDARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERDISCIPLINARIO EN INTRODUCCIÓN A LOS CUIDADOS PALIATIVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN DERECHOS DE LAS PERSONAS MIGRANTES EN ARGENTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN EDUCACIÓN EN DERECHOS HUMANOS - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN SEGURIDAD HUMANA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN PARTICIPACIÓN, CIUDADANÍA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN DERECHOS HUMANOS CON MENCIÓN EN ACCESO A LA JUSTICIA - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARCOTRÁFICO DESDE UNA PERSPECTIVA MULTIDISCIPLINARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDIMIENTO PENAL FEDERAL Y DESAFÍOS ACTUALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA INTERDISCIPLINARIA EN CUIDADOS PALIATIVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO - JUVENIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-05-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL SECRETARIO DOCENTE EN LA NUEVA ORGANIZACIÓN ESCOLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTE POR TODAS PARTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTOS MÉDICOS Y ORTOPEDICOS EN LA FARMACIA COMUNITARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿CÓMO CONSTRUIR UN PROTOCOLO ANTI BULLYING Y ANTI GROOMING?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-01-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIÓN DE LA RESPONSABILIDAD SOCIAL EMPRESARIA Y REPORTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN SISTEMAS DE GESTIÓN DE LA CALIDAD E INOCUIDAD ALIMENTARIA - IRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-08-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN SISTEMAS DE GESTIÓN INTEGRADOS - IRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-08-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ENERGÍAS RENOVABLES - TERCERA EDICIÓN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN CIBERSEGURIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN DESARROLLO DE APLICACIONES PARA ANDROID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN LITERATURA ARGENTINA CONTEMPORÁNEA (1980 A LA ACTUALIDAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA EDUCACIÓN POPULAR HOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN LIDERAZGO ORGÁNICO. COACHING, INTELIGENCIA EMOCIONAL Y NEUROCIENCIAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERMOCOSMÉTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN NUTRICIÓN CLÍNICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-03-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCCIÓN AL BIG DATA Y SOPORTE DE DECISIONES EN BASE A DATOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARKETING ESTRATÉGICO PARA FARMACIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESIS DE POSGRADO: CUATRO HERRAMIENTAS PRACTICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIDAD DE GÉNERO Y PREVENCIÓN DE LA VIOLENCIA DE GÉNERO EN LA ESCUELA DE NIVEL MEDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE CÓRDOBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMERICA LATINA Y EL CARIBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIÓN DE PROYECTOS DE DESARROLLO LOCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECODIFICANDO LA RELACIÓN ARGENTINA Y BRASIL: HISTORIA Y FUTURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLÍTICA Y POLÍTICAS PÚBLICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMAS PÚBLICO - PRIVADO PARA EL DESARROLLO EMPRENDEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL IMPACTO EN LOS NEGOCIOS DE LA REFORMA TRIBUTARIA NACIONAL Y LOCAL. Desde una mirada práctica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBERNAR EL RIESGO DE DESASTRES. POLÍTICAS Y METODOLOGÍAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISEÑO E IMPLEMENTACIÓN DE PROYECTOS DE COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRAMIENTAS PARA LA GESTIÓN DE FUENTES DE FINANCIAMIENTO INTERNACIONAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGOCIACIÓN Y COMUNICACIÓN INSTITUCIONAL CON ACTORES POLÍTICOS SOCIALES, GRUPOS ASOCIATIVOS Y DE INTERÉS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN FORTALECIMIENTO INSTITUCIONAL DE PARTIDOS POLÍTICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADÍSTICA PARA CIENCIAS BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIABETES MELLITUS TIPO 2: estrategias de prevención y seguimiento farmacoterapéutico del paciente con diagnóstico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUENAS PRÁCTICAS FARMACÉUTICAS EN LA FARMACIA OFICINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCACIÓN ESTÉTICA EN LA FILOSOFÍA DE JOHN DEWEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN EMPRESAS FAMILIARES. Gestión de la Empresa Familiar y profesionalización de la familia empresaria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA DE FORMACIÓN GERENCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMULACIÓN DE PROTOCOLOS DE ACTUACIÓN EN VIOLENCIA INTRAFAMILIAR PARA DOCENTES DEL SISTEMA EDUCATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODOLOGÍA DE LA INVESTIGACIÓN CIENTÍFICA PARA LAS CIENCIAS BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORNADAS DE MEDICINA VETERINARIA LEGAL Y FORENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTECCIÓN DE CULTIVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOOLOGÍA, DISHERBOLOGÍA Y MODO DE ACCIÓN DE AGROQUÍMICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRAMIENTAS PARA EL MANEJO DE ORGANISMOS PERJUDICIALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADÍSTICA Y EPIDEMIOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCIÓN TÉCNICA DE OBRA - EDIFICIOS EN ALTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACIÓN AGRÍCOLA Y PROYECTOS DE INVERSIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLICACIÓN DE PLAGUICIDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITOPATÓGENOS Y DIAGNÓSTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ECONOMÍA DEL FUTURO: BITCOINS Y FINTECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CORDOBA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-02-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOPERACIÓN INTERNACIONAL, ALIANZAS ESTRATÉGICAS Y SECTOR PRIVADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDERAZGO Y COACHING. SEGUNDA EDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CÓRDOBA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS. CUARTA Y QUINTA EDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-03-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO DE NEONATOLOGÍA Y PEDIATRÍA EQUINA: DEL ÚTERO AL STUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COACHING EDUCACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBERNANZA ABIERTA Y COLABORATIVA: NUEVAS RELACIONES EN EL TERRITORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROYECTOS DE INTERVENCIÓN PEDAGÓGICA PARA LA INCLUSIÓN (ÁMBITO INFORMAL Y NO FORMAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMUNICACIÓN GUBERNAMENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOLUCIÓN DE CONFLICTOS EN ESTABLECIMIENTOS EDUCATIVOS: PRÁCTICAS Y ESTRATEGIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRATEGIAS PARA EL DIAGNÓSTICO PSICOPEDAGÓGICO. CONOCIMIENTO, APLICACIÓN Y ANÁLISIS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEORÍA Y ANÁLISIS DE CONFLICTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL NIVEL INICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUENAS PRÁCTICAS DEL PROTOCOLO FAMILIAR EN LATINOAMÉRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE LA PAMPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE ENTRE RÍOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-02-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCACIÓN DE ESTUDIANTES CON DISCAPACIDAD MÚLTIPLE Y DISCAPACIDAD SENSORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIBERDELITOS. ABORDAJE LEGAL DE LA DELINCUENCIA COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ENERGÍA TERMO SOLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO DE CÉLULAS MADRE MESENQUIMALES AUTÓLOGAS ADULTAS, PLASMA RICO EN PLAQUETAS Y OZONOTERAPIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL - 2DA. EDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCCIÓN DE EQUIPOS DEPORTIVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL AVANZADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORNADA SOBRE CIENCIA, RELIGIÓN Y EDUCACIÓN PARA DOCENTES DE NIVEL SECUNDARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGÍAS RENOVABLES - SEDE LA FALDA - DEFENSORÍA DEL PUEBLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGIAS RENOVABLES - SEDE VILLA SANTA CRUZ DEL LAGO (2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGIAS RENOVABLES - SEDE VILLA GIARDINO - DEFENSORÍA DEL PUEBLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS PRÁCTICAS DEL CONOCIMIENTO EN EL CAMPO DE LA EDUCACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL INTERMEDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGOCIACIÓN INTERNACIONAL: ABORDAJE, HERRAMIENTAS PRÁCTICAS Y EQUIPO NEGOCIADOR EFECTIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL SECUNDARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVEL SUPERIOR E INCLUSIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCAR EN VALORES HOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA FIGURA DE CRISTO EN LA FILOSOFÍA - SEMINARIO DE FENOMENOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO Y SOBERANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VI JORNADAS DE INVESTIGACIÓN E INTERVENCIÓN EN PSICOPEDAGOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPONSABILIDAD SOCIAL PARA LA GESTIÓN DE LAS ORGANIZACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLER DE ACOMPAÑAMIENTO PARA LA ESCRITURA DEL TRABAJO FINAL Y LA FINALIZACIÓN DE CARRERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDERAZGO Y COACHING - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEREMONIAL Y PROTOCOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA AUTORIDAD PEDAGÓGICA COMO ENCUENTRO DE TRAYECTORIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODOLOGÍA CUANTITATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALUD ANIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIÓN DIRECTIVA - ARROYITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRAMIENTAS DIGITALES PARA LA VIDA COTIDIANA - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABORATORIO DE JUGUETES - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0008999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEORÍAS DE LA EDUCACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUGANDO CON ROBOTS PARA NIÑOS - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESIÓN 3D PARA JÓVENES - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUIDADOS INTEGRALES DE ENFERMERÍA AL PACIENTE NEONATO CON PATOLOGÍAS DE RESOLUCIÓN QUIRÚRGICA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODONTOLOGÍA INTEGRATIVA. NEURO - PSICO - ODONTOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTOGRAFÍA: APRENDAMOS A MIRAR - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSAICO: ROMPER PARA CREAR  - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EL JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELACIÓN ESCUELA - FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIONANDO UNA ESCUELA INCLUSIVA - ARROYITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - ARROYITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS PROYECTOS EN LA ESCUELA - ARROYITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIÓN DIRECTIVA - SEGUNDO NIVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA GINECOLÓGICA MINI INVASIVA: VIDEOLAPAROSCOPÍA Y VIDEO HISTEROSCOPÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-04-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA DE LA MANO Y RECONSTRUCCIÓN DEL MIEMBRO SUPERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPERTENSION ARTERIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRUGÍA RECONSTRUCTIVA ARTICULAR ARTROSCOPICA DE CADERA Y RODILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÉTICA, INTEGRIDAD Y POLÍTICAS DE TRANSPARENCIA EN LA FUNCIÓN PÚBLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIOLENCIAS - ANÁLISIS Y PROCESOS DE INTERVENCIÓN TEÓRICO JURÍDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABLAR DE DIOS DESDE EL LENGUAJE HUMANO (I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICIÓN Y ALIMENTACIÓN DE BOVINOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMACIÓN DOCTORAL I: ENFOQUES FILOSÓFICOS, ANTROPOLÓGICOS Y SOCIOLÓGICOS DE LA EDUCACIÓN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN COACHING APLICADO PARA EL DESARROLLO PERSONAL Y ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISIOLÓMICA DE LAS RESPUESTAS AL ESTRÉS EN PLANTAS Y SU APLICACIÓN AL MEJORAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLER DE POSGRADO HERRAMIENTAS FISIOLÓGICAS PARA EL ESTUDIO DEL ESTRÉS ABIÓTICO EN PLANTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTELIGENCIA EMOCIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA. TRANSPLANTA DE ÓRGANOS SÓLIDOS Y CIRUGÍA ONCOLÓGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-04-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCCIÓN Y UTILIZACIÓN DE LOS RECURSOS FORRAJEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS - SOCIEDADES ANÓNIMAS SIMPLIFICADAS. APROXIMACIÓN AL NUEVO TIPO SOCIETARIO PARA CONTADORES Y EMPRENDEDORES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN ORTOPEDIA Y TRAUMATOLOGÍA INFANTIL PARA TRAUMATÓLOGOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA AÑO PREVIO EN MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-03-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGACIÓN EDUCATIVA: REVISIONES TEÓRICAS, EXPERIENCIAS Y NUEVAS MIRADAS EN TORNO A LAS NEUROCIENCIAS, LA CREATIVIDAD Y LA INTELIGENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSONAS CON DISCAPACIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ESTUDIOS SOCIALES URBANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSONA HUMANA: GANANCIAS, BIENES PERSONALES Y MÍNIMA PRESUNTA. AÑO 2017. EJEMPLOS SOBRE LOS APLICATIVOS WEB AFIP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL FRAMING COMO HERRAMIENTA EN EL DEBATE POLÍTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-05-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPOGRAFÍA AVANZADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLER VIVENCIAL - LA FAMILIA EL GRAN EQUIPO: HERRAMIENTAS PARA CRECER EN FAMILIA HOY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN INNOVACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: DOLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: ONCOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA DE FORMACIÓN INTENSIVA PARA ENFERMERÍA EN CENTROS DE ANESTESIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIÓN DIRECTIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIONANDO UNA ESCUELA INCLUSIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESIÓN 3D PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORATORIA Y COMUNICACIÓN PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELACIONES INTERGUBERNAMENTALES Y POLÍTICA MULTINIVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS LENGUAJES ARTÍSTICOS DE CARA A LA EDUCACIÓN DEL SIGLO XXI: SABERES PRÁCTICOS Y DESAFÍOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRATEGIAS Y PRÁCTICAS SOSTENIBLES PARA COOPERATIVAS Y MUTUALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBLEMÁTICAS Y TENDENCIAS EDUCATIVAS EN AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ORATORIA Y ESTRATEGIAS DE COMUNICACIÓN EFICAZ: COMPETENCIAS LINGÜÍSTICAS, MOTIVACIÓN Y LIDERAZGO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUADRO DE MANDO INTEGRAL. DISEÑO, IMPLEMENTACIÓN Y MONITOREO. ENFOQUE APLICADO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGRACIÓN Y COOPERACIÓN REGIONAL EN AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS POLÍTICAS DE GÉNERO EN LA COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA INNOVACIÓN EN LA GESTIÓN DEL TALENTO EN LAS ORGANIZACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXIX ENCUENTRO DEL ESTADO DE LA INVESTIGACIÓN EDUCATIVA: LA CUESTIÓN DOCENTE, FORMACIÓN Y REALIDAD EDUCATIVA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESOS MIGRATORIOS EN EL ESCENARIO INTERNACIONAL: ELEMENTOS PARA LA REFLEXIÓN Y LA DISCUSIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKSHOP: HANDS ON DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEDE CÓRDOBA - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA DE INFORMACIÓN GEOGRÁFICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISEÑO E IMPLEMENTACIÓN DE ENTREVISTAS CUALITATIVAS Y FOCUS GROUP. HERRAMIENTAS AVANZADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I JORNADAS NACIONALES DE ENSEÑANZA DE FARMACIA Y BIOQUÍMICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA BARIÁTRICA Y METABÓLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMACIÓN DOCTORAL II: ESCRITURA ACADÉMICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEDE ENTRE RÍOS - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-01-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANIFICACIÓN TERRITORIAL Y CONCEPTOS DE DERECHO URBANÍSITICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGACIÓN Y ANÁLISIS CUANTITATIVO APLICADA A LA GESTIÓN URBANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPACIOS PÚBLICOS ¿PARA QUÉ? ¿CUÁNTO? ¿DÓNDE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDADES INTELIGENTES, TECNOLOGÍAS, COMPROMISO Y GESTIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-06-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN NORMAS NACIONALES E INTERNACIONALES DE CONTABILIDAD (NCPA Y NIIF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTABILIDAD Y FINANZAS APLICADA A LA PYME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBIERNO ABIERTO, COMUNICACIÓN Y TECNOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODOLOGÍA CUALITATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA DE ECOCARDIOGRAFÍA DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II ATENEO CIENTÍFICO SOBRE INCLUSIÓN EDUCATIVA - DEL DERECHO A LAS PRÁCTICAS CONCRETAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN DISEÑO Y CONSTRUCCIÓN SUSTENTABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANÁLISIS DE REDES SOCIALES: TEORÍA, MÉTODOS Y APLICACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCESIBILIDAD Y POLÍTICAS DE VIVIENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO DE POSGRADO EN DERECHO EMPRESARIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ENERGÍAS RENOVABLES - CUARTA EDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARTUPS - FINANCIAMIENTO Y ASPECTOS LEGALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA INVESTIGACIÓN EN EDUCACIÓN: SUS FUNDAMENTOS EPISTEMOLÓGICOS Y METODOLÓGICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO DE ACTUALIZACIÓN EN RADIOLOGÍA VETERINARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRAMIENTAS METODOLÓGICAS PARA EL ANÁLISIS CUALITATIVO DE TEXTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASCENCENCIA POR EL ARTE Y LA BELLEZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRAMIENTAS DE GESTIÓN - 1ERA. PARTE - COCA COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - SEGUNDA EDICIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÓMO APREHENDE UN NIÑO EL MUNDO. DESARROLLO, JUEGO Y ESCRITURA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-01-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN GESTIÓN LOGÍSTICA INTEGRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRATEGIA DE CUSTOMER EXPERIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVENCIÓN LAVADO DE ACTIVOS: APLICACIONES CONCRETAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿CÓMO INICIAR UN PROCESO DE GESTIÓN DE PERSONAS EN ORGANIZACIONES PÚBLICAS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBIERNO EN JAQUE: CRISIS, ESCÁNDALOS Y POLÉMICAS EN LA COMUNICACIÓN POLÍTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCIÓN DE EMPRESAS PORCINAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN VALORACIÓN DEL DAÑO CORPORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-08-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA BIG DATA ANALYTICS BUSINESS INTELLIGENCE &amp; REAL TIME DECISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA DE INTENSIVO EN TERAPIA OCUPACIONAL - SEGUNDO NIVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-03-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA LOS RINCONES DEL JUEGO. LA EXPERIENCIA LÚDICA: RECORRIDOS, REPERTORIOS Y REFLEXIONES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINANZAS PERSONALES NIVEL II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO DE POSGRADO EN METODOLOGÍA CUALITATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-01-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCUBACIÓN CENTRO DE EMPRENDEDORISMO E INNOVACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS PROYECTOS EN LA ESCUELA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMINARIO: GÉNESIS Y ORGANIZACIÓN DE LOS SISTEMAS EDUCATIVOS EN EL MARCO DEL PENSAMIENTO POLÍTICO PEDAGÓGICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLÍTICA EDUCATIVA: EL SISTEMA EDUCATIVO ARGENTINO EN EL CONTEXTO LATINOAMERICANO E INTERNACIONAL (PARTE II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMACIÓN DOCTORAL I: AUTORIDAD PEDAGÓGICA Y PROCESOS DE EMANCIPACIÓN. TEÓRICAS Y PRÁCTICAS EN ESPACIOS EDUCATIVOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COACHING EDUCACIONAL - SEGUNDA EDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN  - DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA DE ACOMPAÑANTES COMUNITARIOS CONTRA LA VIOLENCIA DE GÉNERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLER: LAS CUATRO TRANSFORMACIONES FUNDAMENTALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABITAR O TRANSITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLER PARA LA ELABORACIÓN DE PROYECTOS DE INVESTIGACIÓN DE LA MAESTRÍA Y DOCTORADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDERAZGO Y COACHING - TERCERA EDICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERCERA EDICIÓN - TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - LIDERAZGO Y COACHING - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARQUITECTURA DE LA CIUDAD MODERNA - HELIO PIÑÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÉTICA Y RESPONSABILIDAD SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMACIÓN DOCTORAL I: LAS ORGANIZACIONES EDUCATIVAS DESDE LA PERSPECTIVA DE ANÁLISIS INSTITUCIONAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCLUSIÓN EN EL NIVEL MEDIO - TABORIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN PODOLOGÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMENTERIOS PARQUES, TECHOS Y PAREDES VERDES, UNA VUELTA A LA NATURALEZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALGUNOS ASPECTOS DE LA SOTERIOLOGÍA EN LOS PADRES DE LA IGLESIA Y SU VIGENCIA ACTUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-08-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTOGRAFÍA PARA JÓVENES: APRENDAMOS A MIRAR - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÉSPEDES Y CANCHAS DEPORTIVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLÍTICAS ENERGÉTICAS, CAMBIO CLIMÁTICO Y COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGLÉS PRÁCTICO PARA VIAJEROS - NIVEL INICIAL - NAZARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN COMUNICACIÓN MEDIÁTICA, CULTURA DIGITAL Y EDUCACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSGRADO EN MANAGEMENT ESTRATÉGICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-04-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-07-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN DESARROLLO Y GESTIÓN DE CIUDADES INTELIGENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINSENTIDO Y POLÍTICA: RELACIONES TEÓRICAS Y ARTICULACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKSHOP: PAISAJISMO COMO EXPRESIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANEJO SANITARIO DE JARDINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN ENERGÍAS RENOVABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-09-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-11-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCCIÓN A R PARA EL ANÁLISIS DE DATOS DE CIENCIAS AGRARIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBIENTE, TERRITORIO Y CONFLICTOS URBANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERTILIDAD QUÍMICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA ENSEÑANZA DEL PAISAJE EN CÓRDOBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA EQUIDAD DE GÉNERO EN EL ÁMBITO LABORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUROCIENCIAS APLICADAS: NEUROPLASTICIDAD, ESTIMULACIÓN NEUROCOGNITIVA Y APRENDIZAJES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUROCIENCIAS APLICADAS: COGNICIÓN SOCIAL. EL CEREBRO SOCIAL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUROCIENCIAS APLICADAS: INTRODUCCIÓN A LA NEUROPSICOLOGÍA DEL DESARROLLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITOTERÁPICOS Y NUTRACÉUTICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTROPOLOGÍA URBANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTENCIA ANTIMICROBIANA VETERINARIA: RETO GLOBAL PARA UNA SALUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCCIÓN A LA ECONOMÍA POLÍTICA DE LA CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-10-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLÍTICAS DE MOVILIDAD EN EL ESPACIO URBANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - RÍO PRIMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONOCIENDO E INTERPRETANDO LOS NÚMEROS EN MI EMPRESA FAMILIAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUACIÓN DE POLÍTICAS Y PROGRAMAS SOCIALES: DE LA TEORÍA DEL CAMBIO A LOS INDICADORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICLO DE CONFERENCIAS - PRÓXIMO DESTINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN PROJECT MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÉPTIMA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANÁLISIS MARGINAL NIVEL 1: NOCIONES BÁSICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-11-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA PLANIFICACIÓN DE LA GESTIÓN ESCOLAR. CONVERTIR DESEOS EN PROYECTOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORNADA DE ACTUALIZACIÓN PARA ESTILISTAS Y MAQUILLADORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEXTA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-09-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMOCRACIA Y CIUDADANÍA MULTICULTURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANEJO DE PLAGAS EN ESPACIOS VERDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-12-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORNADA INTERNACIONAL: MICROBIOLOGÍA DEL VINO / MICROBIOLOGIE DU VIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-0009894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMÉRICA LATINA Y EL CARIBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-0005958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AÑO PREVIO EN MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-05-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-05-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-0006894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO-JUVENIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-06-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-05-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-07-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-0007023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPLOMATURA EN DIABETES Y NUTRICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI-0007213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACRED PLACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI-0007214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE PRACTICE OF EVERYDAY LIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTRONCADA DE CHOTA v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-03-2017</t>
   </si>
 </sst>
 </file>
@@ -3459,7 +3459,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
@@ -3588,34 +3588,34 @@
   <dimension ref="A1:AI395"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C391" activeCellId="0" sqref="C391"/>
+      <selection pane="topLeft" activeCell="C395" activeCellId="0" sqref="C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="30" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.6032388663968"/>

--- a/assets/reporteCursos.xlsx
+++ b/assets/reporteCursos.xlsx
@@ -3448,7 +3448,7 @@
     <t xml:space="preserve">THE PRACTICE OF EVERYDAY LIFE</t>
   </si>
   <si>
-    <t xml:space="preserve">DESTRONCADA DE CHOTA v2</t>
+    <t xml:space="preserve">prueba de cambio v2</t>
   </si>
   <si>
     <t xml:space="preserve">07-03-2017</t>
@@ -3594,28 +3594,28 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="30" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.6032388663968"/>

--- a/assets/reporteCursos.xlsx
+++ b/assets/reporteCursos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,3438 +20,3432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6841" uniqueCount="1144">
-  <si>
-    <t xml:space="preserve">Listado de Cursos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod.Presup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomb.U.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categoría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.Abierta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.J.S. Insc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.J.S. Acad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloqueo Eco.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupo Max.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupo Eco.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fec.Cupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin Insc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cant.Hs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cant.Días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inscriptos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insc.Únicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docu OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habi OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pago OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuda Tot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuda Venc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recargo D.V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0007316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTRENAMIENTO EN PRÓTESIS FIJA ACTUALIZADA. DIAGNÓSTICO Y ALTERNATIVAS TERAPEUTICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cs. Salud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMACION DE POSGRADO (FJS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nbsp;Bloqueado&amp;nbsp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-01-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0007378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUSINESS ADMINISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-07-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURAS (FJS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-01-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0007404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN MODELOS DE ABORDAJE TERAPÉUTICO EN PSIQUIATRÍA INFANTO-JUVENIL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-06-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-06-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0007962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALISIS MARGINAL NIVEL 1: Nociones Básicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cs. Ec.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-10-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-01-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSOS ABIERTOS (FJS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-12-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-12-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0007986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-09-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-01-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-09-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0007987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ADOLESCENCIA: BULLYING Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniciado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0007994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN PRODUCCIÓN DE FIBRAS TEXTILES ANIMALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-10-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-10-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASES GENÉTICAS DE LA PRODUCCIÓN DE FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASES TEXTILES DE LA PRODUCCIÓN DE FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMOGRAFÍA ZOOTÉCNICA APLICADA A POBLACIONES PRODUCTORAS DE FIBRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN SUELOS Y FERTILIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recargado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN GESTIÓN DE AMBIENTE Y ORDENAMIENTO TERRITORIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN GESTIÓN Y MANEJO DE PAISAJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDERAZGO Y EMPODERAMIENTO DE MANDOS MEDIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIVERSIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMACION EJECUTIVA (FJS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN MERCADOS DE CAPITALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERECHO REGISTRAL Y SU PERSPECTIVA EN EL DERECHO PATRIMONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPUGNACIONES EN EL PROCESO PENAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBINAR: TEJIENDO REDES INCLUSIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBINAR: CONSTRUYENDO LA ACCESIBILIDAD PARA CADA ESTUDIANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBINAR: VALORANDO LAS POTENCIALIDADES COMUNICATIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBINAR: FACILITANDO LA COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBINAR: PLANIFICANDO PARA LA DIVERSIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBINAR: ACCEDIENDO AL CURRÍCULO REGULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No definido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN DIRECTIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTION DE REPUESTOS Y ALMACENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En reprogramación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN DERMATOCOSMÉTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cs. Qs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAGNÓSTICO E INTERVENCIÓN EN DELINCUENCIA JUVENIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPETENCIAS CLÍNICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABORDAJE INTERDISCIPLINARIO DE LA DISCAPACIDAD Y PATOLOGIZACIÓN EN LAS INFANCIAS ACTUALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ENERGIAS RENOVABLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN TÉCNICAS DE LABORATORIO VIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPLY CHAIN 4.0. LA CADENA DE SUMINISTROS EN LA ERA DIGITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-01-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA EDUCACION POPULAR HOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISIBILIZAR LO COTIDIANO: SISTEMATIZACIÓN DE EXPERIENCIAS EDUCATIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINANZAS PERSONALES NIVEL I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDERAZGO Y EMPODERAMIENTO A MANDOS MEDIOS NIVEL 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por iniciar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESARROLLO DE ALIMENTOS FUNCIONALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN DE MANTENIMIENTO INDUSTRIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS PROYECTOS EN LA ESCUELA: HERRAMIENTAS PARA SU ELABORACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN SENSORIAL Y OBJETIVA DE ALIMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDERAZGO Y COACHING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESARROLLO DEL CAPITAL HUMANO, UN ENFOQUE PRÁCTICO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCEL PARA INVERSORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORATORIA Y COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEORÍA POLÍTICA CONTEMPORÁNEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN REDES TELEINFORMÁTICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN BUSINESS ADMINISTRATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIONANDO UNA ESCUELA INCLUSIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERVENCIÓN EN GRUPOS Y ORGANIZACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS: Planificar por capacidades desde la óptica de la pedagogía diferenciada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICROBIOLOGÍA DE LOS ALIMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCCIÓN A LA TOXICOLOGÍA DE LOS ALIMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUISITOS DE BPM (BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POES - PROCEDIMIENTOS OPERATIVOS ESTANDARIZADOS DE SANEAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIP - MANEJO INTEGRADO DE PLAGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDITORÍAS INTERNAS DE BPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAZABILIDAD EN LA INDUSTRIA ALIMENTARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECALL - RETIRO DE PRODUCTOS DEL MERCADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEGISLACIÓN ALIMENTARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPM EN ESTABLECIMIENTOS LIBRES DE GLUTEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMAS DE INOCUIDAD ALIMENTARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELITO Y PERSONALIDAD: CONSIDERACIONES PSICOLÓGICAS Y CRIMINOLÓGICAS. ABORDAJE INSTITUCIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCCIÓN A LA PSICOLOGÍA DEL DEPORTE Y LA ACTIVIDAD FÍSICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARTUPS - DERECHO - MANAGEMENT Y FINANCIAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIENTACION VOCACIONAL Y OCUPACIONAL: COMPETENCIAS DE LOS ORIENTADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJECUCIÓN DE LA PENA: ASPECTOS PRÁCTICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPORTE DE SOSTENIBILIDAD GRI STANDARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERDISCIPLINARIO EN INTRODUCCIÓN A LOS CUIDADOS PALIATIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN DERECHOS DE LAS PERSONAS MIGRANTES EN ARGENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN EDUCACIÓN EN DERECHOS HUMANOS - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN SEGURIDAD HUMANA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN PARTICIPACIÓN, CIUDADANÍA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA INTERNACIONAL EN DERECHOS HUMANOS CON MENCIÓN EN ACCESO A LA JUSTICIA - IIDH-AUSJAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARCOTRÁFICO DESDE UNA PERSPECTIVA MULTIDISCIPLINARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDIMIENTO PENAL FEDERAL Y DESAFÍOS ACTUALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA INTERDISCIPLINARIA EN CUIDADOS PALIATIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO - JUVENIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-05-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL SECRETARIO DOCENTE EN LA NUEVA ORGANIZACIÓN ESCOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTE POR TODAS PARTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTOS MÉDICOS Y ORTOPEDICOS EN LA FARMACIA COMUNITARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿CÓMO CONSTRUIR UN PROTOCOLO ANTI BULLYING Y ANTI GROOMING?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-01-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN DE LA RESPONSABILIDAD SOCIAL EMPRESARIA Y REPORTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN SISTEMAS DE GESTIÓN DE LA CALIDAD E INOCUIDAD ALIMENTARIA - IRAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-08-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN SISTEMAS DE GESTIÓN INTEGRADOS - IRAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-08-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ENERGÍAS RENOVABLES - TERCERA EDICIÓN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN CIBERSEGURIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN DESARROLLO DE APLICACIONES PARA ANDROID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN LITERATURA ARGENTINA CONTEMPORÁNEA (1980 A LA ACTUALIDAD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA EDUCACIÓN POPULAR HOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN LIDERAZGO ORGÁNICO. COACHING, INTELIGENCIA EMOCIONAL Y NEUROCIENCIAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERMOCOSMÉTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN NUTRICIÓN CLÍNICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-03-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCCIÓN AL BIG DATA Y SOPORTE DE DECISIONES EN BASE A DATOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARKETING ESTRATÉGICO PARA FARMACIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESIS DE POSGRADO: CUATRO HERRAMIENTAS PRACTICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQUIDAD DE GÉNERO Y PREVENCIÓN DE LA VIOLENCIA DE GÉNERO EN LA ESCUELA DE NIVEL MEDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE CÓRDOBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMERICA LATINA Y EL CARIBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN DE PROYECTOS DE DESARROLLO LOCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECODIFICANDO LA RELACIÓN ARGENTINA Y BRASIL: HISTORIA Y FUTURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLÍTICA Y POLÍTICAS PÚBLICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMAS PÚBLICO - PRIVADO PARA EL DESARROLLO EMPRENDEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL IMPACTO EN LOS NEGOCIOS DE LA REFORMA TRIBUTARIA NACIONAL Y LOCAL. Desde una mirada práctica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOBERNAR EL RIESGO DE DESASTRES. POLÍTICAS Y METODOLOGÍAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISEÑO E IMPLEMENTACIÓN DE PROYECTOS DE COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRAMIENTAS PARA LA GESTIÓN DE FUENTES DE FINANCIAMIENTO INTERNACIONAL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEGOCIACIÓN Y COMUNICACIÓN INSTITUCIONAL CON ACTORES POLÍTICOS SOCIALES, GRUPOS ASOCIATIVOS Y DE INTERÉS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN FORTALECIMIENTO INSTITUCIONAL DE PARTIDOS POLÍTICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTADÍSTICA PARA CIENCIAS BIOLÓGICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIABETES MELLITUS TIPO 2: estrategias de prevención y seguimiento farmacoterapéutico del paciente con diagnóstico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUENAS PRÁCTICAS FARMACÉUTICAS EN LA FARMACIA OFICINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCACIÓN ESTÉTICA EN LA FILOSOFÍA DE JOHN DEWEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN EMPRESAS FAMILIARES. Gestión de la Empresa Familiar y profesionalización de la familia empresaria.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMA DE FORMACIÓN GERENCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMULACIÓN DE PROTOCOLOS DE ACTUACIÓN EN VIOLENCIA INTRAFAMILIAR PARA DOCENTES DEL SISTEMA EDUCATIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METODOLOGÍA DE LA INVESTIGACIÓN CIENTÍFICA PARA LAS CIENCIAS BIOLÓGICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORNADAS DE MEDICINA VETERINARIA LEGAL Y FORENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTECCIÓN DE CULTIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOOLOGÍA, DISHERBOLOGÍA Y MODO DE ACCIÓN DE AGROQUÍMICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRAMIENTAS PARA EL MANEJO DE ORGANISMOS PERJUDICIALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTADÍSTICA Y EPIDEMIOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECCIÓN TÉCNICA DE OBRA - EDIFICIOS EN ALTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRACIÓN AGRÍCOLA Y PROYECTOS DE INVERSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLICACIÓN DE PLAGUICIDAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITOPATÓGENOS Y DIAGNÓSTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ECONOMÍA DEL FUTURO: BITCOINS Y FINTECH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CORDOBA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-02-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOPERACIÓN INTERNACIONAL, ALIANZAS ESTRATÉGICAS Y SECTOR PRIVADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDERAZGO Y COACHING. SEGUNDA EDICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CÓRDOBA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS. CUARTA Y QUINTA EDICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-03-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO DE NEONATOLOGÍA Y PEDIATRÍA EQUINA: DEL ÚTERO AL STUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COACHING EDUCACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOBERNANZA ABIERTA Y COLABORATIVA: NUEVAS RELACIONES EN EL TERRITORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROYECTOS DE INTERVENCIÓN PEDAGÓGICA PARA LA INCLUSIÓN (ÁMBITO INFORMAL Y NO FORMAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMUNICACIÓN GUBERNAMENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESOLUCIÓN DE CONFLICTOS EN ESTABLECIMIENTOS EDUCATIVOS: PRÁCTICAS Y ESTRATEGIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRATEGIAS PARA EL DIAGNÓSTICO PSICOPEDAGÓGICO. CONOCIMIENTO, APLICACIÓN Y ANÁLISIS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEORÍA Y ANÁLISIS DE CONFLICTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL NIVEL INICIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUENAS PRÁCTICAS DEL PROTOCOLO FAMILIAR EN LATINOAMÉRICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE LA PAMPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE ENTRE RÍOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-02-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCACIÓN DE ESTUDIANTES CON DISCAPACIDAD MÚLTIPLE Y DISCAPACIDAD SENSORIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIBERDELITOS. ABORDAJE LEGAL DE LA DELINCUENCIA COMPUTACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ENERGÍA TERMO SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO DE CÉLULAS MADRE MESENQUIMALES AUTÓLOGAS ADULTAS, PLASMA RICO EN PLAQUETAS Y OZONOTERAPIA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL - 2DA. EDICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSTRUCCIÓN DE EQUIPOS DEPORTIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL AVANZADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORNADA SOBRE CIENCIA, RELIGIÓN Y EDUCACIÓN PARA DOCENTES DE NIVEL SECUNDARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENERGÍAS RENOVABLES - SEDE LA FALDA - DEFENSORÍA DEL PUEBLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENERGIAS RENOVABLES - SEDE VILLA SANTA CRUZ DEL LAGO (2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENERGIAS RENOVABLES - SEDE VILLA GIARDINO - DEFENSORÍA DEL PUEBLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAS PRÁCTICAS DEL CONOCIMIENTO EN EL CAMPO DE LA EDUCACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL INTERMEDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEGOCIACIÓN INTERNACIONAL: ABORDAJE, HERRAMIENTAS PRÁCTICAS Y EQUIPO NEGOCIADOR EFECTIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL SECUNDARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVEL SUPERIOR E INCLUSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUCAR EN VALORES HOY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA FIGURA DE CRISTO EN LA FILOSOFÍA - SEMINARIO DE FENOMENOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO Y SOBERANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VI JORNADAS DE INVESTIGACIÓN E INTERVENCIÓN EN PSICOPEDAGOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSABILIDAD SOCIAL PARA LA GESTIÓN DE LAS ORGANIZACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLER DE ACOMPAÑAMIENTO PARA LA ESCRITURA DEL TRABAJO FINAL Y LA FINALIZACIÓN DE CARRERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDERAZGO Y COACHING - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEREMONIAL Y PROTOCOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA AUTORIDAD PEDAGÓGICA COMO ENCUENTRO DE TRAYECTORIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METODOLOGÍA CUANTITATIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALUD ANIMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN DIRECTIVA - ARROYITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRAMIENTAS DIGITALES PARA LA VIDA COTIDIANA - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABORATORIO DE JUGUETES - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0008999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEORÍAS DE LA EDUCACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUGANDO CON ROBOTS PARA NIÑOS - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPRESIÓN 3D PARA JÓVENES - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUIDADOS INTEGRALES DE ENFERMERÍA AL PACIENTE NEONATO CON PATOLOGÍAS DE RESOLUCIÓN QUIRÚRGICA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODONTOLOGÍA INTEGRATIVA. NEURO - PSICO - ODONTOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOTOGRAFÍA: APRENDAMOS A MIRAR - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOSAICO: ROMPER PARA CREAR  - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EL JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELACIÓN ESCUELA - FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIONANDO UNA ESCUELA INCLUSIVA - ARROYITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - ARROYITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS PROYECTOS EN LA ESCUELA - ARROYITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN DIRECTIVA - SEGUNDO NIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA GINECOLÓGICA MINI INVASIVA: VIDEOLAPAROSCOPÍA Y VIDEO HISTEROSCOPÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-04-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA DE LA MANO Y RECONSTRUCCIÓN DEL MIEMBRO SUPERIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIPERTENSION ARTERIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIRUGÍA RECONSTRUCTIVA ARTICULAR ARTROSCOPICA DE CADERA Y RODILLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÉTICA, INTEGRIDAD Y POLÍTICAS DE TRANSPARENCIA EN LA FUNCIÓN PÚBLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIOLENCIAS - ANÁLISIS Y PROCESOS DE INTERVENCIÓN TEÓRICO JURÍDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HABLAR DE DIOS DESDE EL LENGUAJE HUMANO (I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICIÓN Y ALIMENTACIÓN DE BOVINOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMACIÓN DOCTORAL I: ENFOQUES FILOSÓFICOS, ANTROPOLÓGICOS Y SOCIOLÓGICOS DE LA EDUCACIÓN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN COACHING APLICADO PARA EL DESARROLLO PERSONAL Y ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FISIOLÓMICA DE LAS RESPUESTAS AL ESTRÉS EN PLANTAS Y SU APLICACIÓN AL MEJORAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLER DE POSGRADO HERRAMIENTAS FISIOLÓGICAS PARA EL ESTUDIO DEL ESTRÉS ABIÓTICO EN PLANTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTELIGENCIA EMOCIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA. TRANSPLANTA DE ÓRGANOS SÓLIDOS Y CIRUGÍA ONCOLÓGICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-04-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCCIÓN Y UTILIZACIÓN DE LOS RECURSOS FORRAJEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS - SOCIEDADES ANÓNIMAS SIMPLIFICADAS. APROXIMACIÓN AL NUEVO TIPO SOCIETARIO PARA CONTADORES Y EMPRENDEDORES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN ORTOPEDIA Y TRAUMATOLOGÍA INFANTIL PARA TRAUMATÓLOGOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA AÑO PREVIO EN MEDICINA INTERNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-03-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVESTIGACIÓN EDUCATIVA: REVISIONES TEÓRICAS, EXPERIENCIAS Y NUEVAS MIRADAS EN TORNO A LAS NEUROCIENCIAS, LA CREATIVIDAD Y LA INTELIGENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSONAS CON DISCAPACIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ESTUDIOS SOCIALES URBANOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSONA HUMANA: GANANCIAS, BIENES PERSONALES Y MÍNIMA PRESUNTA. AÑO 2017. EJEMPLOS SOBRE LOS APLICATIVOS WEB AFIP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL FRAMING COMO HERRAMIENTA EN EL DEBATE POLÍTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-05-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPOGRAFÍA AVANZADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLER VIVENCIAL - LA FAMILIA EL GRAN EQUIPO: HERRAMIENTAS PARA CRECER EN FAMILIA HOY.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN INNOVACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: DOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: ONCOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMA DE FORMACIÓN INTENSIVA PARA ENFERMERÍA EN CENTROS DE ANESTESIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIÓN DIRECTIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESTIONANDO UNA ESCUELA INCLUSIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPRESIÓN 3D PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORATORIA Y COMUNICACIÓN PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELACIONES INTERGUBERNAMENTALES Y POLÍTICA MULTINIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS LENGUAJES ARTÍSTICOS DE CARA A LA EDUCACIÓN DEL SIGLO XXI: SABERES PRÁCTICOS Y DESAFÍOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRATEGIAS Y PRÁCTICAS SOSTENIBLES PARA COOPERATIVAS Y MUTUALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROBLEMÁTICAS Y TENDENCIAS EDUCATIVAS EN AMÉRICA LATINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ORATORIA Y ESTRATEGIAS DE COMUNICACIÓN EFICAZ: COMPETENCIAS LINGÜÍSTICAS, MOTIVACIÓN Y LIDERAZGO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUADRO DE MANDO INTEGRAL. DISEÑO, IMPLEMENTACIÓN Y MONITOREO. ENFOQUE APLICADO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTEGRACIÓN Y COOPERACIÓN REGIONAL EN AMÉRICA LATINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAS POLÍTICAS DE GÉNERO EN LA COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA INNOVACIÓN EN LA GESTIÓN DEL TALENTO EN LAS ORGANIZACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXIX ENCUENTRO DEL ESTADO DE LA INVESTIGACIÓN EDUCATIVA: LA CUESTIÓN DOCENTE, FORMACIÓN Y REALIDAD EDUCATIVA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HABITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCESOS MIGRATORIOS EN EL ESCENARIO INTERNACIONAL: ELEMENTOS PARA LA REFLEXIÓN Y LA DISCUSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKSHOP: HANDS ON DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEDE CÓRDOBA - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA DE INFORMACIÓN GEOGRÁFICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISEÑO E IMPLEMENTACIÓN DE ENTREVISTAS CUALITATIVAS Y FOCUS GROUP. HERRAMIENTAS AVANZADAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I JORNADAS NACIONALES DE ENSEÑANZA DE FARMACIA Y BIOQUÍMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA BARIÁTRICA Y METABÓLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMACIÓN DOCTORAL II: ESCRITURA ACADÉMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEDE ENTRE RÍOS - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-01-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANIFICACIÓN TERRITORIAL Y CONCEPTOS DE DERECHO URBANÍSITICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVESTIGACIÓN Y ANÁLISIS CUANTITATIVO APLICADA A LA GESTIÓN URBANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPACIOS PÚBLICOS ¿PARA QUÉ? ¿CUÁNTO? ¿DÓNDE?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIUDADES INTELIGENTES, TECNOLOGÍAS, COMPROMISO Y GESTIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-06-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN NORMAS NACIONALES E INTERNACIONALES DE CONTABILIDAD (NCPA Y NIIF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTABILIDAD Y FINANZAS APLICADA A LA PYME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOBIERNO ABIERTO, COMUNICACIÓN Y TECNOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METODOLOGÍA CUALITATIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA DE ECOCARDIOGRAFÍA DOPPLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II ATENEO CIENTÍFICO SOBRE INCLUSIÓN EDUCATIVA - DEL DERECHO A LAS PRÁCTICAS CONCRETAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN DISEÑO Y CONSTRUCCIÓN SUSTENTABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANÁLISIS DE REDES SOCIALES: TEORÍA, MÉTODOS Y APLICACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCESIBILIDAD Y POLÍTICAS DE VIVIENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO DE POSGRADO EN DERECHO EMPRESARIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ENERGÍAS RENOVABLES - CUARTA EDICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARTUPS - FINANCIAMIENTO Y ASPECTOS LEGALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA INVESTIGACIÓN EN EDUCACIÓN: SUS FUNDAMENTOS EPISTEMOLÓGICOS Y METODOLÓGICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO DE ACTUALIZACIÓN EN RADIOLOGÍA VETERINARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRAMIENTAS METODOLÓGICAS PARA EL ANÁLISIS CUALITATIVO DE TEXTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRASCENCENCIA POR EL ARTE Y LA BELLEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRAMIENTAS DE GESTIÓN - 1ERA. PARTE - COCA COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - SEGUNDA EDICIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÓMO APREHENDE UN NIÑO EL MUNDO. DESARROLLO, JUEGO Y ESCRITURA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-01-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN GESTIÓN LOGÍSTICA INTEGRAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRATEGIA DE CUSTOMER EXPERIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREVENCIÓN LAVADO DE ACTIVOS: APLICACIONES CONCRETAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿CÓMO INICIAR UN PROCESO DE GESTIÓN DE PERSONAS EN ORGANIZACIONES PÚBLICAS?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOBIERNO EN JAQUE: CRISIS, ESCÁNDALOS Y POLÉMICAS EN LA COMUNICACIÓN POLÍTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECCIÓN DE EMPRESAS PORCINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN VALORACIÓN DEL DAÑO CORPORAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-08-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA BIG DATA ANALYTICS BUSINESS INTELLIGENCE &amp; REAL TIME DECISION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMA DE INTENSIVO EN TERAPIA OCUPACIONAL - SEGUNDO NIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-03-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA LOS RINCONES DEL JUEGO. LA EXPERIENCIA LÚDICA: RECORRIDOS, REPERTORIOS Y REFLEXIONES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINANZAS PERSONALES NIVEL II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURSO DE POSGRADO EN METODOLOGÍA CUALITATIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-01-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCUBACIÓN CENTRO DE EMPRENDEDORISMO E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS PROYECTOS EN LA ESCUELA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMINARIO: GÉNESIS Y ORGANIZACIÓN DE LOS SISTEMAS EDUCATIVOS EN EL MARCO DEL PENSAMIENTO POLÍTICO PEDAGÓGICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLÍTICA EDUCATIVA: EL SISTEMA EDUCATIVO ARGENTINO EN EL CONTEXTO LATINOAMERICANO E INTERNACIONAL (PARTE II)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMACIÓN DOCTORAL I: AUTORIDAD PEDAGÓGICA Y PROCESOS DE EMANCIPACIÓN. TEÓRICAS Y PRÁCTICAS EN ESPACIOS EDUCATIVOS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COACHING EDUCACIONAL - SEGUNDA EDICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN  - DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA DE ACOMPAÑANTES COMUNITARIOS CONTRA LA VIOLENCIA DE GÉNERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLER: LAS CUATRO TRANSFORMACIONES FUNDAMENTALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HABITAR O TRANSITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLER PARA LA ELABORACIÓN DE PROYECTOS DE INVESTIGACIÓN DE LA MAESTRÍA Y DOCTORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDERAZGO Y COACHING - TERCERA EDICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERCERA EDICIÓN - TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - LIDERAZGO Y COACHING - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARQUITECTURA DE LA CIUDAD MODERNA - HELIO PIÑÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÉTICA Y RESPONSABILIDAD SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMACIÓN DOCTORAL I: LAS ORGANIZACIONES EDUCATIVAS DESDE LA PERSPECTIVA DE ANÁLISIS INSTITUCIONAL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCLUSIÓN EN EL NIVEL MEDIO - TABORIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN PODOLOGÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEMENTERIOS PARQUES, TECHOS Y PAREDES VERDES, UNA VUELTA A LA NATURALEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALGUNOS ASPECTOS DE LA SOTERIOLOGÍA EN LOS PADRES DE LA IGLESIA Y SU VIGENCIA ACTUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05-08-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOTOGRAFÍA PARA JÓVENES: APRENDAMOS A MIRAR - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÉSPEDES Y CANCHAS DEPORTIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLÍTICAS ENERGÉTICAS, CAMBIO CLIMÁTICO Y COOPERACIÓN INTERNACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGLÉS PRÁCTICO PARA VIAJEROS - NIVEL INICIAL - NAZARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN COMUNICACIÓN MEDIÁTICA, CULTURA DIGITAL Y EDUCACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSGRADO EN MANAGEMENT ESTRATÉGICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-04-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN DESARROLLO Y GESTIÓN DE CIUDADES INTELIGENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINSENTIDO Y POLÍTICA: RELACIONES TEÓRICAS Y ARTICULACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKSHOP: PAISAJISMO COMO EXPRESIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANEJO SANITARIO DE JARDINES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN ENERGÍAS RENOVABLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-09-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-11-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCCIÓN A R PARA EL ANÁLISIS DE DATOS DE CIENCIAS AGRARIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBIENTE, TERRITORIO Y CONFLICTOS URBANOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERTILIDAD QUÍMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA ENSEÑANZA DEL PAISAJE EN CÓRDOBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA EQUIDAD DE GÉNERO EN EL ÁMBITO LABORAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEUROCIENCIAS APLICADAS: NEUROPLASTICIDAD, ESTIMULACIÓN NEUROCOGNITIVA Y APRENDIZAJES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEUROCIENCIAS APLICADAS: COGNICIÓN SOCIAL. EL CEREBRO SOCIAL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEUROCIENCIAS APLICADAS: INTRODUCCIÓN A LA NEUROPSICOLOGÍA DEL DESARROLLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITOTERÁPICOS Y NUTRACÉUTICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTROPOLOGÍA URBANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTENCIA ANTIMICROBIANA VETERINARIA: RETO GLOBAL PARA UNA SALUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCCIÓN A LA ECONOMÍA POLÍTICA DE LA CIUDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-10-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLÍTICAS DE MOVILIDAD EN EL ESPACIO URBANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - RÍO PRIMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONOCIENDO E INTERPRETANDO LOS NÚMEROS EN MI EMPRESA FAMILIAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUACIÓN DE POLÍTICAS Y PROGRAMAS SOCIALES: DE LA TEORÍA DEL CAMBIO A LOS INDICADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CICLO DE CONFERENCIAS - PRÓXIMO DESTINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN PROJECT MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SÉPTIMA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANÁLISIS MARGINAL NIVEL 1: NOCIONES BÁSICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-11-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA PLANIFICACIÓN DE LA GESTIÓN ESCOLAR. CONVERTIR DESEOS EN PROYECTOS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORNADA DE ACTUALIZACIÓN PARA ESTILISTAS Y MAQUILLADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEXTA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-09-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMOCRACIA Y CIUDADANÍA MULTICULTURAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANEJO DE PLAGAS EN ESPACIOS VERDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-12-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORNADA INTERNACIONAL: MICROBIOLOGÍA DEL VINO / MICROBIOLOGIE DU VIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-0009894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMÉRICA LATINA Y EL CARIBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-0005958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AÑO PREVIO EN MEDICINA INTERNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-05-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-05-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-0006894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO-JUVENIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-06-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-05-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-07-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-0007023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPLOMATURA EN DIABETES Y NUTRICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI-0007213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACRED PLACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI-0007214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE PRACTICE OF EVERYDAY LIFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESTRONCADA DE CHOTA v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07-03-2017</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="1142">
+  <si>
+    <t>Listado de Cursos</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Cod.Presup.</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>U.A.</t>
+  </si>
+  <si>
+    <t>Nomb.U.A.</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Dictado</t>
+  </si>
+  <si>
+    <t>C.Abierta</t>
+  </si>
+  <si>
+    <t>F.J.S. Insc.</t>
+  </si>
+  <si>
+    <t>F.J.S. Acad.</t>
+  </si>
+  <si>
+    <t>Vigente</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Bloqueo Eco.</t>
+  </si>
+  <si>
+    <t>Cupo Max.</t>
+  </si>
+  <si>
+    <t>Cupo Eco.</t>
+  </si>
+  <si>
+    <t>Fec.Cupo</t>
+  </si>
+  <si>
+    <t>Fin Insc.</t>
+  </si>
+  <si>
+    <t>Cant.Hs.</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Cant.Días</t>
+  </si>
+  <si>
+    <t>Participantes</t>
+  </si>
+  <si>
+    <t>Inscriptos</t>
+  </si>
+  <si>
+    <t>Insc.Únicos</t>
+  </si>
+  <si>
+    <t>Docu OK</t>
+  </si>
+  <si>
+    <t>Habi OK</t>
+  </si>
+  <si>
+    <t>Pago OK</t>
+  </si>
+  <si>
+    <t>Exentos</t>
+  </si>
+  <si>
+    <t>Deuda Tot.</t>
+  </si>
+  <si>
+    <t>Deuda Venc.</t>
+  </si>
+  <si>
+    <t>Recargo D.V.</t>
+  </si>
+  <si>
+    <t>Pagado</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>00-0007316</t>
+  </si>
+  <si>
+    <t>ENTRENAMIENTO EN PRÓTESIS FIJA ACTUALIZADA. DIAGNÓSTICO Y ALTERNATIVAS TERAPEUTICAS</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Cs. Salud</t>
+  </si>
+  <si>
+    <t>30-06-2017</t>
+  </si>
+  <si>
+    <t>01-06-2018</t>
+  </si>
+  <si>
+    <t>FORMACION DE POSGRADO (FJS)</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;Bloqueado&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>03-01-2017</t>
+  </si>
+  <si>
+    <t>LARGO</t>
+  </si>
+  <si>
+    <t>00-0007378</t>
+  </si>
+  <si>
+    <t>BUSINESS ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>ICDA</t>
+  </si>
+  <si>
+    <t>24-07-2017</t>
+  </si>
+  <si>
+    <t>09-04-2018</t>
+  </si>
+  <si>
+    <t>DIPLOMATURAS (FJS)</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>01-01-2017</t>
+  </si>
+  <si>
+    <t>00-0007404</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN MODELOS DE ABORDAJE TERAPÉUTICO EN PSIQUIATRÍA INFANTO-JUVENIL.</t>
+  </si>
+  <si>
+    <t>16-06-2017</t>
+  </si>
+  <si>
+    <t>18-05-2018</t>
+  </si>
+  <si>
+    <t>27-06-2017</t>
+  </si>
+  <si>
+    <t>00-0007962</t>
+  </si>
+  <si>
+    <t>ANALISIS MARGINAL NIVEL 1: Nociones Básicas</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Cs. Ec.</t>
+  </si>
+  <si>
+    <t>05-10-2017</t>
+  </si>
+  <si>
+    <t>01-01-2018</t>
+  </si>
+  <si>
+    <t>CURSOS ABIERTOS (FJS)</t>
+  </si>
+  <si>
+    <t>22-12-2017</t>
+  </si>
+  <si>
+    <t>10-12-2017</t>
+  </si>
+  <si>
+    <t>MEDIANO</t>
+  </si>
+  <si>
+    <t>00-0007986</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>Edu.</t>
+  </si>
+  <si>
+    <t>25-09-2017</t>
+  </si>
+  <si>
+    <t>25-01-2018</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>26-09-2017</t>
+  </si>
+  <si>
+    <t>00-0007987</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ADOLESCENCIA: BULLYING Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>23-12-2018</t>
+  </si>
+  <si>
+    <t>Iniciado</t>
+  </si>
+  <si>
+    <t>00-0007994</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN PRODUCCIÓN DE FIBRAS TEXTILES ANIMALES</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Agr.</t>
+  </si>
+  <si>
+    <t>27-10-2017</t>
+  </si>
+  <si>
+    <t>22-05-2018</t>
+  </si>
+  <si>
+    <t>21-05-2018</t>
+  </si>
+  <si>
+    <t>28-10-2017</t>
+  </si>
+  <si>
+    <t>00-0008002</t>
+  </si>
+  <si>
+    <t>BASES GENÉTICAS DE LA PRODUCCIÓN DE FIBRA</t>
+  </si>
+  <si>
+    <t>09-03-2018</t>
+  </si>
+  <si>
+    <t>10-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008003</t>
+  </si>
+  <si>
+    <t>BASES TEXTILES DE LA PRODUCCIÓN DE FIBRA</t>
+  </si>
+  <si>
+    <t>13-04-2018</t>
+  </si>
+  <si>
+    <t>14-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008004</t>
+  </si>
+  <si>
+    <t>DEMOGRAFÍA ZOOTÉCNICA APLICADA A POBLACIONES PRODUCTORAS DE FIBRAS</t>
+  </si>
+  <si>
+    <t>00-0008010</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN SUELOS Y FERTILIDAD</t>
+  </si>
+  <si>
+    <t>16-03-2018</t>
+  </si>
+  <si>
+    <t>14-12-2018</t>
+  </si>
+  <si>
+    <t>Recargado</t>
+  </si>
+  <si>
+    <t>20-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008253</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN GESTIÓN DE AMBIENTE Y ORDENAMIENTO TERRITORIAL</t>
+  </si>
+  <si>
+    <t>22-12-2018</t>
+  </si>
+  <si>
+    <t>02-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008254</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN GESTIÓN Y MANEJO DE PAISAJE</t>
+  </si>
+  <si>
+    <t>15-12-2018</t>
+  </si>
+  <si>
+    <t>28-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008355</t>
+  </si>
+  <si>
+    <t>LIDERAZGO Y EMPODERAMIENTO DE MANDOS MEDIOS</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD</t>
+  </si>
+  <si>
+    <t>09-06-2018</t>
+  </si>
+  <si>
+    <t>16-06-2018</t>
+  </si>
+  <si>
+    <t>FORMACION EJECUTIVA (FJS)</t>
+  </si>
+  <si>
+    <t>In Company</t>
+  </si>
+  <si>
+    <t>00-0008375</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL</t>
+  </si>
+  <si>
+    <t>05-02-2018</t>
+  </si>
+  <si>
+    <t>02-04-2018</t>
+  </si>
+  <si>
+    <t>09-02-2018</t>
+  </si>
+  <si>
+    <t>08-02-2018</t>
+  </si>
+  <si>
+    <t>00-0008397</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN MERCADOS DE CAPITALES</t>
+  </si>
+  <si>
+    <t>01-12-2018</t>
+  </si>
+  <si>
+    <t>05-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008415</t>
+  </si>
+  <si>
+    <t>DERECHO REGISTRAL Y SU PERSPECTIVA EN EL DERECHO PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Der.</t>
+  </si>
+  <si>
+    <t>16-04-2018</t>
+  </si>
+  <si>
+    <t>13-08-2018</t>
+  </si>
+  <si>
+    <t>09-05-2018</t>
+  </si>
+  <si>
+    <t>01-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008416</t>
+  </si>
+  <si>
+    <t>IMPUGNACIONES EN EL PROCESO PENAL</t>
+  </si>
+  <si>
+    <t>26-07-2018</t>
+  </si>
+  <si>
+    <t>20-12-2018</t>
+  </si>
+  <si>
+    <t>05-07-2018</t>
+  </si>
+  <si>
+    <t>25-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008435</t>
+  </si>
+  <si>
+    <t>WEBINAR: TEJIENDO REDES INCLUSIVAS</t>
+  </si>
+  <si>
+    <t>02-08-2018</t>
+  </si>
+  <si>
+    <t>24-06-2019</t>
+  </si>
+  <si>
+    <t>27-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008436</t>
+  </si>
+  <si>
+    <t>WEBINAR: CONSTRUYENDO LA ACCESIBILIDAD PARA CADA ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>24-12-2018</t>
+  </si>
+  <si>
+    <t>00-0008455</t>
+  </si>
+  <si>
+    <t>WEBINAR: VALORANDO LAS POTENCIALIDADES COMUNICATIVAS</t>
+  </si>
+  <si>
+    <t>01-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008456</t>
+  </si>
+  <si>
+    <t>WEBINAR: FACILITANDO LA COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t>00-0008457</t>
+  </si>
+  <si>
+    <t>WEBINAR: PLANIFICANDO PARA LA DIVERSIDAD</t>
+  </si>
+  <si>
+    <t>00-0008458</t>
+  </si>
+  <si>
+    <t>WEBINAR: ACCEDIENDO AL CURRÍCULO REGULAR</t>
+  </si>
+  <si>
+    <t>No definido</t>
+  </si>
+  <si>
+    <t>04-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008459</t>
+  </si>
+  <si>
+    <t>GESTIÓN DIRECTIVA</t>
+  </si>
+  <si>
+    <t>28-04-2018</t>
+  </si>
+  <si>
+    <t>03-11-2018</t>
+  </si>
+  <si>
+    <t>Actualización</t>
+  </si>
+  <si>
+    <t>21-04-2018</t>
+  </si>
+  <si>
+    <t>27-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008460</t>
+  </si>
+  <si>
+    <t>GESTION DE REPUESTOS Y ALMACENES</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Ing.</t>
+  </si>
+  <si>
+    <t>07-04-2018</t>
+  </si>
+  <si>
+    <t>En reprogramación</t>
+  </si>
+  <si>
+    <t>08-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008475</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN DERMATOCOSMÉTICA</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Cs. Qs.</t>
+  </si>
+  <si>
+    <t>26-11-2018</t>
+  </si>
+  <si>
+    <t>30-05-2018</t>
+  </si>
+  <si>
+    <t>12-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008476</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICO E INTERVENCIÓN EN DELINCUENCIA JUVENIL</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Fil.</t>
+  </si>
+  <si>
+    <t>31-12-2018</t>
+  </si>
+  <si>
+    <t>00-0008478</t>
+  </si>
+  <si>
+    <t>COMPETENCIAS CLÍNICAS</t>
+  </si>
+  <si>
+    <t>15-03-2018</t>
+  </si>
+  <si>
+    <t>21-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008479</t>
+  </si>
+  <si>
+    <t>ABORDAJE INTERDISCIPLINARIO DE LA DISCAPACIDAD Y PATOLOGIZACIÓN EN LAS INFANCIAS ACTUALES</t>
+  </si>
+  <si>
+    <t>26-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008480</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ENERGIAS RENOVABLES</t>
+  </si>
+  <si>
+    <t>23-06-2018</t>
+  </si>
+  <si>
+    <t>18-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008481</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN TÉCNICAS DE LABORATORIO VIAL</t>
+  </si>
+  <si>
+    <t>19-04-2018</t>
+  </si>
+  <si>
+    <t>01-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008495</t>
+  </si>
+  <si>
+    <t>SUPPLY CHAIN 4.0. LA CADENA DE SUMINISTROS EN LA ERA DIGITAL</t>
+  </si>
+  <si>
+    <t>04-04-2018</t>
+  </si>
+  <si>
+    <t>23-05-2018</t>
+  </si>
+  <si>
+    <t>02-01-2018</t>
+  </si>
+  <si>
+    <t>00-0008496</t>
+  </si>
+  <si>
+    <t>LA EDUCACION POPULAR HOY</t>
+  </si>
+  <si>
+    <t>14-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008498</t>
+  </si>
+  <si>
+    <t>VISIBILIZAR LO COTIDIANO: SISTEMATIZACIÓN DE EXPERIENCIAS EDUCATIVAS</t>
+  </si>
+  <si>
+    <t>06-04-2018</t>
+  </si>
+  <si>
+    <t>08-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008499</t>
+  </si>
+  <si>
+    <t>FINANZAS PERSONALES NIVEL I</t>
+  </si>
+  <si>
+    <t>21-03-2018</t>
+  </si>
+  <si>
+    <t>15-06-2018</t>
+  </si>
+  <si>
+    <t>05-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008500</t>
+  </si>
+  <si>
+    <t>LIDERAZGO Y EMPODERAMIENTO A MANDOS MEDIOS NIVEL 1</t>
+  </si>
+  <si>
+    <t>14-09-2018</t>
+  </si>
+  <si>
+    <t>28-09-2018</t>
+  </si>
+  <si>
+    <t>Por iniciar</t>
+  </si>
+  <si>
+    <t>15-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008501</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE ALIMENTOS FUNCIONALES</t>
+  </si>
+  <si>
+    <t>23-11-2018</t>
+  </si>
+  <si>
+    <t>24-11-2018</t>
+  </si>
+  <si>
+    <t>00-0008502</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE MANTENIMIENTO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>06-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008515</t>
+  </si>
+  <si>
+    <t>LOS PROYECTOS EN LA ESCUELA: HERRAMIENTAS PARA SU ELABORACIÓN</t>
+  </si>
+  <si>
+    <t>14-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008516</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN SENSORIAL Y OBJETIVA DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>24-08-2018</t>
+  </si>
+  <si>
+    <t>18-09-2018</t>
+  </si>
+  <si>
+    <t>17-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008518</t>
+  </si>
+  <si>
+    <t>LIDERAZGO Y COACHING</t>
+  </si>
+  <si>
+    <t>02-02-2018</t>
+  </si>
+  <si>
+    <t>16-02-2018</t>
+  </si>
+  <si>
+    <t>01-02-2018</t>
+  </si>
+  <si>
+    <t>00-0008519</t>
+  </si>
+  <si>
+    <t>DESARROLLO DEL CAPITAL HUMANO, UN ENFOQUE PRÁCTICO.</t>
+  </si>
+  <si>
+    <t>04-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008520</t>
+  </si>
+  <si>
+    <t>EXCEL PARA INVERSORES</t>
+  </si>
+  <si>
+    <t>19-10-2018</t>
+  </si>
+  <si>
+    <t>27-10-2018</t>
+  </si>
+  <si>
+    <t>20-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008521</t>
+  </si>
+  <si>
+    <t>PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
+  </si>
+  <si>
+    <t>03-03-2018</t>
+  </si>
+  <si>
+    <t>17-03-2018</t>
+  </si>
+  <si>
+    <t>04-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008522</t>
+  </si>
+  <si>
+    <t>ORATORIA Y COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t>00-0008523</t>
+  </si>
+  <si>
+    <t>TEORÍA POLÍTICA CONTEMPORÁNEA</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Pol.</t>
+  </si>
+  <si>
+    <t>12-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008524</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS</t>
+  </si>
+  <si>
+    <t>10-11-2018</t>
+  </si>
+  <si>
+    <t>00-0008555</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN REDES TELEINFORMÁTICAS</t>
+  </si>
+  <si>
+    <t>04-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008556</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN BUSINESS ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>18-04-2018</t>
+  </si>
+  <si>
+    <t>28-11-2018</t>
+  </si>
+  <si>
+    <t>00-0008558</t>
+  </si>
+  <si>
+    <t>GESTIONANDO UNA ESCUELA INCLUSIVA</t>
+  </si>
+  <si>
+    <t>01-09-2018</t>
+  </si>
+  <si>
+    <t>22-04-2018</t>
+  </si>
+  <si>
+    <t>23-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008559</t>
+  </si>
+  <si>
+    <t>INTERVENCIÓN EN GRUPOS Y ORGANIZACIONES</t>
+  </si>
+  <si>
+    <t>27-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008561</t>
+  </si>
+  <si>
+    <t>EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS: Planificar por capacidades desde la óptica de la pedagogía diferenciada.</t>
+  </si>
+  <si>
+    <t>29-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008562</t>
+  </si>
+  <si>
+    <t>MICROBIOLOGÍA DE LOS ALIMENTOS</t>
+  </si>
+  <si>
+    <t>00-0008563</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA TOXICOLOGÍA DE LOS ALIMENTOS</t>
+  </si>
+  <si>
+    <t>00-0008564</t>
+  </si>
+  <si>
+    <t>REQUISITOS DE BPM (BUENAS PRÁCTICAS DE MANUFACTURA EN ALIMENTOS)</t>
+  </si>
+  <si>
+    <t>12-05-2018</t>
+  </si>
+  <si>
+    <t>29-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008565</t>
+  </si>
+  <si>
+    <t>POES - PROCEDIMIENTOS OPERATIVOS ESTANDARIZADOS DE SANEAMIENTO</t>
+  </si>
+  <si>
+    <t>19-05-2018</t>
+  </si>
+  <si>
+    <t>13-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008575</t>
+  </si>
+  <si>
+    <t>MIP - MANEJO INTEGRADO DE PLAGAS</t>
+  </si>
+  <si>
+    <t>00-0008576</t>
+  </si>
+  <si>
+    <t>AUDITORÍAS INTERNAS DE BPM</t>
+  </si>
+  <si>
+    <t>30-06-2018</t>
+  </si>
+  <si>
+    <t>21-07-2018</t>
+  </si>
+  <si>
+    <t>01-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008577</t>
+  </si>
+  <si>
+    <t>TRAZABILIDAD EN LA INDUSTRIA ALIMENTARIA</t>
+  </si>
+  <si>
+    <t>11-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008578</t>
+  </si>
+  <si>
+    <t>RECALL - RETIRO DE PRODUCTOS DEL MERCADO</t>
+  </si>
+  <si>
+    <t>25-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008579</t>
+  </si>
+  <si>
+    <t>LEGISLACIÓN ALIMENTARIA</t>
+  </si>
+  <si>
+    <t>08-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008580</t>
+  </si>
+  <si>
+    <t>BPM EN ESTABLECIMIENTOS LIBRES DE GLUTEN</t>
+  </si>
+  <si>
+    <t>29-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008581</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE INOCUIDAD ALIMENTARIA</t>
+  </si>
+  <si>
+    <t>06-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008597</t>
+  </si>
+  <si>
+    <t>DELITO Y PERSONALIDAD: CONSIDERACIONES PSICOLÓGICAS Y CRIMINOLÓGICAS. ABORDAJE INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>11-05-2018</t>
+  </si>
+  <si>
+    <t>22-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008599</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA PSICOLOGÍA DEL DEPORTE Y LA ACTIVIDAD FÍSICA</t>
+  </si>
+  <si>
+    <t>19-11-2018</t>
+  </si>
+  <si>
+    <t>14-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008600</t>
+  </si>
+  <si>
+    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE</t>
+  </si>
+  <si>
+    <t>00-0008601</t>
+  </si>
+  <si>
+    <t>STARTUPS - DERECHO - MANAGEMENT Y FINANCIAMIENTO</t>
+  </si>
+  <si>
+    <t>17-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008602</t>
+  </si>
+  <si>
+    <t>ORIENTACION VOCACIONAL Y OCUPACIONAL: COMPETENCIAS DE LOS ORIENTADORES</t>
+  </si>
+  <si>
+    <t>08-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008603</t>
+  </si>
+  <si>
+    <t>EJECUCIÓN DE LA PENA: ASPECTOS PRÁCTICOS</t>
+  </si>
+  <si>
+    <t>06-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008604</t>
+  </si>
+  <si>
+    <t>REPORTE DE SOSTENIBILIDAD GRI STANDARS</t>
+  </si>
+  <si>
+    <t>11-10-2018</t>
+  </si>
+  <si>
+    <t>13-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008606</t>
+  </si>
+  <si>
+    <t>INTERDISCIPLINARIO EN INTRODUCCIÓN A LOS CUIDADOS PALIATIVOS</t>
+  </si>
+  <si>
+    <t>00-0008623</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN DERECHOS DE LAS PERSONAS MIGRANTES EN ARGENTINA</t>
+  </si>
+  <si>
+    <t>14-05-2018</t>
+  </si>
+  <si>
+    <t>14-07-2018</t>
+  </si>
+  <si>
+    <t>24-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008624</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA INTERNACIONAL EN EDUCACIÓN EN DERECHOS HUMANOS - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t>30-11-2018</t>
+  </si>
+  <si>
+    <t>02-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008625</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA INTERNACIONAL EN SEGURIDAD HUMANA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t>00-0008626</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA INTERNACIONAL EN PARTICIPACIÓN, CIUDADANÍA Y DERECHOS HUMANOS - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t>00-0008627</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA INTERNACIONAL EN DERECHOS HUMANOS CON MENCIÓN EN ACCESO A LA JUSTICIA - IIDH-AUSJAL</t>
+  </si>
+  <si>
+    <t>00-0008644</t>
+  </si>
+  <si>
+    <t>NARCOTRÁFICO DESDE UNA PERSPECTIVA MULTIDISCIPLINARIA</t>
+  </si>
+  <si>
+    <t>16-08-2018</t>
+  </si>
+  <si>
+    <t>15-11-2018</t>
+  </si>
+  <si>
+    <t>10-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008645</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO PENAL FEDERAL Y DESAFÍOS ACTUALES</t>
+  </si>
+  <si>
+    <t>19-07-2018</t>
+  </si>
+  <si>
+    <t>25-10-2018</t>
+  </si>
+  <si>
+    <t>20-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008646</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA INTERDISCIPLINARIA EN CUIDADOS PALIATIVOS</t>
+  </si>
+  <si>
+    <t>00-0008647</t>
+  </si>
+  <si>
+    <t>BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO - JUVENIL</t>
+  </si>
+  <si>
+    <t>31-05-2020</t>
+  </si>
+  <si>
+    <t>00-0008648</t>
+  </si>
+  <si>
+    <t>EL SECRETARIO DOCENTE EN LA NUEVA ORGANIZACIÓN ESCOLAR</t>
+  </si>
+  <si>
+    <t>00-0008649</t>
+  </si>
+  <si>
+    <t>ARTE POR TODAS PARTES</t>
+  </si>
+  <si>
+    <t>00-0008650</t>
+  </si>
+  <si>
+    <t>PRODUCTOS MÉDICOS Y ORTOPEDICOS EN LA FARMACIA COMUNITARIA</t>
+  </si>
+  <si>
+    <t>00-0008651</t>
+  </si>
+  <si>
+    <t>¿CÓMO CONSTRUIR UN PROTOCOLO ANTI BULLYING Y ANTI GROOMING?</t>
+  </si>
+  <si>
+    <t>11-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008652</t>
+  </si>
+  <si>
+    <t>ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO</t>
+  </si>
+  <si>
+    <t>17-04-2018</t>
+  </si>
+  <si>
+    <t>03-01-2018</t>
+  </si>
+  <si>
+    <t>00-0008653</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE LA RESPONSABILIDAD SOCIAL EMPRESARIA Y REPORTES</t>
+  </si>
+  <si>
+    <t>06-09-2018</t>
+  </si>
+  <si>
+    <t>15-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008654</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN SISTEMAS DE GESTIÓN DE LA CALIDAD E INOCUIDAD ALIMENTARIA - IRAM</t>
+  </si>
+  <si>
+    <t>02-08-2019</t>
+  </si>
+  <si>
+    <t>00-0008655</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN SISTEMAS DE GESTIÓN INTEGRADOS - IRAM</t>
+  </si>
+  <si>
+    <t>07-09-2018</t>
+  </si>
+  <si>
+    <t>09-08-2019</t>
+  </si>
+  <si>
+    <t>00-0008659</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ENERGÍAS RENOVABLES - TERCERA EDICIÓN.</t>
+  </si>
+  <si>
+    <t>29-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008661</t>
+  </si>
+  <si>
+    <t>00-0008662</t>
+  </si>
+  <si>
+    <t>00-0008663</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN CIBERSEGURIDAD</t>
+  </si>
+  <si>
+    <t>00-0008664</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN DESARROLLO DE APLICACIONES PARA ANDROID</t>
+  </si>
+  <si>
+    <t>00-0008666</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN LITERATURA ARGENTINA CONTEMPORÁNEA (1980 A LA ACTUALIDAD)</t>
+  </si>
+  <si>
+    <t>23-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008668</t>
+  </si>
+  <si>
+    <t>LA EDUCACIÓN POPULAR HOY</t>
+  </si>
+  <si>
+    <t>00-0008670</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN LIDERAZGO ORGÁNICO. COACHING, INTELIGENCIA EMOCIONAL Y NEUROCIENCIAS.</t>
+  </si>
+  <si>
+    <t>24-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008671</t>
+  </si>
+  <si>
+    <t>DERMOCOSMÉTICA</t>
+  </si>
+  <si>
+    <t>21-09-2018</t>
+  </si>
+  <si>
+    <t>22-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008672</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN NUTRICIÓN CLÍNICA</t>
+  </si>
+  <si>
+    <t>05-03-2018</t>
+  </si>
+  <si>
+    <t>04-03-2019</t>
+  </si>
+  <si>
+    <t>30-08-2018</t>
+  </si>
+  <si>
+    <t>06-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008674</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN AL BIG DATA Y SOPORTE DE DECISIONES EN BASE A DATOS</t>
+  </si>
+  <si>
+    <t>02-07-2018</t>
+  </si>
+  <si>
+    <t>25-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008675</t>
+  </si>
+  <si>
+    <t>MARKETING ESTRATÉGICO PARA FARMACIAS</t>
+  </si>
+  <si>
+    <t>28-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008676</t>
+  </si>
+  <si>
+    <t>TESIS DE POSGRADO: CUATRO HERRAMIENTAS PRACTICAS</t>
+  </si>
+  <si>
+    <t>07-11-2018</t>
+  </si>
+  <si>
+    <t>14-11-2018</t>
+  </si>
+  <si>
+    <t>08-11-2018</t>
+  </si>
+  <si>
+    <t>00-0008677</t>
+  </si>
+  <si>
+    <t>EQUIDAD DE GÉNERO Y PREVENCIÓN DE LA VIOLENCIA DE GÉNERO EN LA ESCUELA DE NIVEL MEDIO</t>
+  </si>
+  <si>
+    <t>00-0008678</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE CÓRDOBA</t>
+  </si>
+  <si>
+    <t>00-0008679</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMERICA LATINA Y EL CARIBE</t>
+  </si>
+  <si>
+    <t>00-0008680</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE PROYECTOS DE DESARROLLO LOCAL</t>
+  </si>
+  <si>
+    <t>08-08-2018</t>
+  </si>
+  <si>
+    <t>17-09-2018</t>
+  </si>
+  <si>
+    <t>12-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008681</t>
+  </si>
+  <si>
+    <t>DECODIFICANDO LA RELACIÓN ARGENTINA Y BRASIL: HISTORIA Y FUTURO</t>
+  </si>
+  <si>
+    <t>22-10-2018</t>
+  </si>
+  <si>
+    <t>23-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008682</t>
+  </si>
+  <si>
+    <t>POLÍTICA Y POLÍTICAS PÚBLICAS</t>
+  </si>
+  <si>
+    <t>03-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008683</t>
+  </si>
+  <si>
+    <t>PROGRAMAS PÚBLICO - PRIVADO PARA EL DESARROLLO EMPRENDEDOR</t>
+  </si>
+  <si>
+    <t>07-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008684</t>
+  </si>
+  <si>
+    <t>EL IMPACTO EN LOS NEGOCIOS DE LA REFORMA TRIBUTARIA NACIONAL Y LOCAL. Desde una mirada práctica.</t>
+  </si>
+  <si>
+    <t>16-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008686</t>
+  </si>
+  <si>
+    <t>GOBERNAR EL RIESGO DE DESASTRES. POLÍTICAS Y METODOLOGÍAS.</t>
+  </si>
+  <si>
+    <t>03-08-2018</t>
+  </si>
+  <si>
+    <t>04-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008687</t>
+  </si>
+  <si>
+    <t>DISEÑO E IMPLEMENTACIÓN DE PROYECTOS DE COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>28-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008688</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS PARA LA GESTIÓN DE FUENTES DE FINANCIAMIENTO INTERNACIONAL.</t>
+  </si>
+  <si>
+    <t>11-06-2018</t>
+  </si>
+  <si>
+    <t>05-06-2018</t>
+  </si>
+  <si>
+    <t>00-0008689</t>
+  </si>
+  <si>
+    <t>NEGOCIACIÓN Y COMUNICACIÓN INSTITUCIONAL CON ACTORES POLÍTICOS SOCIALES, GRUPOS ASOCIATIVOS Y DE INTERÉS</t>
+  </si>
+  <si>
+    <t>06-08-2018</t>
+  </si>
+  <si>
+    <t>07-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008690</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN FORTALECIMIENTO INSTITUCIONAL DE PARTIDOS POLÍTICOS</t>
+  </si>
+  <si>
+    <t>27-11-2018</t>
+  </si>
+  <si>
+    <t>18-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008691</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICA PARA CIENCIAS BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t>00-0008692</t>
+  </si>
+  <si>
+    <t>DIABETES MELLITUS TIPO 2: estrategias de prevención y seguimiento farmacoterapéutico del paciente con diagnóstico.</t>
+  </si>
+  <si>
+    <t>02-10-2018</t>
+  </si>
+  <si>
+    <t>03-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008693</t>
+  </si>
+  <si>
+    <t>BUENAS PRÁCTICAS FARMACÉUTICAS EN LA FARMACIA OFICINAL</t>
+  </si>
+  <si>
+    <t>16-11-2018</t>
+  </si>
+  <si>
+    <t>00-0008694</t>
+  </si>
+  <si>
+    <t>EDUCACIÓN ESTÉTICA EN LA FILOSOFÍA DE JOHN DEWEY</t>
+  </si>
+  <si>
+    <t>00-0008695</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN EMPRESAS FAMILIARES. Gestión de la Empresa Familiar y profesionalización de la familia empresaria.</t>
+  </si>
+  <si>
+    <t>00-0008696</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE FORMACIÓN GERENCIAL</t>
+  </si>
+  <si>
+    <t>00-0008697</t>
+  </si>
+  <si>
+    <t>FORMULACIÓN DE PROTOCOLOS DE ACTUACIÓN EN VIOLENCIA INTRAFAMILIAR PARA DOCENTES DEL SISTEMA EDUCATIVO</t>
+  </si>
+  <si>
+    <t>07-06-2018</t>
+  </si>
+  <si>
+    <t>09-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008698</t>
+  </si>
+  <si>
+    <t>METODOLOGÍA DE LA INVESTIGACIÓN CIENTÍFICA PARA LAS CIENCIAS BIOLÓGICAS</t>
+  </si>
+  <si>
+    <t>15-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008718</t>
+  </si>
+  <si>
+    <t>JORNADAS DE MEDICINA VETERINARIA LEGAL Y FORENSE</t>
+  </si>
+  <si>
+    <t>17-11-2018</t>
+  </si>
+  <si>
+    <t>00-0008719</t>
+  </si>
+  <si>
+    <t>PROTECCIÓN DE CULTIVOS</t>
+  </si>
+  <si>
+    <t>10-02-2018</t>
+  </si>
+  <si>
+    <t>00-0008720</t>
+  </si>
+  <si>
+    <t>ZOOLOGÍA, DISHERBOLOGÍA Y MODO DE ACCIÓN DE AGROQUÍMICOS</t>
+  </si>
+  <si>
+    <t>00-0008721</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS PARA EL MANEJO DE ORGANISMOS PERJUDICIALES</t>
+  </si>
+  <si>
+    <t>27-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008722</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICA Y EPIDEMIOLOGÍA</t>
+  </si>
+  <si>
+    <t>00-0008723</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN TÉCNICA DE OBRA - EDIFICIOS EN ALTURA</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Arq.</t>
+  </si>
+  <si>
+    <t>26-04-2018</t>
+  </si>
+  <si>
+    <t>12-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008724</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN AGRÍCOLA Y PROYECTOS DE INVERSIÓN</t>
+  </si>
+  <si>
+    <t>00-0008725</t>
+  </si>
+  <si>
+    <t>APLICACIÓN DE PLAGUICIDAS</t>
+  </si>
+  <si>
+    <t>28-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008726</t>
+  </si>
+  <si>
+    <t>FITOPATÓGENOS Y DIAGNÓSTICO</t>
+  </si>
+  <si>
+    <t>00-0008727</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ECONOMÍA DEL FUTURO: BITCOINS Y FINTECH</t>
+  </si>
+  <si>
+    <t>07-12-2018</t>
+  </si>
+  <si>
+    <t>29-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008728</t>
+  </si>
+  <si>
+    <t>ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CORDOBA.</t>
+  </si>
+  <si>
+    <t>28-02-2018</t>
+  </si>
+  <si>
+    <t>02-03-2018</t>
+  </si>
+  <si>
+    <t>26-02-2018</t>
+  </si>
+  <si>
+    <t>00-0008729</t>
+  </si>
+  <si>
+    <t>COOPERACIÓN INTERNACIONAL, ALIANZAS ESTRATÉGICAS Y SECTOR PRIVADO</t>
+  </si>
+  <si>
+    <t>00-0008730</t>
+  </si>
+  <si>
+    <t>LIDERAZGO Y COACHING. SEGUNDA EDICIÓN</t>
+  </si>
+  <si>
+    <t>00-0008731</t>
+  </si>
+  <si>
+    <t>ACTUALIZACIÓN TRIBUTARIA 2018. NOVEDADES EN IMPUESTOS NACIONALES Y PROVINCIA DE CÓRDOBA.</t>
+  </si>
+  <si>
+    <t>01-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008751</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS. CUARTA Y QUINTA EDICIÓN</t>
+  </si>
+  <si>
+    <t>07-03-2018</t>
+  </si>
+  <si>
+    <t>08-03-2018</t>
+  </si>
+  <si>
+    <t>00-0008752</t>
+  </si>
+  <si>
+    <t>CURSO DE NEONATOLOGÍA Y PEDIATRÍA EQUINA: DEL ÚTERO AL STUD</t>
+  </si>
+  <si>
+    <t>00-0008771</t>
+  </si>
+  <si>
+    <t>COACHING EDUCACIONAL</t>
+  </si>
+  <si>
+    <t>00-0008772</t>
+  </si>
+  <si>
+    <t>GOBERNANZA ABIERTA Y COLABORATIVA: NUEVAS RELACIONES EN EL TERRITORIO</t>
+  </si>
+  <si>
+    <t>08-10-2018</t>
+  </si>
+  <si>
+    <t>09-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008773</t>
+  </si>
+  <si>
+    <t>PROYECTOS DE INTERVENCIÓN PEDAGÓGICA PARA LA INCLUSIÓN (ÁMBITO INFORMAL Y NO FORMAL)</t>
+  </si>
+  <si>
+    <t>00-0008774</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN GUBERNAMENTAL</t>
+  </si>
+  <si>
+    <t>00-0008794</t>
+  </si>
+  <si>
+    <t>RESOLUCIÓN DE CONFLICTOS EN ESTABLECIMIENTOS EDUCATIVOS: PRÁCTICAS Y ESTRATEGIAS</t>
+  </si>
+  <si>
+    <t>07-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008795</t>
+  </si>
+  <si>
+    <t>ESTRATEGIAS PARA EL DIAGNÓSTICO PSICOPEDAGÓGICO. CONOCIMIENTO, APLICACIÓN Y ANÁLISIS.</t>
+  </si>
+  <si>
+    <t>00-0008817</t>
+  </si>
+  <si>
+    <t>TEORÍA Y ANÁLISIS DE CONFLICTOS</t>
+  </si>
+  <si>
+    <t>31-08-2018</t>
+  </si>
+  <si>
+    <t>00-0008822</t>
+  </si>
+  <si>
+    <t>00-0008824</t>
+  </si>
+  <si>
+    <t>DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL NIVEL INICIAL</t>
+  </si>
+  <si>
+    <t>00-0008825</t>
+  </si>
+  <si>
+    <t>BUENAS PRÁCTICAS DEL PROTOCOLO FAMILIAR EN LATINOAMÉRICA</t>
+  </si>
+  <si>
+    <t>CORTO</t>
+  </si>
+  <si>
+    <t>00-0008827</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE LA PAMPA</t>
+  </si>
+  <si>
+    <t>00-0008828</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA - SEDE ENTRE RÍOS</t>
+  </si>
+  <si>
+    <t>02-02-2019</t>
+  </si>
+  <si>
+    <t>00-0008830</t>
+  </si>
+  <si>
+    <t>EDUCACIÓN DE ESTUDIANTES CON DISCAPACIDAD MÚLTIPLE Y DISCAPACIDAD SENSORIAL</t>
+  </si>
+  <si>
+    <t>00-0008832</t>
+  </si>
+  <si>
+    <t>CIBERDELITOS. ABORDAJE LEGAL DE LA DELINCUENCIA COMPUTACIONAL</t>
+  </si>
+  <si>
+    <t>00-0008852</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ENERGÍA TERMO SOLAR</t>
+  </si>
+  <si>
+    <t>00-0008853</t>
+  </si>
+  <si>
+    <t>CURSO DE CÉLULAS MADRE MESENQUIMALES AUTÓLOGAS ADULTAS, PLASMA RICO EN PLAQUETAS Y OZONOTERAPIA.</t>
+  </si>
+  <si>
+    <t>00-0008872</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN INCLUSIÓN EDUCACIONAL Y SOCIAL - 2DA. EDICIÓN</t>
+  </si>
+  <si>
+    <t>00-0008894</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIÓN DE EQUIPOS DEPORTIVOS</t>
+  </si>
+  <si>
+    <t>00-0008912</t>
+  </si>
+  <si>
+    <t>INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL AVANZADO</t>
+  </si>
+  <si>
+    <t>12-11-2018</t>
+  </si>
+  <si>
+    <t>00-0008913</t>
+  </si>
+  <si>
+    <t>JORNADA SOBRE CIENCIA, RELIGIÓN Y EDUCACIÓN PARA DOCENTES DE NIVEL SECUNDARIO</t>
+  </si>
+  <si>
+    <t>00-0008933</t>
+  </si>
+  <si>
+    <t>ENERGÍAS RENOVABLES - SEDE LA FALDA - DEFENSORÍA DEL PUEBLO</t>
+  </si>
+  <si>
+    <t>00-0008934</t>
+  </si>
+  <si>
+    <t>ENERGIAS RENOVABLES - SEDE VILLA SANTA CRUZ DEL LAGO (2018)</t>
+  </si>
+  <si>
+    <t>00-0008935</t>
+  </si>
+  <si>
+    <t>ENERGIAS RENOVABLES - SEDE VILLA GIARDINO - DEFENSORÍA DEL PUEBLO</t>
+  </si>
+  <si>
+    <t>00-0008953</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>29-05-2018</t>
+  </si>
+  <si>
+    <t>00-0008955</t>
+  </si>
+  <si>
+    <t>24-04-2018</t>
+  </si>
+  <si>
+    <t>00-0008957</t>
+  </si>
+  <si>
+    <t>LAS PRÁCTICAS DEL CONOCIMIENTO EN EL CAMPO DE LA EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>00-0008958</t>
+  </si>
+  <si>
+    <t>INGLÉS PARA PROFESIONALES EN EL ÁMBITO LABORAL - NIVEL INTERMEDIO</t>
+  </si>
+  <si>
+    <t>00-0008964</t>
+  </si>
+  <si>
+    <t>NEGOCIACIÓN INTERNACIONAL: ABORDAJE, HERRAMIENTAS PRÁCTICAS Y EQUIPO NEGOCIADOR EFECTIVO</t>
+  </si>
+  <si>
+    <t>03-09-2018</t>
+  </si>
+  <si>
+    <t>10-09-2018</t>
+  </si>
+  <si>
+    <t>04-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008968</t>
+  </si>
+  <si>
+    <t>DIVERSIDAD E INTERVENCIÓN PEDAGÓGICA EN EL SECUNDARIO</t>
+  </si>
+  <si>
+    <t>00-0008969</t>
+  </si>
+  <si>
+    <t>NIVEL SUPERIOR E INCLUSIÓN</t>
+  </si>
+  <si>
+    <t>00-0008970</t>
+  </si>
+  <si>
+    <t>EDUCAR EN VALORES HOY</t>
+  </si>
+  <si>
+    <t>00-0008971</t>
+  </si>
+  <si>
+    <t>LA FIGURA DE CRISTO EN LA FILOSOFÍA - SEMINARIO DE FENOMENOLOGÍA</t>
+  </si>
+  <si>
+    <t>00-0008972</t>
+  </si>
+  <si>
+    <t>ASPECTOS LEGALES Y FISCALES DEL FINANCIAMIENTO EMPRESARIO Y SOBERANO</t>
+  </si>
+  <si>
+    <t>25-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008977</t>
+  </si>
+  <si>
+    <t>VI JORNADAS DE INVESTIGACIÓN E INTERVENCIÓN EN PSICOPEDAGOGÍA</t>
+  </si>
+  <si>
+    <t>00-0008978</t>
+  </si>
+  <si>
+    <t>BRAND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>19-09-2018</t>
+  </si>
+  <si>
+    <t>00-0008982</t>
+  </si>
+  <si>
+    <t>RESPONSABILIDAD SOCIAL PARA LA GESTIÓN DE LAS ORGANIZACIONES</t>
+  </si>
+  <si>
+    <t>00-0008983</t>
+  </si>
+  <si>
+    <t>TALLER DE ACOMPAÑAMIENTO PARA LA ESCRITURA DEL TRABAJO FINAL Y LA FINALIZACIÓN DE CARRERA</t>
+  </si>
+  <si>
+    <t>00-0008984</t>
+  </si>
+  <si>
+    <t>LIDERAZGO Y COACHING - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0008988</t>
+  </si>
+  <si>
+    <t>CEREMONIAL Y PROTOCOLO</t>
+  </si>
+  <si>
+    <t>00-0008989</t>
+  </si>
+  <si>
+    <t>LA AUTORIDAD PEDAGÓGICA COMO ENCUENTRO DE TRAYECTORIAS</t>
+  </si>
+  <si>
+    <t>00-0008990</t>
+  </si>
+  <si>
+    <t>ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA</t>
+  </si>
+  <si>
+    <t>00-0008992</t>
+  </si>
+  <si>
+    <t>METODOLOGÍA CUANTITATIVA</t>
+  </si>
+  <si>
+    <t>00-0008993</t>
+  </si>
+  <si>
+    <t>SALUD ANIMAL</t>
+  </si>
+  <si>
+    <t>07-10-2018</t>
+  </si>
+  <si>
+    <t>00-0008994</t>
+  </si>
+  <si>
+    <t>GESTIÓN DIRECTIVA - ARROYITO</t>
+  </si>
+  <si>
+    <t>00-0008996</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS DIGITALES PARA LA VIDA COTIDIANA - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0008997</t>
+  </si>
+  <si>
+    <t>LABORATORIO DE JUGUETES - NAZARETH</t>
+  </si>
+  <si>
+    <t>23-07-2018</t>
+  </si>
+  <si>
+    <t>00-0008999</t>
+  </si>
+  <si>
+    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - NAZARETH</t>
+  </si>
+  <si>
+    <t>18-10-2018</t>
+  </si>
+  <si>
+    <t>00-0009000</t>
+  </si>
+  <si>
+    <t>PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - NAZARETH</t>
+  </si>
+  <si>
+    <t>12-10-2018</t>
+  </si>
+  <si>
+    <t>05-10-2018</t>
+  </si>
+  <si>
+    <t>00-0009001</t>
+  </si>
+  <si>
+    <t>TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009002</t>
+  </si>
+  <si>
+    <t>ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009003</t>
+  </si>
+  <si>
+    <t>TEORÍAS DE LA EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>00-0009004</t>
+  </si>
+  <si>
+    <t>JUGANDO CON ROBOTS PARA NIÑOS - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009005</t>
+  </si>
+  <si>
+    <t>IMPRESIÓN 3D PARA JÓVENES - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009006</t>
+  </si>
+  <si>
+    <t>CUIDADOS INTEGRALES DE ENFERMERÍA AL PACIENTE NEONATO CON PATOLOGÍAS DE RESOLUCIÓN QUIRÚRGICA.</t>
+  </si>
+  <si>
+    <t>00-0009007</t>
+  </si>
+  <si>
+    <t>ODONTOLOGÍA INTEGRATIVA. NEURO - PSICO - ODONTOLOGÍA</t>
+  </si>
+  <si>
+    <t>00-0009011</t>
+  </si>
+  <si>
+    <t>FOTOGRAFÍA: APRENDAMOS A MIRAR - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009012</t>
+  </si>
+  <si>
+    <t>MOSAICO: ROMPER PARA CREAR  - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009019</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009020</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EL JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA</t>
+  </si>
+  <si>
+    <t>00-0009021</t>
+  </si>
+  <si>
+    <t>RELACIÓN ESCUELA - FAMILIA</t>
+  </si>
+  <si>
+    <t>00-0009024</t>
+  </si>
+  <si>
+    <t>GESTIONANDO UNA ESCUELA INCLUSIVA - ARROYITO</t>
+  </si>
+  <si>
+    <t>00-0009025</t>
+  </si>
+  <si>
+    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - ARROYITO</t>
+  </si>
+  <si>
+    <t>00-0009026</t>
+  </si>
+  <si>
+    <t>LOS PROYECTOS EN LA ESCUELA - ARROYITO</t>
+  </si>
+  <si>
+    <t>00-0009029</t>
+  </si>
+  <si>
+    <t>GESTIÓN DIRECTIVA - SEGUNDO NIVEL</t>
+  </si>
+  <si>
+    <t>00-0009032</t>
+  </si>
+  <si>
+    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA GINECOLÓGICA MINI INVASIVA: VIDEOLAPAROSCOPÍA Y VIDEO HISTEROSCOPÍA</t>
+  </si>
+  <si>
+    <t>30-04-2019</t>
+  </si>
+  <si>
+    <t>00-0009033</t>
+  </si>
+  <si>
+    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA DE LA MANO Y RECONSTRUCCIÓN DEL MIEMBRO SUPERIOR</t>
+  </si>
+  <si>
+    <t>00-0009034</t>
+  </si>
+  <si>
+    <t>HIPERTENSION ARTERIAL</t>
+  </si>
+  <si>
+    <t>00-0009035</t>
+  </si>
+  <si>
+    <t>CIRUGÍA RECONSTRUCTIVA ARTICULAR ARTROSCOPICA DE CADERA Y RODILLA</t>
+  </si>
+  <si>
+    <t>00-0009036</t>
+  </si>
+  <si>
+    <t>ÉTICA, INTEGRIDAD Y POLÍTICAS DE TRANSPARENCIA EN LA FUNCIÓN PÚBLICA</t>
+  </si>
+  <si>
+    <t>26-10-2018</t>
+  </si>
+  <si>
+    <t>00-0009041</t>
+  </si>
+  <si>
+    <t>VIOLENCIAS - ANÁLISIS Y PROCESOS DE INTERVENCIÓN TEÓRICO JURÍDICO</t>
+  </si>
+  <si>
+    <t>19-06-2018</t>
+  </si>
+  <si>
+    <t>11-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009044</t>
+  </si>
+  <si>
+    <t>HABLAR DE DIOS DESDE EL LENGUAJE HUMANO (I)</t>
+  </si>
+  <si>
+    <t>00-0009045</t>
+  </si>
+  <si>
+    <t>NUTRICIÓN Y ALIMENTACIÓN DE BOVINOS</t>
+  </si>
+  <si>
+    <t>00-0009046</t>
+  </si>
+  <si>
+    <t>FORMACIÓN DOCTORAL I: ENFOQUES FILOSÓFICOS, ANTROPOLÓGICOS Y SOCIOLÓGICOS DE LA EDUCACIÓN.</t>
+  </si>
+  <si>
+    <t>00-0009047</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN COACHING APLICADO PARA EL DESARROLLO PERSONAL Y ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>26-06-2018</t>
+  </si>
+  <si>
+    <t>29-11-2018</t>
+  </si>
+  <si>
+    <t>00-0009049</t>
+  </si>
+  <si>
+    <t>FISIOLÓMICA DE LAS RESPUESTAS AL ESTRÉS EN PLANTAS Y SU APLICACIÓN AL MEJORAMIENTO</t>
+  </si>
+  <si>
+    <t>05-11-2018</t>
+  </si>
+  <si>
+    <t>09-11-2018</t>
+  </si>
+  <si>
+    <t>06-11-2018</t>
+  </si>
+  <si>
+    <t>00-0009050</t>
+  </si>
+  <si>
+    <t>TALLER DE POSGRADO HERRAMIENTAS FISIOLÓGICAS PARA EL ESTUDIO DEL ESTRÉS ABIÓTICO EN PLANTAS</t>
+  </si>
+  <si>
+    <t>00-0009054</t>
+  </si>
+  <si>
+    <t>INTELIGENCIA EMOCIONAL</t>
+  </si>
+  <si>
+    <t>24-07-2018</t>
+  </si>
+  <si>
+    <t>00-0009056</t>
+  </si>
+  <si>
+    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA. TRANSPLANTA DE ÓRGANOS SÓLIDOS Y CIRUGÍA ONCOLÓGICA</t>
+  </si>
+  <si>
+    <t>30-04-2020</t>
+  </si>
+  <si>
+    <t>00-0009057</t>
+  </si>
+  <si>
+    <t>PRODUCCIÓN Y UTILIZACIÓN DE LOS RECURSOS FORRAJEROS</t>
+  </si>
+  <si>
+    <t>00-0009058</t>
+  </si>
+  <si>
+    <t>SAS - SOCIEDADES ANÓNIMAS SIMPLIFICADAS. APROXIMACIÓN AL NUEVO TIPO SOCIETARIO PARA CONTADORES Y EMPRENDEDORES.</t>
+  </si>
+  <si>
+    <t>00-0009059</t>
+  </si>
+  <si>
+    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN ORTOPEDIA Y TRAUMATOLOGÍA INFANTIL PARA TRAUMATÓLOGOS</t>
+  </si>
+  <si>
+    <t>00-0009060</t>
+  </si>
+  <si>
+    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA AÑO PREVIO EN MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t>23-03-2019</t>
+  </si>
+  <si>
+    <t>00-0009061</t>
+  </si>
+  <si>
+    <t>INVESTIGACIÓN EDUCATIVA: REVISIONES TEÓRICAS, EXPERIENCIAS Y NUEVAS MIRADAS EN TORNO A LAS NEUROCIENCIAS, LA CREATIVIDAD Y LA INTELIGENCIA</t>
+  </si>
+  <si>
+    <t>00-0009063</t>
+  </si>
+  <si>
+    <t>PERSONAS CON DISCAPACIDAD</t>
+  </si>
+  <si>
+    <t>00-0009064</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ESTUDIOS SOCIALES URBANOS</t>
+  </si>
+  <si>
+    <t>13-11-2018</t>
+  </si>
+  <si>
+    <t>20-06-2018</t>
+  </si>
+  <si>
+    <t>00-0009065</t>
+  </si>
+  <si>
+    <t>PERSONA HUMANA: GANANCIAS, BIENES PERSONALES Y MÍNIMA PRESUNTA. AÑO 2017. EJEMPLOS SOBRE LOS APLICATIVOS WEB AFIP.</t>
+  </si>
+  <si>
+    <t>00-0009082</t>
+  </si>
+  <si>
+    <t>EL FRAMING COMO HERRAMIENTA EN EL DEBATE POLÍTICO</t>
+  </si>
+  <si>
+    <t>31-05-2018</t>
+  </si>
+  <si>
+    <t>00-0009083</t>
+  </si>
+  <si>
+    <t>TOPOGRAFÍA AVANZADA</t>
+  </si>
+  <si>
+    <t>30-07-2018</t>
+  </si>
+  <si>
+    <t>00-0009084</t>
+  </si>
+  <si>
+    <t>TALLER VIVENCIAL - LA FAMILIA EL GRAN EQUIPO: HERRAMIENTAS PARA CRECER EN FAMILIA HOY.</t>
+  </si>
+  <si>
+    <t>00-0009085</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN INNOVACIÓN</t>
+  </si>
+  <si>
+    <t>05-09-2018</t>
+  </si>
+  <si>
+    <t>00-0009086</t>
+  </si>
+  <si>
+    <t>ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: DOLOR</t>
+  </si>
+  <si>
+    <t>00-0009087</t>
+  </si>
+  <si>
+    <t>ACTUALIZACIÓN FARMACOTERAPÉUTICA EN LA OFICINA DE FARMACIA: ONCOLOGÍA</t>
+  </si>
+  <si>
+    <t>00-0009089</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE FORMACIÓN INTENSIVA PARA ENFERMERÍA EN CENTROS DE ANESTESIA</t>
+  </si>
+  <si>
+    <t>06-06-2018</t>
+  </si>
+  <si>
+    <t>19-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009091</t>
+  </si>
+  <si>
+    <t>EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>23-08-2018</t>
+  </si>
+  <si>
+    <t>00-0009092</t>
+  </si>
+  <si>
+    <t>ACOMPAÑAR A LA INFANCIA DESDE EL JUEGO Y EL ARTE - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>00-0009109</t>
+  </si>
+  <si>
+    <t>GESTIÓN DIRECTIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>00-0009110</t>
+  </si>
+  <si>
+    <t>GESTIONANDO UNA ESCUELA INCLUSIVA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>00-0009111</t>
+  </si>
+  <si>
+    <t>00-0009129</t>
+  </si>
+  <si>
+    <t>IMPRESIÓN 3D PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>00-0009130</t>
+  </si>
+  <si>
+    <t>ORATORIA Y COMUNICACIÓN PARA JÓVENES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>00-0009131</t>
+  </si>
+  <si>
+    <t>PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>03-07-2018</t>
+  </si>
+  <si>
+    <t>00-0009132</t>
+  </si>
+  <si>
+    <t>RELACIONES INTERGUBERNAMENTALES Y POLÍTICA MULTINIVEL</t>
+  </si>
+  <si>
+    <t>00-0009150</t>
+  </si>
+  <si>
+    <t>LOS LENGUAJES ARTÍSTICOS DE CARA A LA EDUCACIÓN DEL SIGLO XXI: SABERES PRÁCTICOS Y DESAFÍOS</t>
+  </si>
+  <si>
+    <t>00-0009151</t>
+  </si>
+  <si>
+    <t>ESTRATEGIAS Y PRÁCTICAS SOSTENIBLES PARA COOPERATIVAS Y MUTUALES</t>
+  </si>
+  <si>
+    <t>00-0009152</t>
+  </si>
+  <si>
+    <t>PROBLEMÁTICAS Y TENDENCIAS EDUCATIVAS EN AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t>00-0009154</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ORATORIA Y ESTRATEGIAS DE COMUNICACIÓN EFICAZ: COMPETENCIAS LINGÜÍSTICAS, MOTIVACIÓN Y LIDERAZGO.</t>
+  </si>
+  <si>
+    <t>00-0009155</t>
+  </si>
+  <si>
+    <t>CUADRO DE MANDO INTEGRAL. DISEÑO, IMPLEMENTACIÓN Y MONITOREO. ENFOQUE APLICADO.</t>
+  </si>
+  <si>
+    <t>00-0009157</t>
+  </si>
+  <si>
+    <t>INTEGRACIÓN Y COOPERACIÓN REGIONAL EN AMÉRICA LATINA</t>
+  </si>
+  <si>
+    <t>16-07-2018</t>
+  </si>
+  <si>
+    <t>17-07-2018</t>
+  </si>
+  <si>
+    <t>00-0009158</t>
+  </si>
+  <si>
+    <t>LAS POLÍTICAS DE GÉNERO EN LA COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>00-0009159</t>
+  </si>
+  <si>
+    <t>LA INNOVACIÓN EN LA GESTIÓN DEL TALENTO EN LAS ORGANIZACIONES</t>
+  </si>
+  <si>
+    <t>00-0009163</t>
+  </si>
+  <si>
+    <t>XXIX ENCUENTRO DEL ESTADO DE LA INVESTIGACIÓN EDUCATIVA: LA CUESTIÓN DOCENTE, FORMACIÓN Y REALIDAD EDUCATIVA.</t>
+  </si>
+  <si>
+    <t>00-0009164</t>
+  </si>
+  <si>
+    <t>HABITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
+  </si>
+  <si>
+    <t>20-08-2018</t>
+  </si>
+  <si>
+    <t>00-0009165</t>
+  </si>
+  <si>
+    <t>PROCESOS MIGRATORIOS EN EL ESCENARIO INTERNACIONAL: ELEMENTOS PARA LA REFLEXIÓN Y LA DISCUSIÓN</t>
+  </si>
+  <si>
+    <t>00-0009166</t>
+  </si>
+  <si>
+    <t>WORKSHOP: HANDS ON DATA</t>
+  </si>
+  <si>
+    <t>00-0009167</t>
+  </si>
+  <si>
+    <t>SEDE CÓRDOBA - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
+  </si>
+  <si>
+    <t>06-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009168</t>
+  </si>
+  <si>
+    <t>SISTEMA DE INFORMACIÓN GEOGRÁFICA</t>
+  </si>
+  <si>
+    <t>00-0009170</t>
+  </si>
+  <si>
+    <t>DISEÑO E IMPLEMENTACIÓN DE ENTREVISTAS CUALITATIVAS Y FOCUS GROUP. HERRAMIENTAS AVANZADAS</t>
+  </si>
+  <si>
+    <t>16-10-2018</t>
+  </si>
+  <si>
+    <t>24-10-2018</t>
+  </si>
+  <si>
+    <t>17-10-2018</t>
+  </si>
+  <si>
+    <t>00-0009171</t>
+  </si>
+  <si>
+    <t>I JORNADAS NACIONALES DE ENSEÑANZA DE FARMACIA Y BIOQUÍMICA</t>
+  </si>
+  <si>
+    <t>00-0009172</t>
+  </si>
+  <si>
+    <t>CURSO ANUAL DE FORMACIÓN INTENSIVA EN CIRUGÍA BARIÁTRICA Y METABÓLICA</t>
+  </si>
+  <si>
+    <t>00-0009173</t>
+  </si>
+  <si>
+    <t>FORMACIÓN DOCTORAL II: ESCRITURA ACADÉMICA</t>
+  </si>
+  <si>
+    <t>00-0009174</t>
+  </si>
+  <si>
+    <t>SEDE ENTRE RÍOS - DIPLOMATURA EN GOBERNABILIDAD, GERENCIA POLITÍCA Y GESTIÓN PÚBLICA</t>
+  </si>
+  <si>
+    <t>18-01-2019</t>
+  </si>
+  <si>
+    <t>00-0009175</t>
+  </si>
+  <si>
+    <t>PLANIFICACIÓN TERRITORIAL Y CONCEPTOS DE DERECHO URBANÍSITICO</t>
+  </si>
+  <si>
+    <t>00-0009176</t>
+  </si>
+  <si>
+    <t>INVESTIGACIÓN Y ANÁLISIS CUANTITATIVO APLICADA A LA GESTIÓN URBANA</t>
+  </si>
+  <si>
+    <t>00-0009177</t>
+  </si>
+  <si>
+    <t>ESPACIOS PÚBLICOS ¿PARA QUÉ? ¿CUÁNTO? ¿DÓNDE?</t>
+  </si>
+  <si>
+    <t>21-08-2018</t>
+  </si>
+  <si>
+    <t>00-0009178</t>
+  </si>
+  <si>
+    <t>CIUDADES INTELIGENTES, TECNOLOGÍAS, COMPROMISO Y GESTIÓN</t>
+  </si>
+  <si>
+    <t>25-06-2018</t>
+  </si>
+  <si>
+    <t>00-0009180</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN NORMAS NACIONALES E INTERNACIONALES DE CONTABILIDAD (NCPA Y NIIF)</t>
+  </si>
+  <si>
+    <t>00-0009182</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD Y FINANZAS APLICADA A LA PYME</t>
+  </si>
+  <si>
+    <t>00-0009183</t>
+  </si>
+  <si>
+    <t>GOBIERNO ABIERTO, COMUNICACIÓN Y TECNOLOGÍA</t>
+  </si>
+  <si>
+    <t>22-08-2018</t>
+  </si>
+  <si>
+    <t>00-0009184</t>
+  </si>
+  <si>
+    <t>METODOLOGÍA CUALITATIVA</t>
+  </si>
+  <si>
+    <t>00-0009204</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA DE ECOCARDIOGRAFÍA DOPPLER</t>
+  </si>
+  <si>
+    <t>00-0009205</t>
+  </si>
+  <si>
+    <t>II ATENEO CIENTÍFICO SOBRE INCLUSIÓN EDUCATIVA - DEL DERECHO A LAS PRÁCTICAS CONCRETAS</t>
+  </si>
+  <si>
+    <t>00-0009206</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN DISEÑO Y CONSTRUCCIÓN SUSTENTABLE</t>
+  </si>
+  <si>
+    <t>00-0009207</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DE REDES SOCIALES: TEORÍA, MÉTODOS Y APLICACIONES</t>
+  </si>
+  <si>
+    <t>00-0009208</t>
+  </si>
+  <si>
+    <t>ACCESIBILIDAD Y POLÍTICAS DE VIVIENDA</t>
+  </si>
+  <si>
+    <t>11-09-2018</t>
+  </si>
+  <si>
+    <t>12-09-2018</t>
+  </si>
+  <si>
+    <t>00-0009209</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>05-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009210</t>
+  </si>
+  <si>
+    <t>CURSO DE POSGRADO EN DERECHO EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>12-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009211</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ENERGÍAS RENOVABLES - CUARTA EDICIÓN</t>
+  </si>
+  <si>
+    <t>08-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009212</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009213</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>09-07-2018</t>
+  </si>
+  <si>
+    <t>00-0009214</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009215</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009216</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009217</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009218</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009219</t>
+  </si>
+  <si>
+    <t>STARTUPS - FINANCIAMIENTO Y ASPECTOS LEGALES</t>
+  </si>
+  <si>
+    <t>00-0009220</t>
+  </si>
+  <si>
+    <t>LA INVESTIGACIÓN EN EDUCACIÓN: SUS FUNDAMENTOS EPISTEMOLÓGICOS Y METODOLÓGICOS</t>
+  </si>
+  <si>
+    <t>18-07-2018</t>
+  </si>
+  <si>
+    <t>00-0009221</t>
+  </si>
+  <si>
+    <t>CURSO DE ACTUALIZACIÓN EN RADIOLOGÍA VETERINARIA</t>
+  </si>
+  <si>
+    <t>00-0009240</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS METODOLÓGICAS PARA EL ANÁLISIS CUALITATIVO DE TEXTOS</t>
+  </si>
+  <si>
+    <t>00-0009241</t>
+  </si>
+  <si>
+    <t>TRASCENCENCIA POR EL ARTE Y LA BELLEZA</t>
+  </si>
+  <si>
+    <t>00-0009242</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA</t>
+  </si>
+  <si>
+    <t>00-0009243</t>
+  </si>
+  <si>
+    <t>HERRAMIENTAS DE GESTIÓN - 1ERA. PARTE - COCA COLA</t>
+  </si>
+  <si>
+    <t>00-0009260</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN JUEGO COMO PUENTE PARA EL APRENDIZAJE EN EL NIVEL INICIAL Y LA PRIMERA INFANCIA - SEGUNDA EDICIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>21-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009262</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN ADOLESCENCIA, BULLYNG Y CONDUCTAS DE RIESGO - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>21-11-2018</t>
+  </si>
+  <si>
+    <t>00-0009263</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009264</t>
+  </si>
+  <si>
+    <t>CÓMO APREHENDE UN NIÑO EL MUNDO. DESARROLLO, JUEGO Y ESCRITURA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>21-01-2019</t>
+  </si>
+  <si>
+    <t>00-0009265</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN GESTIÓN LOGÍSTICA INTEGRAL</t>
+  </si>
+  <si>
+    <t>22-11-2018</t>
+  </si>
+  <si>
+    <t>00-0009285</t>
+  </si>
+  <si>
+    <t>ESTRATEGIA DE CUSTOMER EXPERIENCE</t>
+  </si>
+  <si>
+    <t>00-0009286</t>
+  </si>
+  <si>
+    <t>PREVENCIÓN LAVADO DE ACTIVOS: APLICACIONES CONCRETAS</t>
+  </si>
+  <si>
+    <t>00-0009287</t>
+  </si>
+  <si>
+    <t>¿CÓMO INICIAR UN PROCESO DE GESTIÓN DE PERSONAS EN ORGANIZACIONES PÚBLICAS?</t>
+  </si>
+  <si>
+    <t>26-09-2018</t>
+  </si>
+  <si>
+    <t>00-0009288</t>
+  </si>
+  <si>
+    <t>GOBIERNO EN JAQUE: CRISIS, ESCÁNDALOS Y POLÉMICAS EN LA COMUNICACIÓN POLÍTICA</t>
+  </si>
+  <si>
+    <t>00-0009289</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE EMPRESAS PORCINAS</t>
+  </si>
+  <si>
+    <t>00-0009290</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN VALORACIÓN DEL DAÑO CORPORAL</t>
+  </si>
+  <si>
+    <t>30-08-2019</t>
+  </si>
+  <si>
+    <t>00-0009307</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA BIG DATA ANALYTICS BUSINESS INTELLIGENCE &amp; REAL TIME DECISION</t>
+  </si>
+  <si>
+    <t>00-0009308</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE INTENSIVO EN TERAPIA OCUPACIONAL - SEGUNDO NIVEL</t>
+  </si>
+  <si>
+    <t>13-03-2019</t>
+  </si>
+  <si>
+    <t>00-0009328</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA LOS RINCONES DEL JUEGO. LA EXPERIENCIA LÚDICA: RECORRIDOS, REPERTORIOS Y REFLEXIONES.</t>
+  </si>
+  <si>
+    <t>08-06-2019</t>
+  </si>
+  <si>
+    <t>00-0009329</t>
+  </si>
+  <si>
+    <t>FINANZAS PERSONALES NIVEL II</t>
+  </si>
+  <si>
+    <t>00-0009367</t>
+  </si>
+  <si>
+    <t>CURSO DE POSGRADO EN METODOLOGÍA CUALITATIVA</t>
+  </si>
+  <si>
+    <t>00-0009368</t>
+  </si>
+  <si>
+    <t>24-01-2019</t>
+  </si>
+  <si>
+    <t>00-0009387</t>
+  </si>
+  <si>
+    <t>00-0009388</t>
+  </si>
+  <si>
+    <t>INCUBACIÓN CENTRO DE EMPRENDEDORISMO E INNOVACIÓN</t>
+  </si>
+  <si>
+    <t>00-0009407</t>
+  </si>
+  <si>
+    <t>18-05-2019</t>
+  </si>
+  <si>
+    <t>00-0009427</t>
+  </si>
+  <si>
+    <t>LOS PROYECTOS EN LA ESCUELA - INSTITUTO JESUITA SAGRADA FAMILIA</t>
+  </si>
+  <si>
+    <t>27-09-2018</t>
+  </si>
+  <si>
+    <t>00-0009448</t>
+  </si>
+  <si>
+    <t>SEMINARIO: GÉNESIS Y ORGANIZACIÓN DE LOS SISTEMAS EDUCATIVOS EN EL MARCO DEL PENSAMIENTO POLÍTICO PEDAGÓGICO</t>
+  </si>
+  <si>
+    <t>00-0009449</t>
+  </si>
+  <si>
+    <t>POLÍTICA EDUCATIVA: EL SISTEMA EDUCATIVO ARGENTINO EN EL CONTEXTO LATINOAMERICANO E INTERNACIONAL (PARTE II)</t>
+  </si>
+  <si>
+    <t>00-0009450</t>
+  </si>
+  <si>
+    <t>FORMACIÓN DOCTORAL I: AUTORIDAD PEDAGÓGICA Y PROCESOS DE EMANCIPACIÓN. TEÓRICAS Y PRÁCTICAS EN ESPACIOS EDUCATIVOS.</t>
+  </si>
+  <si>
+    <t>00-0009451</t>
+  </si>
+  <si>
+    <t>COACHING EDUCACIONAL - SEGUNDA EDICIÓN</t>
+  </si>
+  <si>
+    <t>00-0009467</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN  - DIPLOMATURA EN ATENCIÓN TEMPRANA DEL NIÑO PEQUEÑO: DESARROLLO Y CONSTITUCIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009468</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE CLÍNICO Y EDUCATIVO EN ATENCIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009469</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN SISTEMAS AUMENTATIVOS Y ALTERNATIVOS DE COMUNICACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009471</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN EDUCACIÓN EMOCIONAL EN LA PRIMERA INFANCIA: GENERANDO PUENTES PARA EL APRENDIZAJE - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009472</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA - EL JARDÍN MATERNAL. ENTRE LA CRIANZA Y LA EDUCACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009473</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN ABORDAJE INTERDISCIPLINARIO EN ESTIMULACIÓN TEMPRANA - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009474</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA EN NIÑOS CON DÉFICIT ATENCIONAL - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009475</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA DE SÍNTOMAS EN EL APRENDIZAJE. ABORDAJE E INTERVENCIONES - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009476</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - DIPLOMATURA - EL PSICOPEDAGOGO Y LA ATENCIÓN TEMPRANA: UNA INTERVENCIÓN ENTRE LA SALUD Y LA EDUCACIÓN - CENTRO CRIANZA</t>
+  </si>
+  <si>
+    <t>00-0009498</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA DE ACOMPAÑANTES COMUNITARIOS CONTRA LA VIOLENCIA DE GÉNERO</t>
+  </si>
+  <si>
+    <t>00-0009499</t>
+  </si>
+  <si>
+    <t>TALLER: LAS CUATRO TRANSFORMACIONES FUNDAMENTALES</t>
+  </si>
+  <si>
+    <t>00-0009518</t>
+  </si>
+  <si>
+    <t>HABITAR O TRANSITAR LA ESCUELA DESDE LA PRÁCTICA DOCENTE: SITUACIONES EN EL AULA Y PROPOSICIONES</t>
+  </si>
+  <si>
+    <t>00-0009519</t>
+  </si>
+  <si>
+    <t>TALLER PARA LA ELABORACIÓN DE PROYECTOS DE INVESTIGACIÓN DE LA MAESTRÍA Y DOCTORADO</t>
+  </si>
+  <si>
+    <t>00-0009520</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - PLAN DE DESARROLLO DE COMPETENCIAS PERSONALES</t>
+  </si>
+  <si>
+    <t>00-0009521</t>
+  </si>
+  <si>
+    <t>LIDERAZGO Y COACHING - TERCERA EDICIÓN</t>
+  </si>
+  <si>
+    <t>00-0009522</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t>00-0009523</t>
+  </si>
+  <si>
+    <t>TERCERA EDICIÓN - TALLER DE ORIENTACIÓN VOCACIONAL - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009538</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - LIDERAZGO Y COACHING - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009539</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE LA CIUDAD MODERNA - HELIO PIÑÓN</t>
+  </si>
+  <si>
+    <t>00-0009540</t>
+  </si>
+  <si>
+    <t>ÉTICA Y RESPONSABILIDAD SOCIAL</t>
+  </si>
+  <si>
+    <t>00-0009541</t>
+  </si>
+  <si>
+    <t>SEGUNDA EDICIÓN - ORATORIA Y COMUNICACIÓN PARA JÓVENES - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009558</t>
+  </si>
+  <si>
+    <t>FORMACIÓN DOCTORAL I: LAS ORGANIZACIONES EDUCATIVAS DESDE LA PERSPECTIVA DE ANÁLISIS INSTITUCIONAL.</t>
+  </si>
+  <si>
+    <t>00-0009559</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE CAPACITACIÓN EN DERECHOS HUMANOS EN CONTEXTO DE ENCIERRO EN LA PROVINCIA DE CÓRDOBA. 2</t>
+  </si>
+  <si>
+    <t>17-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009560</t>
+  </si>
+  <si>
+    <t>00-0009561</t>
+  </si>
+  <si>
+    <t>INCLUSIÓN EN EL NIVEL MEDIO - TABORIN</t>
+  </si>
+  <si>
+    <t>00-0009562</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN PODOLOGÍA</t>
+  </si>
+  <si>
+    <t>00-0009578</t>
+  </si>
+  <si>
+    <t>10-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009579</t>
+  </si>
+  <si>
+    <t>CEMENTERIOS PARQUES, TECHOS Y PAREDES VERDES, UNA VUELTA A LA NATURALEZA</t>
+  </si>
+  <si>
+    <t>00-0009580</t>
+  </si>
+  <si>
+    <t>ALGUNOS ASPECTOS DE LA SOTERIOLOGÍA EN LOS PADRES DE LA IGLESIA Y SU VIGENCIA ACTUAL</t>
+  </si>
+  <si>
+    <t>05-08-2018</t>
+  </si>
+  <si>
+    <t>00-0009599</t>
+  </si>
+  <si>
+    <t>FOTOGRAFÍA PARA JÓVENES: APRENDAMOS A MIRAR - NAZARETH</t>
+  </si>
+  <si>
+    <t>00-0009618</t>
+  </si>
+  <si>
+    <t>CÉSPEDES Y CANCHAS DEPORTIVAS</t>
+  </si>
+  <si>
+    <t>00-0009619</t>
+  </si>
+  <si>
+    <t>POLÍTICAS ENERGÉTICAS, CAMBIO CLIMÁTICO Y COOPERACIÓN INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>00-0009621</t>
+  </si>
+  <si>
+    <t>INGLÉS PRÁCTICO PARA VIAJEROS - NIVEL INICIAL - NAZARETH</t>
+  </si>
+  <si>
+    <t>04-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009622</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN COMUNICACIÓN MEDIÁTICA, CULTURA DIGITAL Y EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>00-0009623</t>
+  </si>
+  <si>
+    <t>POSGRADO EN MANAGEMENT ESTRATÉGICO</t>
+  </si>
+  <si>
+    <t>03-04-2018</t>
+  </si>
+  <si>
+    <t>10-07-2018</t>
+  </si>
+  <si>
+    <t>00-0009624</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN DESARROLLO Y GESTIÓN DE CIUDADES INTELIGENTES</t>
+  </si>
+  <si>
+    <t>00-0009646</t>
+  </si>
+  <si>
+    <t>SINSENTIDO Y POLÍTICA: RELACIONES TEÓRICAS Y ARTICULACIONES</t>
+  </si>
+  <si>
+    <t>00-0009647</t>
+  </si>
+  <si>
+    <t>WORKSHOP: PAISAJISMO COMO EXPRESIÓN</t>
+  </si>
+  <si>
+    <t>01-11-2018</t>
+  </si>
+  <si>
+    <t>02-11-2018</t>
+  </si>
+  <si>
+    <t>00-0009648</t>
+  </si>
+  <si>
+    <t>MANEJO SANITARIO DE JARDINES</t>
+  </si>
+  <si>
+    <t>00-0009649</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN ENERGÍAS RENOVABLES</t>
+  </si>
+  <si>
+    <t>15-09-2017</t>
+  </si>
+  <si>
+    <t>24-11-2017</t>
+  </si>
+  <si>
+    <t>00-0009651</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A R PARA EL ANÁLISIS DE DATOS DE CIENCIAS AGRARIAS</t>
+  </si>
+  <si>
+    <t>00-0009652</t>
+  </si>
+  <si>
+    <t>AMBIENTE, TERRITORIO Y CONFLICTOS URBANOS</t>
+  </si>
+  <si>
+    <t>10-10-2018</t>
+  </si>
+  <si>
+    <t>00-0009653</t>
+  </si>
+  <si>
+    <t>00-0009675</t>
+  </si>
+  <si>
+    <t>FERTILIDAD QUÍMICA</t>
+  </si>
+  <si>
+    <t>00-0009695</t>
+  </si>
+  <si>
+    <t>LA ENSEÑANZA DEL PAISAJE EN CÓRDOBA</t>
+  </si>
+  <si>
+    <t>00-0009696</t>
+  </si>
+  <si>
+    <t>LA EQUIDAD DE GÉNERO EN EL ÁMBITO LABORAL</t>
+  </si>
+  <si>
+    <t>00-0009697</t>
+  </si>
+  <si>
+    <t>NEUROCIENCIAS APLICADAS: NEUROPLASTICIDAD, ESTIMULACIÓN NEUROCOGNITIVA Y APRENDIZAJES</t>
+  </si>
+  <si>
+    <t>00-0009698</t>
+  </si>
+  <si>
+    <t>NEUROCIENCIAS APLICADAS: COGNICIÓN SOCIAL. EL CEREBRO SOCIAL.</t>
+  </si>
+  <si>
+    <t>00-0009717</t>
+  </si>
+  <si>
+    <t>NEUROCIENCIAS APLICADAS: INTRODUCCIÓN A LA NEUROPSICOLOGÍA DEL DESARROLLO</t>
+  </si>
+  <si>
+    <t>00-0009737</t>
+  </si>
+  <si>
+    <t>00-0009757</t>
+  </si>
+  <si>
+    <t>FITOTERÁPICOS Y NUTRACÉUTICOS</t>
+  </si>
+  <si>
+    <t>00-0009758</t>
+  </si>
+  <si>
+    <t>ANTROPOLOGÍA URBANA</t>
+  </si>
+  <si>
+    <t>00-0009759</t>
+  </si>
+  <si>
+    <t>RESISTENCIA ANTIMICROBIANA VETERINARIA: RETO GLOBAL PARA UNA SALUD</t>
+  </si>
+  <si>
+    <t>00-0009761</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LA ECONOMÍA POLÍTICA DE LA CIUDAD</t>
+  </si>
+  <si>
+    <t>30-10-2018</t>
+  </si>
+  <si>
+    <t>00-0009762</t>
+  </si>
+  <si>
+    <t>POLÍTICAS DE MOVILIDAD EN EL ESPACIO URBANO</t>
+  </si>
+  <si>
+    <t>00-0009763</t>
+  </si>
+  <si>
+    <t>00-0009765</t>
+  </si>
+  <si>
+    <t>EL ESTUDIANTE QUE NOS INTERPELA EN LAS AULAS - RÍO PRIMERO</t>
+  </si>
+  <si>
+    <t>00-0009766</t>
+  </si>
+  <si>
+    <t>CONOCIENDO E INTERPRETANDO LOS NÚMEROS EN MI EMPRESA FAMILIAR</t>
+  </si>
+  <si>
+    <t>00-0009780</t>
+  </si>
+  <si>
+    <t>00-0009800</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE POLÍTICAS Y PROGRAMAS SOCIALES: DE LA TEORÍA DEL CAMBIO A LOS INDICADORES</t>
+  </si>
+  <si>
+    <t>20-09-2018</t>
+  </si>
+  <si>
+    <t>00-0009840</t>
+  </si>
+  <si>
+    <t>CICLO DE CONFERENCIAS - PRÓXIMO DESTINO</t>
+  </si>
+  <si>
+    <t>00-0009842</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN PROJECT MANAGEMENT</t>
+  </si>
+  <si>
+    <t>00-0009843</t>
+  </si>
+  <si>
+    <t>SÉPTIMA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
+  </si>
+  <si>
+    <t>00-0009847</t>
+  </si>
+  <si>
+    <t>00-0009867</t>
+  </si>
+  <si>
+    <t>ANÁLISIS MARGINAL NIVEL 1: NOCIONES BÁSICAS</t>
+  </si>
+  <si>
+    <t>20-11-2018</t>
+  </si>
+  <si>
+    <t>00-0009875</t>
+  </si>
+  <si>
+    <t>LA PLANIFICACIÓN DE LA GESTIÓN ESCOLAR. CONVERTIR DESEOS EN PROYECTOS.</t>
+  </si>
+  <si>
+    <t>00-0009883</t>
+  </si>
+  <si>
+    <t>JORNADA DE ACTUALIZACIÓN PARA ESTILISTAS Y MAQUILLADORES</t>
+  </si>
+  <si>
+    <t>00-0009885</t>
+  </si>
+  <si>
+    <t>SEXTA EDICIÓN - DESARROLLO DE CAPACIDADES Y FORTALECIMIENTO DE LIDERAZGOS PARA LA PARTICIPACIÓN EN LOS ASUNTOS PÚBLICOS.</t>
+  </si>
+  <si>
+    <t>13-09-2018</t>
+  </si>
+  <si>
+    <t>00-0009886</t>
+  </si>
+  <si>
+    <t>DEMOCRACIA Y CIUDADANÍA MULTICULTURAL</t>
+  </si>
+  <si>
+    <t>00-0009887</t>
+  </si>
+  <si>
+    <t>MANEJO DE PLAGAS EN ESPACIOS VERDES</t>
+  </si>
+  <si>
+    <t>16-12-2018</t>
+  </si>
+  <si>
+    <t>00-0009888</t>
+  </si>
+  <si>
+    <t>JORNADA INTERNACIONAL: MICROBIOLOGÍA DEL VINO / MICROBIOLOGIE DU VIN</t>
+  </si>
+  <si>
+    <t>00-0009894</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN A LAS POLÍTICAS PÚBLICAS PARA EL DESARROLLO EMPRENDEDOR EN AMÉRICA LATINA Y EL CARIBE</t>
+  </si>
+  <si>
+    <t>09-0005958</t>
+  </si>
+  <si>
+    <t>AÑO PREVIO EN MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t>02-05-2017</t>
+  </si>
+  <si>
+    <t>10-05-2017</t>
+  </si>
+  <si>
+    <t>09-0006894</t>
+  </si>
+  <si>
+    <t>BIENAL EN CLÍNICA Y ABORDAJES TERAPÉUTICOS EN PSIQUIATRÍA INFANTO-JUVENIL</t>
+  </si>
+  <si>
+    <t>09-06-2017</t>
+  </si>
+  <si>
+    <t>31-05-2019</t>
+  </si>
+  <si>
+    <t>31-07-2017</t>
+  </si>
+  <si>
+    <t>09-0007023</t>
+  </si>
+  <si>
+    <t>DIPLOMATURA EN DIABETES Y NUTRICIÓN</t>
+  </si>
+  <si>
+    <t>DI-0007213</t>
+  </si>
+  <si>
+    <t>SACRED PLACE</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>DI-0007214</t>
+  </si>
+  <si>
+    <t>THE PRACTICE OF EVERYDAY LIFE</t>
   </si>
 </sst>
 </file>
@@ -3459,7 +3453,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
@@ -3585,37 +3579,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI395"/>
+  <dimension ref="A1:AI394"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C395" activeCellId="0" sqref="C395"/>
+      <selection pane="topLeft" activeCell="B393" activeCellId="0" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="30" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.6032388663968"/>
@@ -43610,7 +43604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>1137</v>
       </c>
@@ -43804,104 +43798,6 @@
       </c>
       <c r="AH394" s="4" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B395" s="3" t="n">
-        <v>19098</v>
-      </c>
-      <c r="C395" s="0" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D395" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E395" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F395" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="G395" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="H395" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I395" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J395" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="K395" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L395" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M395" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N395" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O395" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P395" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q395" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="T395" s="0" t="s">
-        <v>1143</v>
-      </c>
-      <c r="U395" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="V395" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W395" s="3" t="n">
-        <v>114</v>
-      </c>
-      <c r="X395" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y395" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z395" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA395" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB395" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC395" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD395" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE395" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF395" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG395" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH395" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/reporteCursos.xlsx
+++ b/assets/reporteCursos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -3463,7 +3463,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3487,14 +3487,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3564,7 +3556,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3587,38 +3579,38 @@
   </sheetPr>
   <dimension ref="A1:AI395"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C395" activeCellId="0" sqref="C395"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="30" min="27" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="56.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="56.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="56.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="56.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="27" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43910,7 +43902,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
